--- a/_Out/NFDataCfg/Excel/EffectData.xlsx
+++ b/_Out/NFDataCfg/Excel/EffectData.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\James\Desktop\NoahGameFrame\_Out\NFDataCfg\Excel_Ini\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\James\Desktop\NoahGameFrame\_Out\NFDataCfg\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -655,7 +655,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2">
-    <tableStyle name="MySqlDefault" count="2">
+    <tableStyle name="MySqlDefault" count="1">
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
   </tableStyles>
@@ -1229,100 +1229,100 @@
       <c r="A3" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="B3" s="8" t="b">
+      <c r="B3" s="8">
         <v>1</v>
       </c>
-      <c r="C3" s="8" t="b">
+      <c r="C3" s="8">
         <v>1</v>
       </c>
-      <c r="D3" s="8" t="b">
+      <c r="D3" s="8">
         <v>1</v>
       </c>
-      <c r="E3" s="8" t="b">
+      <c r="E3" s="8">
         <v>1</v>
       </c>
-      <c r="F3" s="8" t="b">
+      <c r="F3" s="8">
         <v>1</v>
       </c>
-      <c r="G3" s="8" t="b">
+      <c r="G3" s="8">
         <v>1</v>
       </c>
-      <c r="H3" s="8" t="b">
+      <c r="H3" s="8">
         <v>1</v>
       </c>
-      <c r="I3" s="8" t="b">
+      <c r="I3" s="8">
         <v>1</v>
       </c>
-      <c r="J3" s="8" t="b">
+      <c r="J3" s="8">
         <v>1</v>
       </c>
-      <c r="K3" s="8" t="b">
+      <c r="K3" s="8">
         <v>1</v>
       </c>
-      <c r="L3" s="8" t="b">
+      <c r="L3" s="8">
         <v>1</v>
       </c>
-      <c r="M3" s="8" t="b">
+      <c r="M3" s="8">
         <v>1</v>
       </c>
-      <c r="N3" s="8" t="b">
+      <c r="N3" s="8">
         <v>1</v>
       </c>
-      <c r="O3" s="8" t="b">
+      <c r="O3" s="8">
         <v>1</v>
       </c>
-      <c r="P3" s="8" t="b">
+      <c r="P3" s="8">
         <v>1</v>
       </c>
-      <c r="Q3" s="8" t="b">
+      <c r="Q3" s="8">
         <v>1</v>
       </c>
-      <c r="R3" s="8" t="b">
+      <c r="R3" s="8">
         <v>1</v>
       </c>
-      <c r="S3" s="8" t="b">
+      <c r="S3" s="8">
         <v>1</v>
       </c>
-      <c r="T3" s="8" t="b">
+      <c r="T3" s="8">
         <v>1</v>
       </c>
-      <c r="U3" s="8" t="b">
+      <c r="U3" s="8">
         <v>1</v>
       </c>
-      <c r="V3" s="8" t="b">
+      <c r="V3" s="8">
         <v>1</v>
       </c>
-      <c r="W3" s="8" t="b">
+      <c r="W3" s="8">
         <v>1</v>
       </c>
-      <c r="X3" s="8" t="b">
+      <c r="X3" s="8">
         <v>1</v>
       </c>
-      <c r="Y3" s="8" t="b">
+      <c r="Y3" s="8">
         <v>1</v>
       </c>
-      <c r="Z3" s="8" t="b">
+      <c r="Z3" s="8">
         <v>1</v>
       </c>
-      <c r="AA3" s="8" t="b">
+      <c r="AA3" s="8">
         <v>1</v>
       </c>
-      <c r="AB3" s="8" t="b">
+      <c r="AB3" s="8">
         <v>1</v>
       </c>
-      <c r="AC3" s="8" t="b">
+      <c r="AC3" s="8">
         <v>1</v>
       </c>
-      <c r="AD3" s="8" t="b">
+      <c r="AD3" s="8">
         <v>1</v>
       </c>
-      <c r="AE3" s="8" t="b">
+      <c r="AE3" s="8">
         <v>1</v>
       </c>
-      <c r="AF3" s="8" t="b">
+      <c r="AF3" s="8">
         <v>1</v>
       </c>
-      <c r="AG3" s="8" t="b">
+      <c r="AG3" s="8">
         <v>1</v>
       </c>
     </row>
@@ -1330,100 +1330,100 @@
       <c r="A4" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="B4" s="8" t="b">
+      <c r="B4" s="8">
         <v>1</v>
       </c>
-      <c r="C4" s="8" t="b">
+      <c r="C4" s="8">
         <v>1</v>
       </c>
-      <c r="D4" s="8" t="b">
+      <c r="D4" s="8">
         <v>1</v>
       </c>
-      <c r="E4" s="8" t="b">
+      <c r="E4" s="8">
         <v>1</v>
       </c>
-      <c r="F4" s="8" t="b">
+      <c r="F4" s="8">
         <v>1</v>
       </c>
-      <c r="G4" s="8" t="b">
+      <c r="G4" s="8">
         <v>1</v>
       </c>
-      <c r="H4" s="8" t="b">
+      <c r="H4" s="8">
         <v>1</v>
       </c>
-      <c r="I4" s="8" t="b">
+      <c r="I4" s="8">
         <v>1</v>
       </c>
-      <c r="J4" s="8" t="b">
+      <c r="J4" s="8">
         <v>1</v>
       </c>
-      <c r="K4" s="8" t="b">
+      <c r="K4" s="8">
         <v>1</v>
       </c>
-      <c r="L4" s="8" t="b">
+      <c r="L4" s="8">
         <v>1</v>
       </c>
-      <c r="M4" s="8" t="b">
+      <c r="M4" s="8">
         <v>1</v>
       </c>
-      <c r="N4" s="8" t="b">
+      <c r="N4" s="8">
         <v>1</v>
       </c>
-      <c r="O4" s="8" t="b">
+      <c r="O4" s="8">
         <v>1</v>
       </c>
-      <c r="P4" s="8" t="b">
+      <c r="P4" s="8">
         <v>1</v>
       </c>
-      <c r="Q4" s="8" t="b">
+      <c r="Q4" s="8">
         <v>1</v>
       </c>
-      <c r="R4" s="8" t="b">
+      <c r="R4" s="8">
         <v>1</v>
       </c>
-      <c r="S4" s="8" t="b">
+      <c r="S4" s="8">
         <v>1</v>
       </c>
-      <c r="T4" s="8" t="b">
+      <c r="T4" s="8">
         <v>1</v>
       </c>
-      <c r="U4" s="8" t="b">
+      <c r="U4" s="8">
         <v>1</v>
       </c>
-      <c r="V4" s="8" t="b">
+      <c r="V4" s="8">
         <v>1</v>
       </c>
-      <c r="W4" s="8" t="b">
+      <c r="W4" s="8">
         <v>1</v>
       </c>
-      <c r="X4" s="8" t="b">
+      <c r="X4" s="8">
         <v>1</v>
       </c>
-      <c r="Y4" s="8" t="b">
+      <c r="Y4" s="8">
         <v>1</v>
       </c>
-      <c r="Z4" s="8" t="b">
+      <c r="Z4" s="8">
         <v>1</v>
       </c>
-      <c r="AA4" s="8" t="b">
+      <c r="AA4" s="8">
         <v>1</v>
       </c>
-      <c r="AB4" s="8" t="b">
+      <c r="AB4" s="8">
         <v>1</v>
       </c>
-      <c r="AC4" s="8" t="b">
+      <c r="AC4" s="8">
         <v>1</v>
       </c>
-      <c r="AD4" s="8" t="b">
+      <c r="AD4" s="8">
         <v>1</v>
       </c>
-      <c r="AE4" s="8" t="b">
+      <c r="AE4" s="8">
         <v>1</v>
       </c>
-      <c r="AF4" s="8" t="b">
+      <c r="AF4" s="8">
         <v>1</v>
       </c>
-      <c r="AG4" s="8" t="b">
+      <c r="AG4" s="8">
         <v>1</v>
       </c>
     </row>
@@ -1431,100 +1431,100 @@
       <c r="A5" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="B5" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="C5" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="D5" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="E5" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="F5" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="G5" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="H5" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="I5" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="J5" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="K5" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="L5" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="M5" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="N5" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="O5" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="P5" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="R5" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="S5" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="T5" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="U5" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="V5" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="W5" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="X5" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="Y5" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z5" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="AA5" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="AB5" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC5" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD5" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="AE5" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="AF5" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="AG5" s="8" t="b">
+      <c r="B5" s="8">
+        <v>0</v>
+      </c>
+      <c r="C5" s="8">
+        <v>0</v>
+      </c>
+      <c r="D5" s="8">
+        <v>0</v>
+      </c>
+      <c r="E5" s="8">
+        <v>0</v>
+      </c>
+      <c r="F5" s="8">
+        <v>0</v>
+      </c>
+      <c r="G5" s="8">
+        <v>0</v>
+      </c>
+      <c r="H5" s="8">
+        <v>0</v>
+      </c>
+      <c r="I5" s="8">
+        <v>0</v>
+      </c>
+      <c r="J5" s="8">
+        <v>0</v>
+      </c>
+      <c r="K5" s="8">
+        <v>0</v>
+      </c>
+      <c r="L5" s="8">
+        <v>0</v>
+      </c>
+      <c r="M5" s="8">
+        <v>0</v>
+      </c>
+      <c r="N5" s="8">
+        <v>0</v>
+      </c>
+      <c r="O5" s="8">
+        <v>0</v>
+      </c>
+      <c r="P5" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="8">
+        <v>0</v>
+      </c>
+      <c r="R5" s="8">
+        <v>0</v>
+      </c>
+      <c r="S5" s="8">
+        <v>0</v>
+      </c>
+      <c r="T5" s="8">
+        <v>0</v>
+      </c>
+      <c r="U5" s="8">
+        <v>0</v>
+      </c>
+      <c r="V5" s="8">
+        <v>0</v>
+      </c>
+      <c r="W5" s="8">
+        <v>0</v>
+      </c>
+      <c r="X5" s="8">
+        <v>0</v>
+      </c>
+      <c r="Y5" s="8">
+        <v>0</v>
+      </c>
+      <c r="Z5" s="8">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="8">
+        <v>0</v>
+      </c>
+      <c r="AB5" s="8">
+        <v>0</v>
+      </c>
+      <c r="AC5" s="8">
+        <v>0</v>
+      </c>
+      <c r="AD5" s="8">
+        <v>0</v>
+      </c>
+      <c r="AE5" s="8">
+        <v>0</v>
+      </c>
+      <c r="AF5" s="8">
+        <v>0</v>
+      </c>
+      <c r="AG5" s="8">
         <v>0</v>
       </c>
     </row>
@@ -1532,100 +1532,100 @@
       <c r="A6" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="B6" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="C6" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="D6" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="E6" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="F6" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="G6" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="H6" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="I6" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="J6" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="K6" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="L6" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="M6" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="N6" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="O6" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="P6" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="R6" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="S6" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="T6" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="U6" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="V6" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="W6" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="X6" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="Y6" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z6" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="AA6" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="AB6" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC6" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD6" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="AE6" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="AF6" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="AG6" s="8" t="b">
+      <c r="B6" s="8">
+        <v>0</v>
+      </c>
+      <c r="C6" s="8">
+        <v>0</v>
+      </c>
+      <c r="D6" s="8">
+        <v>0</v>
+      </c>
+      <c r="E6" s="8">
+        <v>0</v>
+      </c>
+      <c r="F6" s="8">
+        <v>0</v>
+      </c>
+      <c r="G6" s="8">
+        <v>0</v>
+      </c>
+      <c r="H6" s="8">
+        <v>0</v>
+      </c>
+      <c r="I6" s="8">
+        <v>0</v>
+      </c>
+      <c r="J6" s="8">
+        <v>0</v>
+      </c>
+      <c r="K6" s="8">
+        <v>0</v>
+      </c>
+      <c r="L6" s="8">
+        <v>0</v>
+      </c>
+      <c r="M6" s="8">
+        <v>0</v>
+      </c>
+      <c r="N6" s="8">
+        <v>0</v>
+      </c>
+      <c r="O6" s="8">
+        <v>0</v>
+      </c>
+      <c r="P6" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="8">
+        <v>0</v>
+      </c>
+      <c r="R6" s="8">
+        <v>0</v>
+      </c>
+      <c r="S6" s="8">
+        <v>0</v>
+      </c>
+      <c r="T6" s="8">
+        <v>0</v>
+      </c>
+      <c r="U6" s="8">
+        <v>0</v>
+      </c>
+      <c r="V6" s="8">
+        <v>0</v>
+      </c>
+      <c r="W6" s="8">
+        <v>0</v>
+      </c>
+      <c r="X6" s="8">
+        <v>0</v>
+      </c>
+      <c r="Y6" s="8">
+        <v>0</v>
+      </c>
+      <c r="Z6" s="8">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="8">
+        <v>0</v>
+      </c>
+      <c r="AB6" s="8">
+        <v>0</v>
+      </c>
+      <c r="AC6" s="8">
+        <v>0</v>
+      </c>
+      <c r="AD6" s="8">
+        <v>0</v>
+      </c>
+      <c r="AE6" s="8">
+        <v>0</v>
+      </c>
+      <c r="AF6" s="8">
+        <v>0</v>
+      </c>
+      <c r="AG6" s="8">
         <v>0</v>
       </c>
     </row>
@@ -1633,100 +1633,100 @@
       <c r="A7" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="B7" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="C7" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="D7" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="E7" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="F7" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="G7" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="H7" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="I7" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="J7" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="K7" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="L7" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="M7" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="N7" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="O7" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="P7" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="R7" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="S7" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="T7" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="U7" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="V7" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="W7" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="X7" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="Y7" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z7" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AA7" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AB7" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC7" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD7" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AE7" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AF7" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AG7" s="3" t="b">
+      <c r="B7" s="3">
+        <v>0</v>
+      </c>
+      <c r="C7" s="3">
+        <v>0</v>
+      </c>
+      <c r="D7" s="3">
+        <v>0</v>
+      </c>
+      <c r="E7" s="3">
+        <v>0</v>
+      </c>
+      <c r="F7" s="3">
+        <v>0</v>
+      </c>
+      <c r="G7" s="3">
+        <v>0</v>
+      </c>
+      <c r="H7" s="3">
+        <v>0</v>
+      </c>
+      <c r="I7" s="3">
+        <v>0</v>
+      </c>
+      <c r="J7" s="3">
+        <v>0</v>
+      </c>
+      <c r="K7" s="3">
+        <v>0</v>
+      </c>
+      <c r="L7" s="3">
+        <v>0</v>
+      </c>
+      <c r="M7" s="3">
+        <v>0</v>
+      </c>
+      <c r="N7" s="3">
+        <v>0</v>
+      </c>
+      <c r="O7" s="3">
+        <v>0</v>
+      </c>
+      <c r="P7" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="3">
+        <v>0</v>
+      </c>
+      <c r="R7" s="3">
+        <v>0</v>
+      </c>
+      <c r="S7" s="3">
+        <v>0</v>
+      </c>
+      <c r="T7" s="3">
+        <v>0</v>
+      </c>
+      <c r="U7" s="3">
+        <v>0</v>
+      </c>
+      <c r="V7" s="3">
+        <v>0</v>
+      </c>
+      <c r="W7" s="3">
+        <v>0</v>
+      </c>
+      <c r="X7" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA7" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB7" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC7" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD7" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE7" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF7" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG7" s="3">
         <v>0</v>
       </c>
     </row>
@@ -1734,100 +1734,100 @@
       <c r="A8" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="B8" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="C8" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="D8" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="E8" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="F8" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="G8" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="H8" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="I8" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="J8" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="K8" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="L8" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="M8" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="N8" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="O8" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="P8" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="R8" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="S8" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="T8" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="U8" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="V8" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="W8" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="X8" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="Y8" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z8" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AA8" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AB8" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC8" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD8" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AE8" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AF8" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AG8" s="3" t="b">
+      <c r="B8" s="3">
+        <v>0</v>
+      </c>
+      <c r="C8" s="3">
+        <v>0</v>
+      </c>
+      <c r="D8" s="3">
+        <v>0</v>
+      </c>
+      <c r="E8" s="3">
+        <v>0</v>
+      </c>
+      <c r="F8" s="3">
+        <v>0</v>
+      </c>
+      <c r="G8" s="3">
+        <v>0</v>
+      </c>
+      <c r="H8" s="3">
+        <v>0</v>
+      </c>
+      <c r="I8" s="3">
+        <v>0</v>
+      </c>
+      <c r="J8" s="3">
+        <v>0</v>
+      </c>
+      <c r="K8" s="3">
+        <v>0</v>
+      </c>
+      <c r="L8" s="3">
+        <v>0</v>
+      </c>
+      <c r="M8" s="3">
+        <v>0</v>
+      </c>
+      <c r="N8" s="3">
+        <v>0</v>
+      </c>
+      <c r="O8" s="3">
+        <v>0</v>
+      </c>
+      <c r="P8" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="3">
+        <v>0</v>
+      </c>
+      <c r="R8" s="3">
+        <v>0</v>
+      </c>
+      <c r="S8" s="3">
+        <v>0</v>
+      </c>
+      <c r="T8" s="3">
+        <v>0</v>
+      </c>
+      <c r="U8" s="3">
+        <v>0</v>
+      </c>
+      <c r="V8" s="3">
+        <v>0</v>
+      </c>
+      <c r="W8" s="3">
+        <v>0</v>
+      </c>
+      <c r="X8" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA8" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB8" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC8" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD8" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE8" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF8" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG8" s="3">
         <v>0</v>
       </c>
     </row>
@@ -1835,100 +1835,100 @@
       <c r="A9" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="B9" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="C9" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="D9" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="E9" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="F9" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="G9" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="H9" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="I9" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="J9" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="K9" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="L9" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="M9" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="N9" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="O9" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="P9" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="R9" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="S9" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="T9" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="U9" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="V9" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="W9" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="X9" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="Y9" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z9" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AA9" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AB9" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC9" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD9" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AE9" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AF9" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AG9" s="3" t="b">
+      <c r="B9" s="3">
+        <v>0</v>
+      </c>
+      <c r="C9" s="3">
+        <v>0</v>
+      </c>
+      <c r="D9" s="3">
+        <v>0</v>
+      </c>
+      <c r="E9" s="3">
+        <v>0</v>
+      </c>
+      <c r="F9" s="3">
+        <v>0</v>
+      </c>
+      <c r="G9" s="3">
+        <v>0</v>
+      </c>
+      <c r="H9" s="3">
+        <v>0</v>
+      </c>
+      <c r="I9" s="3">
+        <v>0</v>
+      </c>
+      <c r="J9" s="3">
+        <v>0</v>
+      </c>
+      <c r="K9" s="3">
+        <v>0</v>
+      </c>
+      <c r="L9" s="3">
+        <v>0</v>
+      </c>
+      <c r="M9" s="3">
+        <v>0</v>
+      </c>
+      <c r="N9" s="3">
+        <v>0</v>
+      </c>
+      <c r="O9" s="3">
+        <v>0</v>
+      </c>
+      <c r="P9" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="3">
+        <v>0</v>
+      </c>
+      <c r="R9" s="3">
+        <v>0</v>
+      </c>
+      <c r="S9" s="3">
+        <v>0</v>
+      </c>
+      <c r="T9" s="3">
+        <v>0</v>
+      </c>
+      <c r="U9" s="3">
+        <v>0</v>
+      </c>
+      <c r="V9" s="3">
+        <v>0</v>
+      </c>
+      <c r="W9" s="3">
+        <v>0</v>
+      </c>
+      <c r="X9" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y9" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA9" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB9" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC9" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD9" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE9" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF9" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG9" s="3">
         <v>0</v>
       </c>
     </row>

--- a/_Out/NFDataCfg/Excel/EffectData.xlsx
+++ b/_Out/NFDataCfg/Excel/EffectData.xlsx
@@ -1005,7 +1005,7 @@
       <pane xSplit="1" ySplit="10" topLeftCell="B11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A9" sqref="A9"/>
+      <selection pane="bottomRight" activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>50</v>
+        <v>550</v>
       </c>
       <c r="F11">
-        <v>50</v>
+        <v>550</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -2148,10 +2148,10 @@
         <v>0</v>
       </c>
       <c r="E12">
-        <v>150</v>
+        <v>600</v>
       </c>
       <c r="F12">
-        <v>150</v>
+        <v>600</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -2249,10 +2249,10 @@
         <v>0</v>
       </c>
       <c r="E13">
-        <v>250</v>
+        <v>650</v>
       </c>
       <c r="F13">
-        <v>250</v>
+        <v>650</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -2350,10 +2350,10 @@
         <v>0</v>
       </c>
       <c r="E14">
-        <v>350</v>
+        <v>700</v>
       </c>
       <c r="F14">
-        <v>350</v>
+        <v>700</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -2451,10 +2451,10 @@
         <v>0</v>
       </c>
       <c r="E15">
-        <v>450</v>
+        <v>750</v>
       </c>
       <c r="F15">
-        <v>450</v>
+        <v>750</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -2552,10 +2552,10 @@
         <v>0</v>
       </c>
       <c r="E16">
-        <v>550</v>
+        <v>800</v>
       </c>
       <c r="F16">
-        <v>550</v>
+        <v>800</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -2653,10 +2653,10 @@
         <v>0</v>
       </c>
       <c r="E17">
-        <v>650</v>
+        <v>850</v>
       </c>
       <c r="F17">
-        <v>650</v>
+        <v>850</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -2754,10 +2754,10 @@
         <v>0</v>
       </c>
       <c r="E18">
-        <v>750</v>
+        <v>900</v>
       </c>
       <c r="F18">
-        <v>750</v>
+        <v>900</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -2855,10 +2855,10 @@
         <v>0</v>
       </c>
       <c r="E19">
-        <v>850</v>
+        <v>950</v>
       </c>
       <c r="F19">
-        <v>850</v>
+        <v>950</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -2956,10 +2956,10 @@
         <v>0</v>
       </c>
       <c r="E20">
-        <v>950</v>
+        <v>1000</v>
       </c>
       <c r="F20">
-        <v>950</v>
+        <v>1000</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -3158,10 +3158,10 @@
         <v>0</v>
       </c>
       <c r="E22">
-        <v>1150</v>
+        <v>1100</v>
       </c>
       <c r="F22">
-        <v>1150</v>
+        <v>1100</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -3259,10 +3259,10 @@
         <v>0</v>
       </c>
       <c r="E23">
-        <v>1250</v>
+        <v>1150</v>
       </c>
       <c r="F23">
-        <v>1250</v>
+        <v>1150</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -3360,10 +3360,10 @@
         <v>0</v>
       </c>
       <c r="E24">
-        <v>1350</v>
+        <v>1200</v>
       </c>
       <c r="F24">
-        <v>1350</v>
+        <v>1200</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -3461,10 +3461,10 @@
         <v>0</v>
       </c>
       <c r="E25">
-        <v>1450</v>
+        <v>1250</v>
       </c>
       <c r="F25">
-        <v>1450</v>
+        <v>1250</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -3562,10 +3562,10 @@
         <v>0</v>
       </c>
       <c r="E26">
-        <v>1550</v>
+        <v>1300</v>
       </c>
       <c r="F26">
-        <v>1550</v>
+        <v>1300</v>
       </c>
       <c r="G26">
         <v>0</v>
@@ -3663,10 +3663,10 @@
         <v>0</v>
       </c>
       <c r="E27">
-        <v>1650</v>
+        <v>1350</v>
       </c>
       <c r="F27">
-        <v>1650</v>
+        <v>1350</v>
       </c>
       <c r="G27">
         <v>0</v>
@@ -3764,10 +3764,10 @@
         <v>0</v>
       </c>
       <c r="E28">
-        <v>1750</v>
+        <v>1400</v>
       </c>
       <c r="F28">
-        <v>1750</v>
+        <v>1400</v>
       </c>
       <c r="G28">
         <v>0</v>
@@ -3865,10 +3865,10 @@
         <v>0</v>
       </c>
       <c r="E29">
-        <v>1850</v>
+        <v>1450</v>
       </c>
       <c r="F29">
-        <v>1850</v>
+        <v>1450</v>
       </c>
       <c r="G29">
         <v>0</v>
@@ -3966,10 +3966,10 @@
         <v>0</v>
       </c>
       <c r="E30">
-        <v>1950</v>
+        <v>1500</v>
       </c>
       <c r="F30">
-        <v>1950</v>
+        <v>1500</v>
       </c>
       <c r="G30">
         <v>0</v>
@@ -4067,10 +4067,10 @@
         <v>0</v>
       </c>
       <c r="E31">
-        <v>2050</v>
+        <v>1550</v>
       </c>
       <c r="F31">
-        <v>2050</v>
+        <v>1550</v>
       </c>
       <c r="G31">
         <v>0</v>
@@ -4168,10 +4168,10 @@
         <v>0</v>
       </c>
       <c r="E32">
-        <v>2150</v>
+        <v>1600</v>
       </c>
       <c r="F32">
-        <v>2150</v>
+        <v>1600</v>
       </c>
       <c r="G32">
         <v>0</v>
@@ -4269,10 +4269,10 @@
         <v>0</v>
       </c>
       <c r="E33">
-        <v>2250</v>
+        <v>1650</v>
       </c>
       <c r="F33">
-        <v>2250</v>
+        <v>1650</v>
       </c>
       <c r="G33">
         <v>0</v>
@@ -4370,10 +4370,10 @@
         <v>0</v>
       </c>
       <c r="E34">
-        <v>2350</v>
+        <v>1700</v>
       </c>
       <c r="F34">
-        <v>2350</v>
+        <v>1700</v>
       </c>
       <c r="G34">
         <v>0</v>
@@ -4471,10 +4471,10 @@
         <v>0</v>
       </c>
       <c r="E35">
-        <v>2450</v>
+        <v>1750</v>
       </c>
       <c r="F35">
-        <v>2450</v>
+        <v>1750</v>
       </c>
       <c r="G35">
         <v>0</v>
@@ -4572,10 +4572,10 @@
         <v>0</v>
       </c>
       <c r="E36">
-        <v>2550</v>
+        <v>1800</v>
       </c>
       <c r="F36">
-        <v>2550</v>
+        <v>1800</v>
       </c>
       <c r="G36">
         <v>0</v>
@@ -4673,10 +4673,10 @@
         <v>0</v>
       </c>
       <c r="E37">
-        <v>2650</v>
+        <v>1850</v>
       </c>
       <c r="F37">
-        <v>2650</v>
+        <v>1850</v>
       </c>
       <c r="G37">
         <v>0</v>
@@ -4774,10 +4774,10 @@
         <v>0</v>
       </c>
       <c r="E38">
-        <v>2750</v>
+        <v>1900</v>
       </c>
       <c r="F38">
-        <v>2750</v>
+        <v>1900</v>
       </c>
       <c r="G38">
         <v>0</v>
@@ -4875,10 +4875,10 @@
         <v>0</v>
       </c>
       <c r="E39">
-        <v>2850</v>
+        <v>1950</v>
       </c>
       <c r="F39">
-        <v>2850</v>
+        <v>1950</v>
       </c>
       <c r="G39">
         <v>0</v>
@@ -4976,10 +4976,10 @@
         <v>0</v>
       </c>
       <c r="E40">
-        <v>2950</v>
+        <v>2000</v>
       </c>
       <c r="F40">
-        <v>2950</v>
+        <v>2000</v>
       </c>
       <c r="G40">
         <v>0</v>
@@ -5077,10 +5077,10 @@
         <v>0</v>
       </c>
       <c r="E41">
-        <v>3050</v>
+        <v>2050</v>
       </c>
       <c r="F41">
-        <v>3050</v>
+        <v>2050</v>
       </c>
       <c r="G41">
         <v>0</v>
@@ -5178,10 +5178,10 @@
         <v>0</v>
       </c>
       <c r="E42">
-        <v>3150</v>
+        <v>2100</v>
       </c>
       <c r="F42">
-        <v>3150</v>
+        <v>2100</v>
       </c>
       <c r="G42">
         <v>0</v>
@@ -5279,10 +5279,10 @@
         <v>0</v>
       </c>
       <c r="E43">
-        <v>3250</v>
+        <v>2150</v>
       </c>
       <c r="F43">
-        <v>3250</v>
+        <v>2150</v>
       </c>
       <c r="G43">
         <v>0</v>
@@ -5380,10 +5380,10 @@
         <v>0</v>
       </c>
       <c r="E44">
-        <v>3350</v>
+        <v>2200</v>
       </c>
       <c r="F44">
-        <v>3350</v>
+        <v>2200</v>
       </c>
       <c r="G44">
         <v>0</v>
@@ -5481,10 +5481,10 @@
         <v>0</v>
       </c>
       <c r="E45">
-        <v>3450</v>
+        <v>2250</v>
       </c>
       <c r="F45">
-        <v>3450</v>
+        <v>2250</v>
       </c>
       <c r="G45">
         <v>0</v>
@@ -5582,10 +5582,10 @@
         <v>0</v>
       </c>
       <c r="E46">
-        <v>3550</v>
+        <v>2300</v>
       </c>
       <c r="F46">
-        <v>3550</v>
+        <v>2300</v>
       </c>
       <c r="G46">
         <v>0</v>
@@ -5683,10 +5683,10 @@
         <v>0</v>
       </c>
       <c r="E47">
-        <v>3650</v>
+        <v>2350</v>
       </c>
       <c r="F47">
-        <v>3650</v>
+        <v>2350</v>
       </c>
       <c r="G47">
         <v>0</v>
@@ -5784,10 +5784,10 @@
         <v>0</v>
       </c>
       <c r="E48">
-        <v>3750</v>
+        <v>2400</v>
       </c>
       <c r="F48">
-        <v>3750</v>
+        <v>2400</v>
       </c>
       <c r="G48">
         <v>0</v>
@@ -5885,10 +5885,10 @@
         <v>0</v>
       </c>
       <c r="E49">
-        <v>3850</v>
+        <v>2450</v>
       </c>
       <c r="F49">
-        <v>3850</v>
+        <v>2450</v>
       </c>
       <c r="G49">
         <v>0</v>
@@ -5986,10 +5986,10 @@
         <v>0</v>
       </c>
       <c r="E50">
-        <v>3950</v>
+        <v>2500</v>
       </c>
       <c r="F50">
-        <v>3950</v>
+        <v>2500</v>
       </c>
       <c r="G50">
         <v>0</v>
@@ -6087,10 +6087,10 @@
         <v>0</v>
       </c>
       <c r="E51">
-        <v>4050</v>
+        <v>2550</v>
       </c>
       <c r="F51">
-        <v>4050</v>
+        <v>2550</v>
       </c>
       <c r="G51">
         <v>0</v>
@@ -6188,10 +6188,10 @@
         <v>0</v>
       </c>
       <c r="E52">
-        <v>4150</v>
+        <v>2600</v>
       </c>
       <c r="F52">
-        <v>4150</v>
+        <v>2600</v>
       </c>
       <c r="G52">
         <v>0</v>
@@ -6289,10 +6289,10 @@
         <v>0</v>
       </c>
       <c r="E53">
-        <v>4250</v>
+        <v>2650</v>
       </c>
       <c r="F53">
-        <v>4250</v>
+        <v>2650</v>
       </c>
       <c r="G53">
         <v>0</v>
@@ -6390,10 +6390,10 @@
         <v>0</v>
       </c>
       <c r="E54">
-        <v>4350</v>
+        <v>2700</v>
       </c>
       <c r="F54">
-        <v>4350</v>
+        <v>2700</v>
       </c>
       <c r="G54">
         <v>0</v>
@@ -6491,10 +6491,10 @@
         <v>0</v>
       </c>
       <c r="E55">
-        <v>4450</v>
+        <v>2750</v>
       </c>
       <c r="F55">
-        <v>4450</v>
+        <v>2750</v>
       </c>
       <c r="G55">
         <v>0</v>
@@ -6592,10 +6592,10 @@
         <v>0</v>
       </c>
       <c r="E56">
-        <v>4550</v>
+        <v>2800</v>
       </c>
       <c r="F56">
-        <v>4550</v>
+        <v>2800</v>
       </c>
       <c r="G56">
         <v>0</v>
@@ -6693,10 +6693,10 @@
         <v>0</v>
       </c>
       <c r="E57">
-        <v>4650</v>
+        <v>2850</v>
       </c>
       <c r="F57">
-        <v>4650</v>
+        <v>2850</v>
       </c>
       <c r="G57">
         <v>0</v>
@@ -6794,10 +6794,10 @@
         <v>0</v>
       </c>
       <c r="E58">
-        <v>4750</v>
+        <v>2900</v>
       </c>
       <c r="F58">
-        <v>4750</v>
+        <v>2900</v>
       </c>
       <c r="G58">
         <v>0</v>
@@ -6895,10 +6895,10 @@
         <v>0</v>
       </c>
       <c r="E59">
-        <v>4850</v>
+        <v>2950</v>
       </c>
       <c r="F59">
-        <v>4850</v>
+        <v>2950</v>
       </c>
       <c r="G59">
         <v>0</v>
@@ -6996,10 +6996,10 @@
         <v>0</v>
       </c>
       <c r="E60">
-        <v>4950</v>
+        <v>3000</v>
       </c>
       <c r="F60">
-        <v>4950</v>
+        <v>3000</v>
       </c>
       <c r="G60">
         <v>0</v>
@@ -7097,10 +7097,10 @@
         <v>0</v>
       </c>
       <c r="E61">
-        <v>5050</v>
+        <v>3050</v>
       </c>
       <c r="F61">
-        <v>5050</v>
+        <v>3050</v>
       </c>
       <c r="G61">
         <v>0</v>
@@ -7198,10 +7198,10 @@
         <v>0</v>
       </c>
       <c r="E62">
-        <v>5150</v>
+        <v>3100</v>
       </c>
       <c r="F62">
-        <v>5150</v>
+        <v>3100</v>
       </c>
       <c r="G62">
         <v>0</v>
@@ -7299,10 +7299,10 @@
         <v>0</v>
       </c>
       <c r="E63">
-        <v>5250</v>
+        <v>3150</v>
       </c>
       <c r="F63">
-        <v>5250</v>
+        <v>3150</v>
       </c>
       <c r="G63">
         <v>0</v>
@@ -7400,10 +7400,10 @@
         <v>0</v>
       </c>
       <c r="E64">
-        <v>5350</v>
+        <v>3200</v>
       </c>
       <c r="F64">
-        <v>5350</v>
+        <v>3200</v>
       </c>
       <c r="G64">
         <v>0</v>
@@ -7501,10 +7501,10 @@
         <v>0</v>
       </c>
       <c r="E65">
-        <v>5450</v>
+        <v>3250</v>
       </c>
       <c r="F65">
-        <v>5450</v>
+        <v>3250</v>
       </c>
       <c r="G65">
         <v>0</v>
@@ -7602,10 +7602,10 @@
         <v>0</v>
       </c>
       <c r="E66">
-        <v>5550</v>
+        <v>3300</v>
       </c>
       <c r="F66">
-        <v>5550</v>
+        <v>3300</v>
       </c>
       <c r="G66">
         <v>0</v>
@@ -7703,10 +7703,10 @@
         <v>0</v>
       </c>
       <c r="E67">
-        <v>5650</v>
+        <v>3350</v>
       </c>
       <c r="F67">
-        <v>5650</v>
+        <v>3350</v>
       </c>
       <c r="G67">
         <v>0</v>
@@ -7804,10 +7804,10 @@
         <v>0</v>
       </c>
       <c r="E68">
-        <v>5750</v>
+        <v>3400</v>
       </c>
       <c r="F68">
-        <v>5750</v>
+        <v>3400</v>
       </c>
       <c r="G68">
         <v>0</v>
@@ -7905,10 +7905,10 @@
         <v>0</v>
       </c>
       <c r="E69">
-        <v>5850</v>
+        <v>3450</v>
       </c>
       <c r="F69">
-        <v>5850</v>
+        <v>3450</v>
       </c>
       <c r="G69">
         <v>0</v>
@@ -8006,10 +8006,10 @@
         <v>0</v>
       </c>
       <c r="E70">
-        <v>5950</v>
+        <v>3500</v>
       </c>
       <c r="F70">
-        <v>5950</v>
+        <v>3500</v>
       </c>
       <c r="G70">
         <v>0</v>

--- a/_Out/NFDataCfg/Excel/EffectData.xlsx
+++ b/_Out/NFDataCfg/Excel/EffectData.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18229"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18528"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21495" windowHeight="10343"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21495" windowHeight="10343" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Property1" sheetId="1" r:id="rId1"/>
@@ -432,7 +432,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -655,7 +655,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2">
-    <tableStyle name="MySqlDefault" count="1">
+    <tableStyle name="MySqlDefault" count="1" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
   </tableStyles>
@@ -998,14 +998,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AG70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="10" topLeftCell="B11" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="10" topLeftCell="Y11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G30" sqref="G30"/>
+      <selection pane="bottomRight" activeCell="AB11" sqref="AB11:AB70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1020,7 +1020,8 @@
     <col min="15" max="29" width="16.53125" customWidth="1"/>
     <col min="30" max="30" width="10.33203125" customWidth="1"/>
     <col min="31" max="31" width="13" customWidth="1"/>
-    <col min="32" max="33" width="12.1328125" customWidth="1"/>
+    <col min="32" max="32" width="12.1328125" customWidth="1"/>
+    <col min="33" max="33" width="15.73046875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:33" s="1" customFormat="1">
@@ -2116,19 +2117,19 @@
         <v>50</v>
       </c>
       <c r="AB11">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AC11">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AD11">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AE11">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AF11">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AG11">
         <v>0</v>
@@ -2217,19 +2218,19 @@
         <v>50</v>
       </c>
       <c r="AB12">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AC12">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AD12">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AE12">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AF12">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AG12">
         <v>0</v>
@@ -2318,19 +2319,19 @@
         <v>50</v>
       </c>
       <c r="AB13">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AC13">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AD13">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AE13">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AF13">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AG13">
         <v>0</v>
@@ -2419,19 +2420,19 @@
         <v>50</v>
       </c>
       <c r="AB14">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AC14">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AD14">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AE14">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AF14">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AG14">
         <v>0</v>
@@ -2520,19 +2521,19 @@
         <v>50</v>
       </c>
       <c r="AB15">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AC15">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AD15">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AE15">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AF15">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AG15">
         <v>0</v>
@@ -2621,19 +2622,19 @@
         <v>50</v>
       </c>
       <c r="AB16">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AC16">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AD16">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AE16">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AF16">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AG16">
         <v>0</v>
@@ -2722,19 +2723,19 @@
         <v>50</v>
       </c>
       <c r="AB17">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AC17">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AD17">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AE17">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AF17">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AG17">
         <v>0</v>
@@ -2823,19 +2824,19 @@
         <v>50</v>
       </c>
       <c r="AB18">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AC18">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AD18">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AE18">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AF18">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AG18">
         <v>0</v>
@@ -2924,19 +2925,19 @@
         <v>50</v>
       </c>
       <c r="AB19">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AC19">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AD19">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AE19">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AF19">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AG19">
         <v>0</v>
@@ -3025,19 +3026,19 @@
         <v>50</v>
       </c>
       <c r="AB20">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AC20">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AD20">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AE20">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AF20">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AG20">
         <v>0</v>
@@ -3126,19 +3127,19 @@
         <v>50</v>
       </c>
       <c r="AB21">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AC21">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AD21">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AE21">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AF21">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AG21">
         <v>0</v>
@@ -3227,19 +3228,19 @@
         <v>50</v>
       </c>
       <c r="AB22">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AC22">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AD22">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AE22">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AF22">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AG22">
         <v>0</v>
@@ -3328,19 +3329,19 @@
         <v>50</v>
       </c>
       <c r="AB23">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AC23">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AD23">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AE23">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AF23">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AG23">
         <v>0</v>
@@ -3429,19 +3430,19 @@
         <v>50</v>
       </c>
       <c r="AB24">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AC24">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AD24">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AE24">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AF24">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AG24">
         <v>0</v>
@@ -3530,19 +3531,19 @@
         <v>50</v>
       </c>
       <c r="AB25">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AC25">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AD25">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AE25">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AF25">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AG25">
         <v>0</v>
@@ -3631,19 +3632,19 @@
         <v>50</v>
       </c>
       <c r="AB26">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AC26">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AD26">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AE26">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AF26">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AG26">
         <v>0</v>
@@ -3732,19 +3733,19 @@
         <v>50</v>
       </c>
       <c r="AB27">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AC27">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AD27">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AE27">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AF27">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AG27">
         <v>0</v>
@@ -3833,19 +3834,19 @@
         <v>50</v>
       </c>
       <c r="AB28">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AC28">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AD28">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AE28">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AF28">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AG28">
         <v>0</v>
@@ -3934,19 +3935,19 @@
         <v>50</v>
       </c>
       <c r="AB29">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AC29">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AD29">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AE29">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AF29">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AG29">
         <v>0</v>
@@ -4035,19 +4036,19 @@
         <v>50</v>
       </c>
       <c r="AB30">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AC30">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AD30">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AE30">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AF30">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AG30">
         <v>0</v>
@@ -4136,19 +4137,19 @@
         <v>50</v>
       </c>
       <c r="AB31">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AC31">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AD31">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AE31">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AF31">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AG31">
         <v>0</v>
@@ -4237,19 +4238,19 @@
         <v>50</v>
       </c>
       <c r="AB32">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AC32">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AD32">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AE32">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AF32">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AG32">
         <v>0</v>
@@ -4338,19 +4339,19 @@
         <v>50</v>
       </c>
       <c r="AB33">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AC33">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AD33">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AE33">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AF33">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AG33">
         <v>0</v>
@@ -4439,19 +4440,19 @@
         <v>50</v>
       </c>
       <c r="AB34">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AC34">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AD34">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AE34">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AF34">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AG34">
         <v>0</v>
@@ -4540,19 +4541,19 @@
         <v>50</v>
       </c>
       <c r="AB35">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AC35">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AD35">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AE35">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AF35">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AG35">
         <v>0</v>
@@ -4641,19 +4642,19 @@
         <v>50</v>
       </c>
       <c r="AB36">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AC36">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AD36">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AE36">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AF36">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AG36">
         <v>0</v>
@@ -4742,19 +4743,19 @@
         <v>50</v>
       </c>
       <c r="AB37">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AC37">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AD37">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AE37">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AF37">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AG37">
         <v>0</v>
@@ -4843,19 +4844,19 @@
         <v>50</v>
       </c>
       <c r="AB38">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AC38">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AD38">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AE38">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AF38">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AG38">
         <v>0</v>
@@ -4944,19 +4945,19 @@
         <v>50</v>
       </c>
       <c r="AB39">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AC39">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AD39">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AE39">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AF39">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AG39">
         <v>0</v>
@@ -5045,19 +5046,19 @@
         <v>50</v>
       </c>
       <c r="AB40">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AC40">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AD40">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AE40">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AF40">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AG40">
         <v>0</v>
@@ -5146,19 +5147,19 @@
         <v>50</v>
       </c>
       <c r="AB41">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AC41">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AD41">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AE41">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AF41">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AG41">
         <v>0</v>
@@ -5247,19 +5248,19 @@
         <v>50</v>
       </c>
       <c r="AB42">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AC42">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AD42">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AE42">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AF42">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AG42">
         <v>0</v>
@@ -5348,19 +5349,19 @@
         <v>50</v>
       </c>
       <c r="AB43">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AC43">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AD43">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AE43">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AF43">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AG43">
         <v>0</v>
@@ -5449,19 +5450,19 @@
         <v>50</v>
       </c>
       <c r="AB44">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AC44">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AD44">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AE44">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AF44">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AG44">
         <v>0</v>
@@ -5550,19 +5551,19 @@
         <v>50</v>
       </c>
       <c r="AB45">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AC45">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AD45">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AE45">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AF45">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AG45">
         <v>0</v>
@@ -5651,19 +5652,19 @@
         <v>50</v>
       </c>
       <c r="AB46">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AC46">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AD46">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AE46">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AF46">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AG46">
         <v>0</v>
@@ -5752,19 +5753,19 @@
         <v>50</v>
       </c>
       <c r="AB47">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AC47">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AD47">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AE47">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AF47">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AG47">
         <v>0</v>
@@ -5853,19 +5854,19 @@
         <v>50</v>
       </c>
       <c r="AB48">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AC48">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AD48">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AE48">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AF48">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AG48">
         <v>0</v>
@@ -5954,19 +5955,19 @@
         <v>50</v>
       </c>
       <c r="AB49">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AC49">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AD49">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AE49">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AF49">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AG49">
         <v>0</v>
@@ -6055,19 +6056,19 @@
         <v>50</v>
       </c>
       <c r="AB50">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AC50">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AD50">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AE50">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AF50">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AG50">
         <v>0</v>
@@ -6156,19 +6157,19 @@
         <v>50</v>
       </c>
       <c r="AB51">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AC51">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AD51">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AE51">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AF51">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AG51">
         <v>0</v>
@@ -6257,19 +6258,19 @@
         <v>50</v>
       </c>
       <c r="AB52">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AC52">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AD52">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AE52">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AF52">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AG52">
         <v>0</v>
@@ -6358,19 +6359,19 @@
         <v>50</v>
       </c>
       <c r="AB53">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AC53">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AD53">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AE53">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AF53">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AG53">
         <v>0</v>
@@ -6459,19 +6460,19 @@
         <v>50</v>
       </c>
       <c r="AB54">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AC54">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AD54">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AE54">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AF54">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AG54">
         <v>0</v>
@@ -6560,19 +6561,19 @@
         <v>50</v>
       </c>
       <c r="AB55">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AC55">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AD55">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AE55">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AF55">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AG55">
         <v>0</v>
@@ -6661,19 +6662,19 @@
         <v>50</v>
       </c>
       <c r="AB56">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AC56">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AD56">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AE56">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AF56">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AG56">
         <v>0</v>
@@ -6762,19 +6763,19 @@
         <v>50</v>
       </c>
       <c r="AB57">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AC57">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AD57">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AE57">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AF57">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AG57">
         <v>0</v>
@@ -6863,19 +6864,19 @@
         <v>50</v>
       </c>
       <c r="AB58">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AC58">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AD58">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AE58">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AF58">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AG58">
         <v>0</v>
@@ -6964,19 +6965,19 @@
         <v>50</v>
       </c>
       <c r="AB59">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AC59">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AD59">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AE59">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AF59">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AG59">
         <v>0</v>
@@ -7065,19 +7066,19 @@
         <v>50</v>
       </c>
       <c r="AB60">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AC60">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AD60">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AE60">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AF60">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AG60">
         <v>0</v>
@@ -7166,19 +7167,19 @@
         <v>50</v>
       </c>
       <c r="AB61">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AC61">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AD61">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AE61">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AF61">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AG61">
         <v>0</v>
@@ -7267,19 +7268,19 @@
         <v>50</v>
       </c>
       <c r="AB62">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AC62">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AD62">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AE62">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AF62">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AG62">
         <v>0</v>
@@ -7368,19 +7369,19 @@
         <v>50</v>
       </c>
       <c r="AB63">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AC63">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AD63">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AE63">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AF63">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AG63">
         <v>0</v>
@@ -7469,19 +7470,19 @@
         <v>50</v>
       </c>
       <c r="AB64">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AC64">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AD64">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AE64">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AF64">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AG64">
         <v>0</v>
@@ -7570,19 +7571,19 @@
         <v>50</v>
       </c>
       <c r="AB65">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AC65">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AD65">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AE65">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AF65">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AG65">
         <v>0</v>
@@ -7671,19 +7672,19 @@
         <v>50</v>
       </c>
       <c r="AB66">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AC66">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AD66">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AE66">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AF66">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AG66">
         <v>0</v>
@@ -7772,19 +7773,19 @@
         <v>50</v>
       </c>
       <c r="AB67">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AC67">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AD67">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AE67">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AF67">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AG67">
         <v>0</v>
@@ -7873,19 +7874,19 @@
         <v>50</v>
       </c>
       <c r="AB68">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AC68">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AD68">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AE68">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AF68">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AG68">
         <v>0</v>
@@ -7974,19 +7975,19 @@
         <v>50</v>
       </c>
       <c r="AB69">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AC69">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AD69">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AE69">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AF69">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AG69">
         <v>0</v>
@@ -8075,19 +8076,19 @@
         <v>50</v>
       </c>
       <c r="AB70">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AC70">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AD70">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AE70">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AF70">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AG70">
         <v>0</v>
@@ -8095,8 +8096,8 @@
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A7:A9"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7:AG9">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A7:A9" xr:uid="{00000000-0002-0000-0000-000000000000}"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7:AG9" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
   </dataValidations>

--- a/_Out/NFDataCfg/Excel/EffectData.xlsx
+++ b/_Out/NFDataCfg/Excel/EffectData.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18528"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="175">
   <si>
     <t>Id</t>
   </si>
@@ -427,6 +427,126 @@
   </si>
   <si>
     <t>Force</t>
+  </si>
+  <si>
+    <t>PlayerAtt61</t>
+  </si>
+  <si>
+    <t>PlayerAtt62</t>
+  </si>
+  <si>
+    <t>PlayerAtt63</t>
+  </si>
+  <si>
+    <t>PlayerAtt64</t>
+  </si>
+  <si>
+    <t>PlayerAtt65</t>
+  </si>
+  <si>
+    <t>PlayerAtt66</t>
+  </si>
+  <si>
+    <t>PlayerAtt67</t>
+  </si>
+  <si>
+    <t>PlayerAtt68</t>
+  </si>
+  <si>
+    <t>PlayerAtt69</t>
+  </si>
+  <si>
+    <t>PlayerAtt70</t>
+  </si>
+  <si>
+    <t>PlayerAtt71</t>
+  </si>
+  <si>
+    <t>PlayerAtt72</t>
+  </si>
+  <si>
+    <t>PlayerAtt73</t>
+  </si>
+  <si>
+    <t>PlayerAtt74</t>
+  </si>
+  <si>
+    <t>PlayerAtt75</t>
+  </si>
+  <si>
+    <t>PlayerAtt76</t>
+  </si>
+  <si>
+    <t>PlayerAtt77</t>
+  </si>
+  <si>
+    <t>PlayerAtt78</t>
+  </si>
+  <si>
+    <t>PlayerAtt79</t>
+  </si>
+  <si>
+    <t>PlayerAtt80</t>
+  </si>
+  <si>
+    <t>PlayerAtt81</t>
+  </si>
+  <si>
+    <t>PlayerAtt82</t>
+  </si>
+  <si>
+    <t>PlayerAtt83</t>
+  </si>
+  <si>
+    <t>PlayerAtt84</t>
+  </si>
+  <si>
+    <t>PlayerAtt85</t>
+  </si>
+  <si>
+    <t>PlayerAtt86</t>
+  </si>
+  <si>
+    <t>PlayerAtt87</t>
+  </si>
+  <si>
+    <t>PlayerAtt88</t>
+  </si>
+  <si>
+    <t>PlayerAtt89</t>
+  </si>
+  <si>
+    <t>PlayerAtt90</t>
+  </si>
+  <si>
+    <t>PlayerAtt91</t>
+  </si>
+  <si>
+    <t>PlayerAtt92</t>
+  </si>
+  <si>
+    <t>PlayerAtt93</t>
+  </si>
+  <si>
+    <t>PlayerAtt94</t>
+  </si>
+  <si>
+    <t>PlayerAtt95</t>
+  </si>
+  <si>
+    <t>PlayerAtt96</t>
+  </si>
+  <si>
+    <t>PlayerAtt97</t>
+  </si>
+  <si>
+    <t>PlayerAtt98</t>
+  </si>
+  <si>
+    <t>PlayerAtt99</t>
+  </si>
+  <si>
+    <t>PlayerAtt100</t>
   </si>
 </sst>
 </file>
@@ -999,13 +1119,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AG70"/>
+  <dimension ref="A1:AG110"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="10" topLeftCell="Y11" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <pane xSplit="1" ySplit="10" topLeftCell="B11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AB11" sqref="AB11:AB70"/>
+      <selection pane="bottomRight" activeCell="P17" sqref="P17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2078,43 +2198,43 @@
         <v>50</v>
       </c>
       <c r="O11">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="P11">
-        <v>55000</v>
+        <v>300</v>
       </c>
       <c r="Q11">
         <v>0</v>
       </c>
       <c r="R11">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="S11">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="T11">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="U11">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="V11">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="W11">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="X11">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="Y11">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="Z11">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AA11">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AB11">
         <v>0</v>
@@ -2182,40 +2302,40 @@
         <v>50</v>
       </c>
       <c r="P12">
-        <v>55000</v>
+        <v>300</v>
       </c>
       <c r="Q12">
         <v>0</v>
       </c>
       <c r="R12">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="S12">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="T12">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="U12">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="V12">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="W12">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="X12">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="Y12">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="Z12">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AA12">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AB12">
         <v>0</v>
@@ -2280,43 +2400,43 @@
         <v>250</v>
       </c>
       <c r="O13">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="P13">
-        <v>55000</v>
+        <v>300</v>
       </c>
       <c r="Q13">
         <v>0</v>
       </c>
       <c r="R13">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="S13">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="T13">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="U13">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="V13">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="W13">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="X13">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="Y13">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="Z13">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AA13">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AB13">
         <v>0</v>
@@ -2381,43 +2501,43 @@
         <v>350</v>
       </c>
       <c r="O14">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="P14">
-        <v>55000</v>
+        <v>300</v>
       </c>
       <c r="Q14">
         <v>0</v>
       </c>
       <c r="R14">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="S14">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="T14">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="U14">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="V14">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="W14">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="X14">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="Y14">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="Z14">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AA14">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AB14">
         <v>0</v>
@@ -2482,43 +2602,43 @@
         <v>450</v>
       </c>
       <c r="O15">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="P15">
-        <v>55000</v>
+        <v>300</v>
       </c>
       <c r="Q15">
         <v>0</v>
       </c>
       <c r="R15">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="S15">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="T15">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="U15">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="V15">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="W15">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="X15">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="Y15">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="Z15">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AA15">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AB15">
         <v>0</v>
@@ -2583,43 +2703,43 @@
         <v>550</v>
       </c>
       <c r="O16">
-        <v>50</v>
+        <v>250</v>
       </c>
       <c r="P16">
-        <v>55000</v>
+        <v>300</v>
       </c>
       <c r="Q16">
         <v>0</v>
       </c>
       <c r="R16">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="S16">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="T16">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="U16">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="V16">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="W16">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="X16">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="Y16">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="Z16">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AA16">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AB16">
         <v>0</v>
@@ -2684,43 +2804,43 @@
         <v>650</v>
       </c>
       <c r="O17">
-        <v>50</v>
+        <v>300</v>
       </c>
       <c r="P17">
-        <v>55000</v>
+        <v>300</v>
       </c>
       <c r="Q17">
         <v>0</v>
       </c>
       <c r="R17">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="S17">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="T17">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="U17">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="V17">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="W17">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="X17">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="Y17">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="Z17">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AA17">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AB17">
         <v>0</v>
@@ -2785,43 +2905,43 @@
         <v>750</v>
       </c>
       <c r="O18">
-        <v>50</v>
+        <v>350</v>
       </c>
       <c r="P18">
-        <v>55000</v>
+        <v>300</v>
       </c>
       <c r="Q18">
         <v>0</v>
       </c>
       <c r="R18">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="S18">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="T18">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="U18">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="V18">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="W18">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="X18">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="Y18">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="Z18">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AA18">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AB18">
         <v>0</v>
@@ -2886,43 +3006,43 @@
         <v>850</v>
       </c>
       <c r="O19">
-        <v>50</v>
+        <v>400</v>
       </c>
       <c r="P19">
-        <v>55000</v>
+        <v>300</v>
       </c>
       <c r="Q19">
         <v>0</v>
       </c>
       <c r="R19">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="S19">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="T19">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="U19">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="V19">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="W19">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="X19">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="Y19">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="Z19">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AA19">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AB19">
         <v>0</v>
@@ -2987,43 +3107,43 @@
         <v>950</v>
       </c>
       <c r="O20">
-        <v>50</v>
+        <v>450</v>
       </c>
       <c r="P20">
-        <v>55000</v>
+        <v>300</v>
       </c>
       <c r="Q20">
         <v>0</v>
       </c>
       <c r="R20">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="S20">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="T20">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="U20">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="V20">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="W20">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="X20">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="Y20">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="Z20">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AA20">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AB20">
         <v>0</v>
@@ -3088,43 +3208,43 @@
         <v>1050</v>
       </c>
       <c r="O21">
-        <v>50</v>
+        <v>500</v>
       </c>
       <c r="P21">
-        <v>55000</v>
+        <v>300</v>
       </c>
       <c r="Q21">
         <v>0</v>
       </c>
       <c r="R21">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="S21">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="T21">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="U21">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="V21">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="W21">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="X21">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="Y21">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="Z21">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AA21">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AB21">
         <v>0</v>
@@ -3189,43 +3309,43 @@
         <v>1150</v>
       </c>
       <c r="O22">
-        <v>50</v>
+        <v>550</v>
       </c>
       <c r="P22">
-        <v>55000</v>
+        <v>300</v>
       </c>
       <c r="Q22">
         <v>0</v>
       </c>
       <c r="R22">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="S22">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="T22">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="U22">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="V22">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="W22">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="X22">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="Y22">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="Z22">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AA22">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AB22">
         <v>0</v>
@@ -3290,43 +3410,43 @@
         <v>1250</v>
       </c>
       <c r="O23">
-        <v>50</v>
+        <v>600</v>
       </c>
       <c r="P23">
-        <v>55000</v>
+        <v>300</v>
       </c>
       <c r="Q23">
         <v>0</v>
       </c>
       <c r="R23">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="S23">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="T23">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="U23">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="V23">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="W23">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="X23">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="Y23">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="Z23">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AA23">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AB23">
         <v>0</v>
@@ -3391,43 +3511,43 @@
         <v>1350</v>
       </c>
       <c r="O24">
-        <v>50</v>
+        <v>650</v>
       </c>
       <c r="P24">
-        <v>55000</v>
+        <v>300</v>
       </c>
       <c r="Q24">
         <v>0</v>
       </c>
       <c r="R24">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="S24">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="T24">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="U24">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="V24">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="W24">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="X24">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="Y24">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="Z24">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AA24">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AB24">
         <v>0</v>
@@ -3492,43 +3612,43 @@
         <v>1450</v>
       </c>
       <c r="O25">
-        <v>50</v>
+        <v>700</v>
       </c>
       <c r="P25">
-        <v>55000</v>
+        <v>300</v>
       </c>
       <c r="Q25">
         <v>0</v>
       </c>
       <c r="R25">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="S25">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="T25">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="U25">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="V25">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="W25">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="X25">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="Y25">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="Z25">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AA25">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AB25">
         <v>0</v>
@@ -3593,43 +3713,43 @@
         <v>1550</v>
       </c>
       <c r="O26">
-        <v>50</v>
+        <v>750</v>
       </c>
       <c r="P26">
-        <v>55000</v>
+        <v>300</v>
       </c>
       <c r="Q26">
         <v>0</v>
       </c>
       <c r="R26">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="S26">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="T26">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="U26">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="V26">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="W26">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="X26">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="Y26">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="Z26">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AA26">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AB26">
         <v>0</v>
@@ -3694,43 +3814,43 @@
         <v>1650</v>
       </c>
       <c r="O27">
-        <v>50</v>
+        <v>800</v>
       </c>
       <c r="P27">
-        <v>55000</v>
+        <v>300</v>
       </c>
       <c r="Q27">
         <v>0</v>
       </c>
       <c r="R27">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="S27">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="T27">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="U27">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="V27">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="W27">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="X27">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="Y27">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="Z27">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AA27">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AB27">
         <v>0</v>
@@ -3795,43 +3915,43 @@
         <v>1750</v>
       </c>
       <c r="O28">
-        <v>50</v>
+        <v>850</v>
       </c>
       <c r="P28">
-        <v>55000</v>
+        <v>300</v>
       </c>
       <c r="Q28">
         <v>0</v>
       </c>
       <c r="R28">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="S28">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="T28">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="U28">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="V28">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="W28">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="X28">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="Y28">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="Z28">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AA28">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AB28">
         <v>0</v>
@@ -3896,43 +4016,43 @@
         <v>1850</v>
       </c>
       <c r="O29">
-        <v>50</v>
+        <v>900</v>
       </c>
       <c r="P29">
-        <v>55000</v>
+        <v>300</v>
       </c>
       <c r="Q29">
         <v>0</v>
       </c>
       <c r="R29">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="S29">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="T29">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="U29">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="V29">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="W29">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="X29">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="Y29">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="Z29">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AA29">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AB29">
         <v>0</v>
@@ -3997,43 +4117,43 @@
         <v>1950</v>
       </c>
       <c r="O30">
-        <v>50</v>
+        <v>950</v>
       </c>
       <c r="P30">
-        <v>55000</v>
+        <v>300</v>
       </c>
       <c r="Q30">
         <v>0</v>
       </c>
       <c r="R30">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="S30">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="T30">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="U30">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="V30">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="W30">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="X30">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="Y30">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="Z30">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AA30">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AB30">
         <v>0</v>
@@ -4098,43 +4218,43 @@
         <v>2050</v>
       </c>
       <c r="O31">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="P31">
-        <v>55000</v>
+        <v>300</v>
       </c>
       <c r="Q31">
         <v>0</v>
       </c>
       <c r="R31">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="S31">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="T31">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="U31">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="V31">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="W31">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="X31">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="Y31">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="Z31">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AA31">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AB31">
         <v>0</v>
@@ -4199,43 +4319,43 @@
         <v>2150</v>
       </c>
       <c r="O32">
-        <v>50</v>
+        <v>1050</v>
       </c>
       <c r="P32">
-        <v>55000</v>
+        <v>300</v>
       </c>
       <c r="Q32">
         <v>0</v>
       </c>
       <c r="R32">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="S32">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="T32">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="U32">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="V32">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="W32">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="X32">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="Y32">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="Z32">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AA32">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AB32">
         <v>0</v>
@@ -4300,43 +4420,43 @@
         <v>2250</v>
       </c>
       <c r="O33">
-        <v>50</v>
+        <v>1100</v>
       </c>
       <c r="P33">
-        <v>55000</v>
+        <v>300</v>
       </c>
       <c r="Q33">
         <v>0</v>
       </c>
       <c r="R33">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="S33">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="T33">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="U33">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="V33">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="W33">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="X33">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="Y33">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="Z33">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AA33">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AB33">
         <v>0</v>
@@ -4401,43 +4521,43 @@
         <v>2350</v>
       </c>
       <c r="O34">
-        <v>50</v>
+        <v>1150</v>
       </c>
       <c r="P34">
-        <v>55000</v>
+        <v>300</v>
       </c>
       <c r="Q34">
         <v>0</v>
       </c>
       <c r="R34">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="S34">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="T34">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="U34">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="V34">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="W34">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="X34">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="Y34">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="Z34">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AA34">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AB34">
         <v>0</v>
@@ -4502,43 +4622,43 @@
         <v>2450</v>
       </c>
       <c r="O35">
-        <v>50</v>
+        <v>1200</v>
       </c>
       <c r="P35">
-        <v>55000</v>
+        <v>300</v>
       </c>
       <c r="Q35">
         <v>0</v>
       </c>
       <c r="R35">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="S35">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="T35">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="U35">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="V35">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="W35">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="X35">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="Y35">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="Z35">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AA35">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AB35">
         <v>0</v>
@@ -4603,43 +4723,43 @@
         <v>2550</v>
       </c>
       <c r="O36">
-        <v>50</v>
+        <v>1250</v>
       </c>
       <c r="P36">
-        <v>55000</v>
+        <v>300</v>
       </c>
       <c r="Q36">
         <v>0</v>
       </c>
       <c r="R36">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="S36">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="T36">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="U36">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="V36">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="W36">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="X36">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="Y36">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="Z36">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AA36">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AB36">
         <v>0</v>
@@ -4704,43 +4824,43 @@
         <v>2650</v>
       </c>
       <c r="O37">
-        <v>50</v>
+        <v>1300</v>
       </c>
       <c r="P37">
-        <v>55000</v>
+        <v>300</v>
       </c>
       <c r="Q37">
         <v>0</v>
       </c>
       <c r="R37">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="S37">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="T37">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="U37">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="V37">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="W37">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="X37">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="Y37">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="Z37">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AA37">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AB37">
         <v>0</v>
@@ -4805,43 +4925,43 @@
         <v>2750</v>
       </c>
       <c r="O38">
-        <v>50</v>
+        <v>1350</v>
       </c>
       <c r="P38">
-        <v>55000</v>
+        <v>300</v>
       </c>
       <c r="Q38">
         <v>0</v>
       </c>
       <c r="R38">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="S38">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="T38">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="U38">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="V38">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="W38">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="X38">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="Y38">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="Z38">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AA38">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AB38">
         <v>0</v>
@@ -4906,43 +5026,43 @@
         <v>2850</v>
       </c>
       <c r="O39">
-        <v>50</v>
+        <v>1400</v>
       </c>
       <c r="P39">
-        <v>55000</v>
+        <v>300</v>
       </c>
       <c r="Q39">
         <v>0</v>
       </c>
       <c r="R39">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="S39">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="T39">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="U39">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="V39">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="W39">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="X39">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="Y39">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="Z39">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AA39">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AB39">
         <v>0</v>
@@ -5007,43 +5127,43 @@
         <v>2950</v>
       </c>
       <c r="O40">
-        <v>50</v>
+        <v>1450</v>
       </c>
       <c r="P40">
-        <v>55000</v>
+        <v>300</v>
       </c>
       <c r="Q40">
         <v>0</v>
       </c>
       <c r="R40">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="S40">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="T40">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="U40">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="V40">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="W40">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="X40">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="Y40">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="Z40">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AA40">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AB40">
         <v>0</v>
@@ -5108,43 +5228,43 @@
         <v>3050</v>
       </c>
       <c r="O41">
-        <v>50</v>
+        <v>1500</v>
       </c>
       <c r="P41">
-        <v>55000</v>
+        <v>300</v>
       </c>
       <c r="Q41">
         <v>0</v>
       </c>
       <c r="R41">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="S41">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="T41">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="U41">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="V41">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="W41">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="X41">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="Y41">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="Z41">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AA41">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AB41">
         <v>0</v>
@@ -5209,43 +5329,43 @@
         <v>3150</v>
       </c>
       <c r="O42">
-        <v>50</v>
+        <v>1550</v>
       </c>
       <c r="P42">
-        <v>55000</v>
+        <v>300</v>
       </c>
       <c r="Q42">
         <v>0</v>
       </c>
       <c r="R42">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="S42">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="T42">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="U42">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="V42">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="W42">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="X42">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="Y42">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="Z42">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AA42">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AB42">
         <v>0</v>
@@ -5310,43 +5430,43 @@
         <v>3250</v>
       </c>
       <c r="O43">
-        <v>50</v>
+        <v>1600</v>
       </c>
       <c r="P43">
-        <v>55000</v>
+        <v>300</v>
       </c>
       <c r="Q43">
         <v>0</v>
       </c>
       <c r="R43">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="S43">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="T43">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="U43">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="V43">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="W43">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="X43">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="Y43">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="Z43">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AA43">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AB43">
         <v>0</v>
@@ -5411,43 +5531,43 @@
         <v>3350</v>
       </c>
       <c r="O44">
-        <v>50</v>
+        <v>1650</v>
       </c>
       <c r="P44">
-        <v>55000</v>
+        <v>300</v>
       </c>
       <c r="Q44">
         <v>0</v>
       </c>
       <c r="R44">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="S44">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="T44">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="U44">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="V44">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="W44">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="X44">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="Y44">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="Z44">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AA44">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AB44">
         <v>0</v>
@@ -5512,43 +5632,43 @@
         <v>3450</v>
       </c>
       <c r="O45">
-        <v>50</v>
+        <v>1700</v>
       </c>
       <c r="P45">
-        <v>55000</v>
+        <v>300</v>
       </c>
       <c r="Q45">
         <v>0</v>
       </c>
       <c r="R45">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="S45">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="T45">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="U45">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="V45">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="W45">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="X45">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="Y45">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="Z45">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AA45">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AB45">
         <v>0</v>
@@ -5613,43 +5733,43 @@
         <v>3550</v>
       </c>
       <c r="O46">
-        <v>50</v>
+        <v>1750</v>
       </c>
       <c r="P46">
-        <v>55000</v>
+        <v>300</v>
       </c>
       <c r="Q46">
         <v>0</v>
       </c>
       <c r="R46">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="S46">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="T46">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="U46">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="V46">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="W46">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="X46">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="Y46">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="Z46">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AA46">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AB46">
         <v>0</v>
@@ -5714,43 +5834,43 @@
         <v>3650</v>
       </c>
       <c r="O47">
-        <v>50</v>
+        <v>1800</v>
       </c>
       <c r="P47">
-        <v>55000</v>
+        <v>300</v>
       </c>
       <c r="Q47">
         <v>0</v>
       </c>
       <c r="R47">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="S47">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="T47">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="U47">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="V47">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="W47">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="X47">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="Y47">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="Z47">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AA47">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AB47">
         <v>0</v>
@@ -5815,43 +5935,43 @@
         <v>3750</v>
       </c>
       <c r="O48">
-        <v>50</v>
+        <v>1850</v>
       </c>
       <c r="P48">
-        <v>55000</v>
+        <v>300</v>
       </c>
       <c r="Q48">
         <v>0</v>
       </c>
       <c r="R48">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="S48">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="T48">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="U48">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="V48">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="W48">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="X48">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="Y48">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="Z48">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AA48">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AB48">
         <v>0</v>
@@ -5916,43 +6036,43 @@
         <v>3850</v>
       </c>
       <c r="O49">
-        <v>50</v>
+        <v>1900</v>
       </c>
       <c r="P49">
-        <v>55000</v>
+        <v>300</v>
       </c>
       <c r="Q49">
         <v>0</v>
       </c>
       <c r="R49">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="S49">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="T49">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="U49">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="V49">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="W49">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="X49">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="Y49">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="Z49">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AA49">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AB49">
         <v>0</v>
@@ -6017,43 +6137,43 @@
         <v>3950</v>
       </c>
       <c r="O50">
-        <v>50</v>
+        <v>1950</v>
       </c>
       <c r="P50">
-        <v>55000</v>
+        <v>300</v>
       </c>
       <c r="Q50">
         <v>0</v>
       </c>
       <c r="R50">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="S50">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="T50">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="U50">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="V50">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="W50">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="X50">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="Y50">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="Z50">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AA50">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AB50">
         <v>0</v>
@@ -6118,43 +6238,43 @@
         <v>4050</v>
       </c>
       <c r="O51">
-        <v>50</v>
+        <v>2000</v>
       </c>
       <c r="P51">
-        <v>55000</v>
+        <v>300</v>
       </c>
       <c r="Q51">
         <v>0</v>
       </c>
       <c r="R51">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="S51">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="T51">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="U51">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="V51">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="W51">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="X51">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="Y51">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="Z51">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AA51">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AB51">
         <v>0</v>
@@ -6219,43 +6339,43 @@
         <v>4150</v>
       </c>
       <c r="O52">
-        <v>50</v>
+        <v>2050</v>
       </c>
       <c r="P52">
-        <v>55000</v>
+        <v>300</v>
       </c>
       <c r="Q52">
         <v>0</v>
       </c>
       <c r="R52">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="S52">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="T52">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="U52">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="V52">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="W52">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="X52">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="Y52">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="Z52">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AA52">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AB52">
         <v>0</v>
@@ -6320,43 +6440,43 @@
         <v>4250</v>
       </c>
       <c r="O53">
-        <v>50</v>
+        <v>2100</v>
       </c>
       <c r="P53">
-        <v>55000</v>
+        <v>300</v>
       </c>
       <c r="Q53">
         <v>0</v>
       </c>
       <c r="R53">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="S53">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="T53">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="U53">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="V53">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="W53">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="X53">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="Y53">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="Z53">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AA53">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AB53">
         <v>0</v>
@@ -6421,43 +6541,43 @@
         <v>4350</v>
       </c>
       <c r="O54">
-        <v>50</v>
+        <v>2150</v>
       </c>
       <c r="P54">
-        <v>55000</v>
+        <v>300</v>
       </c>
       <c r="Q54">
         <v>0</v>
       </c>
       <c r="R54">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="S54">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="T54">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="U54">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="V54">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="W54">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="X54">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="Y54">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="Z54">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AA54">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AB54">
         <v>0</v>
@@ -6522,43 +6642,43 @@
         <v>4450</v>
       </c>
       <c r="O55">
-        <v>50</v>
+        <v>2200</v>
       </c>
       <c r="P55">
-        <v>55000</v>
+        <v>300</v>
       </c>
       <c r="Q55">
         <v>0</v>
       </c>
       <c r="R55">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="S55">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="T55">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="U55">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="V55">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="W55">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="X55">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="Y55">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="Z55">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AA55">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AB55">
         <v>0</v>
@@ -6623,43 +6743,43 @@
         <v>4550</v>
       </c>
       <c r="O56">
-        <v>50</v>
+        <v>2250</v>
       </c>
       <c r="P56">
-        <v>55000</v>
+        <v>300</v>
       </c>
       <c r="Q56">
         <v>0</v>
       </c>
       <c r="R56">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="S56">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="T56">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="U56">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="V56">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="W56">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="X56">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="Y56">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="Z56">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AA56">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AB56">
         <v>0</v>
@@ -6724,43 +6844,43 @@
         <v>4650</v>
       </c>
       <c r="O57">
-        <v>50</v>
+        <v>2300</v>
       </c>
       <c r="P57">
-        <v>55000</v>
+        <v>300</v>
       </c>
       <c r="Q57">
         <v>0</v>
       </c>
       <c r="R57">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="S57">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="T57">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="U57">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="V57">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="W57">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="X57">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="Y57">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="Z57">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AA57">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AB57">
         <v>0</v>
@@ -6825,43 +6945,43 @@
         <v>4750</v>
       </c>
       <c r="O58">
-        <v>50</v>
+        <v>2350</v>
       </c>
       <c r="P58">
-        <v>55000</v>
+        <v>300</v>
       </c>
       <c r="Q58">
         <v>0</v>
       </c>
       <c r="R58">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="S58">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="T58">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="U58">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="V58">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="W58">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="X58">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="Y58">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="Z58">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AA58">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AB58">
         <v>0</v>
@@ -6926,43 +7046,43 @@
         <v>4850</v>
       </c>
       <c r="O59">
-        <v>50</v>
+        <v>2400</v>
       </c>
       <c r="P59">
-        <v>55000</v>
+        <v>300</v>
       </c>
       <c r="Q59">
         <v>0</v>
       </c>
       <c r="R59">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="S59">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="T59">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="U59">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="V59">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="W59">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="X59">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="Y59">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="Z59">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AA59">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AB59">
         <v>0</v>
@@ -7027,43 +7147,43 @@
         <v>4950</v>
       </c>
       <c r="O60">
-        <v>50</v>
+        <v>2450</v>
       </c>
       <c r="P60">
-        <v>55000</v>
+        <v>300</v>
       </c>
       <c r="Q60">
         <v>0</v>
       </c>
       <c r="R60">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="S60">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="T60">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="U60">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="V60">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="W60">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="X60">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="Y60">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="Z60">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AA60">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AB60">
         <v>0</v>
@@ -7128,43 +7248,43 @@
         <v>5050</v>
       </c>
       <c r="O61">
-        <v>50</v>
+        <v>2500</v>
       </c>
       <c r="P61">
-        <v>55000</v>
+        <v>300</v>
       </c>
       <c r="Q61">
         <v>0</v>
       </c>
       <c r="R61">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="S61">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="T61">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="U61">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="V61">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="W61">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="X61">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="Y61">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="Z61">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AA61">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AB61">
         <v>0</v>
@@ -7229,43 +7349,43 @@
         <v>5150</v>
       </c>
       <c r="O62">
-        <v>50</v>
+        <v>2550</v>
       </c>
       <c r="P62">
-        <v>55000</v>
+        <v>300</v>
       </c>
       <c r="Q62">
         <v>0</v>
       </c>
       <c r="R62">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="S62">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="T62">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="U62">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="V62">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="W62">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="X62">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="Y62">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="Z62">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AA62">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AB62">
         <v>0</v>
@@ -7330,43 +7450,43 @@
         <v>5250</v>
       </c>
       <c r="O63">
-        <v>50</v>
+        <v>2600</v>
       </c>
       <c r="P63">
-        <v>55000</v>
+        <v>300</v>
       </c>
       <c r="Q63">
         <v>0</v>
       </c>
       <c r="R63">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="S63">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="T63">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="U63">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="V63">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="W63">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="X63">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="Y63">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="Z63">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AA63">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AB63">
         <v>0</v>
@@ -7431,43 +7551,43 @@
         <v>5350</v>
       </c>
       <c r="O64">
-        <v>50</v>
+        <v>2650</v>
       </c>
       <c r="P64">
-        <v>55000</v>
+        <v>300</v>
       </c>
       <c r="Q64">
         <v>0</v>
       </c>
       <c r="R64">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="S64">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="T64">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="U64">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="V64">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="W64">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="X64">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="Y64">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="Z64">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AA64">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AB64">
         <v>0</v>
@@ -7532,43 +7652,43 @@
         <v>5450</v>
       </c>
       <c r="O65">
-        <v>50</v>
+        <v>2700</v>
       </c>
       <c r="P65">
-        <v>55000</v>
+        <v>300</v>
       </c>
       <c r="Q65">
         <v>0</v>
       </c>
       <c r="R65">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="S65">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="T65">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="U65">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="V65">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="W65">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="X65">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="Y65">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="Z65">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AA65">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AB65">
         <v>0</v>
@@ -7633,43 +7753,43 @@
         <v>5550</v>
       </c>
       <c r="O66">
-        <v>50</v>
+        <v>2750</v>
       </c>
       <c r="P66">
-        <v>55000</v>
+        <v>300</v>
       </c>
       <c r="Q66">
         <v>0</v>
       </c>
       <c r="R66">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="S66">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="T66">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="U66">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="V66">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="W66">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="X66">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="Y66">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="Z66">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AA66">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AB66">
         <v>0</v>
@@ -7734,43 +7854,43 @@
         <v>5650</v>
       </c>
       <c r="O67">
-        <v>50</v>
+        <v>2800</v>
       </c>
       <c r="P67">
-        <v>55000</v>
+        <v>300</v>
       </c>
       <c r="Q67">
         <v>0</v>
       </c>
       <c r="R67">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="S67">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="T67">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="U67">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="V67">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="W67">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="X67">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="Y67">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="Z67">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AA67">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AB67">
         <v>0</v>
@@ -7835,43 +7955,43 @@
         <v>5750</v>
       </c>
       <c r="O68">
-        <v>50</v>
+        <v>2850</v>
       </c>
       <c r="P68">
-        <v>55000</v>
+        <v>300</v>
       </c>
       <c r="Q68">
         <v>0</v>
       </c>
       <c r="R68">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="S68">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="T68">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="U68">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="V68">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="W68">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="X68">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="Y68">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="Z68">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AA68">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AB68">
         <v>0</v>
@@ -7936,43 +8056,43 @@
         <v>5850</v>
       </c>
       <c r="O69">
-        <v>50</v>
+        <v>2900</v>
       </c>
       <c r="P69">
-        <v>55000</v>
+        <v>300</v>
       </c>
       <c r="Q69">
         <v>0</v>
       </c>
       <c r="R69">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="S69">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="T69">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="U69">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="V69">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="W69">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="X69">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="Y69">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="Z69">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AA69">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AB69">
         <v>0</v>
@@ -8037,43 +8157,43 @@
         <v>5950</v>
       </c>
       <c r="O70">
-        <v>50</v>
+        <v>2950</v>
       </c>
       <c r="P70">
-        <v>55000</v>
+        <v>300</v>
       </c>
       <c r="Q70">
         <v>0</v>
       </c>
       <c r="R70">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="S70">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="T70">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="U70">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="V70">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="W70">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="X70">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="Y70">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="Z70">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AA70">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AB70">
         <v>0</v>
@@ -8091,6 +8211,4046 @@
         <v>0</v>
       </c>
       <c r="AG70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:33">
+      <c r="A71" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="B71">
+        <v>0</v>
+      </c>
+      <c r="C71">
+        <v>0</v>
+      </c>
+      <c r="D71">
+        <v>0</v>
+      </c>
+      <c r="E71">
+        <v>3550</v>
+      </c>
+      <c r="F71">
+        <v>3550</v>
+      </c>
+      <c r="G71">
+        <v>0</v>
+      </c>
+      <c r="H71">
+        <v>0</v>
+      </c>
+      <c r="I71">
+        <v>0</v>
+      </c>
+      <c r="J71">
+        <v>0</v>
+      </c>
+      <c r="K71">
+        <v>0</v>
+      </c>
+      <c r="L71">
+        <v>0</v>
+      </c>
+      <c r="M71">
+        <v>0</v>
+      </c>
+      <c r="N71">
+        <v>6050</v>
+      </c>
+      <c r="O71">
+        <v>3000</v>
+      </c>
+      <c r="P71">
+        <v>300</v>
+      </c>
+      <c r="Q71">
+        <v>0</v>
+      </c>
+      <c r="R71">
+        <v>0</v>
+      </c>
+      <c r="S71">
+        <v>0</v>
+      </c>
+      <c r="T71">
+        <v>0</v>
+      </c>
+      <c r="U71">
+        <v>0</v>
+      </c>
+      <c r="V71">
+        <v>0</v>
+      </c>
+      <c r="W71">
+        <v>0</v>
+      </c>
+      <c r="X71">
+        <v>0</v>
+      </c>
+      <c r="Y71">
+        <v>0</v>
+      </c>
+      <c r="Z71">
+        <v>0</v>
+      </c>
+      <c r="AA71">
+        <v>0</v>
+      </c>
+      <c r="AB71">
+        <v>0</v>
+      </c>
+      <c r="AC71">
+        <v>0</v>
+      </c>
+      <c r="AD71">
+        <v>0</v>
+      </c>
+      <c r="AE71">
+        <v>0</v>
+      </c>
+      <c r="AF71">
+        <v>0</v>
+      </c>
+      <c r="AG71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:33">
+      <c r="A72" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="B72">
+        <v>0</v>
+      </c>
+      <c r="C72">
+        <v>0</v>
+      </c>
+      <c r="D72">
+        <v>0</v>
+      </c>
+      <c r="E72">
+        <v>3600</v>
+      </c>
+      <c r="F72">
+        <v>3600</v>
+      </c>
+      <c r="G72">
+        <v>0</v>
+      </c>
+      <c r="H72">
+        <v>0</v>
+      </c>
+      <c r="I72">
+        <v>0</v>
+      </c>
+      <c r="J72">
+        <v>0</v>
+      </c>
+      <c r="K72">
+        <v>0</v>
+      </c>
+      <c r="L72">
+        <v>0</v>
+      </c>
+      <c r="M72">
+        <v>0</v>
+      </c>
+      <c r="N72">
+        <v>6150</v>
+      </c>
+      <c r="O72">
+        <v>3050</v>
+      </c>
+      <c r="P72">
+        <v>300</v>
+      </c>
+      <c r="Q72">
+        <v>0</v>
+      </c>
+      <c r="R72">
+        <v>0</v>
+      </c>
+      <c r="S72">
+        <v>0</v>
+      </c>
+      <c r="T72">
+        <v>0</v>
+      </c>
+      <c r="U72">
+        <v>0</v>
+      </c>
+      <c r="V72">
+        <v>0</v>
+      </c>
+      <c r="W72">
+        <v>0</v>
+      </c>
+      <c r="X72">
+        <v>0</v>
+      </c>
+      <c r="Y72">
+        <v>0</v>
+      </c>
+      <c r="Z72">
+        <v>0</v>
+      </c>
+      <c r="AA72">
+        <v>0</v>
+      </c>
+      <c r="AB72">
+        <v>0</v>
+      </c>
+      <c r="AC72">
+        <v>0</v>
+      </c>
+      <c r="AD72">
+        <v>0</v>
+      </c>
+      <c r="AE72">
+        <v>0</v>
+      </c>
+      <c r="AF72">
+        <v>0</v>
+      </c>
+      <c r="AG72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:33">
+      <c r="A73" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="B73">
+        <v>0</v>
+      </c>
+      <c r="C73">
+        <v>0</v>
+      </c>
+      <c r="D73">
+        <v>0</v>
+      </c>
+      <c r="E73">
+        <v>3650</v>
+      </c>
+      <c r="F73">
+        <v>3650</v>
+      </c>
+      <c r="G73">
+        <v>0</v>
+      </c>
+      <c r="H73">
+        <v>0</v>
+      </c>
+      <c r="I73">
+        <v>0</v>
+      </c>
+      <c r="J73">
+        <v>0</v>
+      </c>
+      <c r="K73">
+        <v>0</v>
+      </c>
+      <c r="L73">
+        <v>0</v>
+      </c>
+      <c r="M73">
+        <v>0</v>
+      </c>
+      <c r="N73">
+        <v>6250</v>
+      </c>
+      <c r="O73">
+        <v>3100</v>
+      </c>
+      <c r="P73">
+        <v>300</v>
+      </c>
+      <c r="Q73">
+        <v>0</v>
+      </c>
+      <c r="R73">
+        <v>0</v>
+      </c>
+      <c r="S73">
+        <v>0</v>
+      </c>
+      <c r="T73">
+        <v>0</v>
+      </c>
+      <c r="U73">
+        <v>0</v>
+      </c>
+      <c r="V73">
+        <v>0</v>
+      </c>
+      <c r="W73">
+        <v>0</v>
+      </c>
+      <c r="X73">
+        <v>0</v>
+      </c>
+      <c r="Y73">
+        <v>0</v>
+      </c>
+      <c r="Z73">
+        <v>0</v>
+      </c>
+      <c r="AA73">
+        <v>0</v>
+      </c>
+      <c r="AB73">
+        <v>0</v>
+      </c>
+      <c r="AC73">
+        <v>0</v>
+      </c>
+      <c r="AD73">
+        <v>0</v>
+      </c>
+      <c r="AE73">
+        <v>0</v>
+      </c>
+      <c r="AF73">
+        <v>0</v>
+      </c>
+      <c r="AG73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:33">
+      <c r="A74" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="B74">
+        <v>0</v>
+      </c>
+      <c r="C74">
+        <v>0</v>
+      </c>
+      <c r="D74">
+        <v>0</v>
+      </c>
+      <c r="E74">
+        <v>3700</v>
+      </c>
+      <c r="F74">
+        <v>3700</v>
+      </c>
+      <c r="G74">
+        <v>0</v>
+      </c>
+      <c r="H74">
+        <v>0</v>
+      </c>
+      <c r="I74">
+        <v>0</v>
+      </c>
+      <c r="J74">
+        <v>0</v>
+      </c>
+      <c r="K74">
+        <v>0</v>
+      </c>
+      <c r="L74">
+        <v>0</v>
+      </c>
+      <c r="M74">
+        <v>0</v>
+      </c>
+      <c r="N74">
+        <v>6350</v>
+      </c>
+      <c r="O74">
+        <v>3150</v>
+      </c>
+      <c r="P74">
+        <v>300</v>
+      </c>
+      <c r="Q74">
+        <v>0</v>
+      </c>
+      <c r="R74">
+        <v>0</v>
+      </c>
+      <c r="S74">
+        <v>0</v>
+      </c>
+      <c r="T74">
+        <v>0</v>
+      </c>
+      <c r="U74">
+        <v>0</v>
+      </c>
+      <c r="V74">
+        <v>0</v>
+      </c>
+      <c r="W74">
+        <v>0</v>
+      </c>
+      <c r="X74">
+        <v>0</v>
+      </c>
+      <c r="Y74">
+        <v>0</v>
+      </c>
+      <c r="Z74">
+        <v>0</v>
+      </c>
+      <c r="AA74">
+        <v>0</v>
+      </c>
+      <c r="AB74">
+        <v>0</v>
+      </c>
+      <c r="AC74">
+        <v>0</v>
+      </c>
+      <c r="AD74">
+        <v>0</v>
+      </c>
+      <c r="AE74">
+        <v>0</v>
+      </c>
+      <c r="AF74">
+        <v>0</v>
+      </c>
+      <c r="AG74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:33">
+      <c r="A75" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="B75">
+        <v>0</v>
+      </c>
+      <c r="C75">
+        <v>0</v>
+      </c>
+      <c r="D75">
+        <v>0</v>
+      </c>
+      <c r="E75">
+        <v>3750</v>
+      </c>
+      <c r="F75">
+        <v>3750</v>
+      </c>
+      <c r="G75">
+        <v>0</v>
+      </c>
+      <c r="H75">
+        <v>0</v>
+      </c>
+      <c r="I75">
+        <v>0</v>
+      </c>
+      <c r="J75">
+        <v>0</v>
+      </c>
+      <c r="K75">
+        <v>0</v>
+      </c>
+      <c r="L75">
+        <v>0</v>
+      </c>
+      <c r="M75">
+        <v>0</v>
+      </c>
+      <c r="N75">
+        <v>6450</v>
+      </c>
+      <c r="O75">
+        <v>3200</v>
+      </c>
+      <c r="P75">
+        <v>300</v>
+      </c>
+      <c r="Q75">
+        <v>0</v>
+      </c>
+      <c r="R75">
+        <v>0</v>
+      </c>
+      <c r="S75">
+        <v>0</v>
+      </c>
+      <c r="T75">
+        <v>0</v>
+      </c>
+      <c r="U75">
+        <v>0</v>
+      </c>
+      <c r="V75">
+        <v>0</v>
+      </c>
+      <c r="W75">
+        <v>0</v>
+      </c>
+      <c r="X75">
+        <v>0</v>
+      </c>
+      <c r="Y75">
+        <v>0</v>
+      </c>
+      <c r="Z75">
+        <v>0</v>
+      </c>
+      <c r="AA75">
+        <v>0</v>
+      </c>
+      <c r="AB75">
+        <v>0</v>
+      </c>
+      <c r="AC75">
+        <v>0</v>
+      </c>
+      <c r="AD75">
+        <v>0</v>
+      </c>
+      <c r="AE75">
+        <v>0</v>
+      </c>
+      <c r="AF75">
+        <v>0</v>
+      </c>
+      <c r="AG75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:33">
+      <c r="A76" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="B76">
+        <v>0</v>
+      </c>
+      <c r="C76">
+        <v>0</v>
+      </c>
+      <c r="D76">
+        <v>0</v>
+      </c>
+      <c r="E76">
+        <v>3800</v>
+      </c>
+      <c r="F76">
+        <v>3800</v>
+      </c>
+      <c r="G76">
+        <v>0</v>
+      </c>
+      <c r="H76">
+        <v>0</v>
+      </c>
+      <c r="I76">
+        <v>0</v>
+      </c>
+      <c r="J76">
+        <v>0</v>
+      </c>
+      <c r="K76">
+        <v>0</v>
+      </c>
+      <c r="L76">
+        <v>0</v>
+      </c>
+      <c r="M76">
+        <v>0</v>
+      </c>
+      <c r="N76">
+        <v>6550</v>
+      </c>
+      <c r="O76">
+        <v>3250</v>
+      </c>
+      <c r="P76">
+        <v>300</v>
+      </c>
+      <c r="Q76">
+        <v>0</v>
+      </c>
+      <c r="R76">
+        <v>0</v>
+      </c>
+      <c r="S76">
+        <v>0</v>
+      </c>
+      <c r="T76">
+        <v>0</v>
+      </c>
+      <c r="U76">
+        <v>0</v>
+      </c>
+      <c r="V76">
+        <v>0</v>
+      </c>
+      <c r="W76">
+        <v>0</v>
+      </c>
+      <c r="X76">
+        <v>0</v>
+      </c>
+      <c r="Y76">
+        <v>0</v>
+      </c>
+      <c r="Z76">
+        <v>0</v>
+      </c>
+      <c r="AA76">
+        <v>0</v>
+      </c>
+      <c r="AB76">
+        <v>0</v>
+      </c>
+      <c r="AC76">
+        <v>0</v>
+      </c>
+      <c r="AD76">
+        <v>0</v>
+      </c>
+      <c r="AE76">
+        <v>0</v>
+      </c>
+      <c r="AF76">
+        <v>0</v>
+      </c>
+      <c r="AG76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:33">
+      <c r="A77" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="B77">
+        <v>0</v>
+      </c>
+      <c r="C77">
+        <v>0</v>
+      </c>
+      <c r="D77">
+        <v>0</v>
+      </c>
+      <c r="E77">
+        <v>3850</v>
+      </c>
+      <c r="F77">
+        <v>3850</v>
+      </c>
+      <c r="G77">
+        <v>0</v>
+      </c>
+      <c r="H77">
+        <v>0</v>
+      </c>
+      <c r="I77">
+        <v>0</v>
+      </c>
+      <c r="J77">
+        <v>0</v>
+      </c>
+      <c r="K77">
+        <v>0</v>
+      </c>
+      <c r="L77">
+        <v>0</v>
+      </c>
+      <c r="M77">
+        <v>0</v>
+      </c>
+      <c r="N77">
+        <v>6650</v>
+      </c>
+      <c r="O77">
+        <v>3300</v>
+      </c>
+      <c r="P77">
+        <v>300</v>
+      </c>
+      <c r="Q77">
+        <v>0</v>
+      </c>
+      <c r="R77">
+        <v>0</v>
+      </c>
+      <c r="S77">
+        <v>0</v>
+      </c>
+      <c r="T77">
+        <v>0</v>
+      </c>
+      <c r="U77">
+        <v>0</v>
+      </c>
+      <c r="V77">
+        <v>0</v>
+      </c>
+      <c r="W77">
+        <v>0</v>
+      </c>
+      <c r="X77">
+        <v>0</v>
+      </c>
+      <c r="Y77">
+        <v>0</v>
+      </c>
+      <c r="Z77">
+        <v>0</v>
+      </c>
+      <c r="AA77">
+        <v>0</v>
+      </c>
+      <c r="AB77">
+        <v>0</v>
+      </c>
+      <c r="AC77">
+        <v>0</v>
+      </c>
+      <c r="AD77">
+        <v>0</v>
+      </c>
+      <c r="AE77">
+        <v>0</v>
+      </c>
+      <c r="AF77">
+        <v>0</v>
+      </c>
+      <c r="AG77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:33">
+      <c r="A78" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="B78">
+        <v>0</v>
+      </c>
+      <c r="C78">
+        <v>0</v>
+      </c>
+      <c r="D78">
+        <v>0</v>
+      </c>
+      <c r="E78">
+        <v>3900</v>
+      </c>
+      <c r="F78">
+        <v>3900</v>
+      </c>
+      <c r="G78">
+        <v>0</v>
+      </c>
+      <c r="H78">
+        <v>0</v>
+      </c>
+      <c r="I78">
+        <v>0</v>
+      </c>
+      <c r="J78">
+        <v>0</v>
+      </c>
+      <c r="K78">
+        <v>0</v>
+      </c>
+      <c r="L78">
+        <v>0</v>
+      </c>
+      <c r="M78">
+        <v>0</v>
+      </c>
+      <c r="N78">
+        <v>6750</v>
+      </c>
+      <c r="O78">
+        <v>3350</v>
+      </c>
+      <c r="P78">
+        <v>300</v>
+      </c>
+      <c r="Q78">
+        <v>0</v>
+      </c>
+      <c r="R78">
+        <v>0</v>
+      </c>
+      <c r="S78">
+        <v>0</v>
+      </c>
+      <c r="T78">
+        <v>0</v>
+      </c>
+      <c r="U78">
+        <v>0</v>
+      </c>
+      <c r="V78">
+        <v>0</v>
+      </c>
+      <c r="W78">
+        <v>0</v>
+      </c>
+      <c r="X78">
+        <v>0</v>
+      </c>
+      <c r="Y78">
+        <v>0</v>
+      </c>
+      <c r="Z78">
+        <v>0</v>
+      </c>
+      <c r="AA78">
+        <v>0</v>
+      </c>
+      <c r="AB78">
+        <v>0</v>
+      </c>
+      <c r="AC78">
+        <v>0</v>
+      </c>
+      <c r="AD78">
+        <v>0</v>
+      </c>
+      <c r="AE78">
+        <v>0</v>
+      </c>
+      <c r="AF78">
+        <v>0</v>
+      </c>
+      <c r="AG78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:33">
+      <c r="A79" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="B79">
+        <v>0</v>
+      </c>
+      <c r="C79">
+        <v>0</v>
+      </c>
+      <c r="D79">
+        <v>0</v>
+      </c>
+      <c r="E79">
+        <v>3950</v>
+      </c>
+      <c r="F79">
+        <v>3950</v>
+      </c>
+      <c r="G79">
+        <v>0</v>
+      </c>
+      <c r="H79">
+        <v>0</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+      <c r="J79">
+        <v>0</v>
+      </c>
+      <c r="K79">
+        <v>0</v>
+      </c>
+      <c r="L79">
+        <v>0</v>
+      </c>
+      <c r="M79">
+        <v>0</v>
+      </c>
+      <c r="N79">
+        <v>6850</v>
+      </c>
+      <c r="O79">
+        <v>3400</v>
+      </c>
+      <c r="P79">
+        <v>300</v>
+      </c>
+      <c r="Q79">
+        <v>0</v>
+      </c>
+      <c r="R79">
+        <v>0</v>
+      </c>
+      <c r="S79">
+        <v>0</v>
+      </c>
+      <c r="T79">
+        <v>0</v>
+      </c>
+      <c r="U79">
+        <v>0</v>
+      </c>
+      <c r="V79">
+        <v>0</v>
+      </c>
+      <c r="W79">
+        <v>0</v>
+      </c>
+      <c r="X79">
+        <v>0</v>
+      </c>
+      <c r="Y79">
+        <v>0</v>
+      </c>
+      <c r="Z79">
+        <v>0</v>
+      </c>
+      <c r="AA79">
+        <v>0</v>
+      </c>
+      <c r="AB79">
+        <v>0</v>
+      </c>
+      <c r="AC79">
+        <v>0</v>
+      </c>
+      <c r="AD79">
+        <v>0</v>
+      </c>
+      <c r="AE79">
+        <v>0</v>
+      </c>
+      <c r="AF79">
+        <v>0</v>
+      </c>
+      <c r="AG79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:33">
+      <c r="A80" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="B80">
+        <v>0</v>
+      </c>
+      <c r="C80">
+        <v>0</v>
+      </c>
+      <c r="D80">
+        <v>0</v>
+      </c>
+      <c r="E80">
+        <v>4000</v>
+      </c>
+      <c r="F80">
+        <v>4000</v>
+      </c>
+      <c r="G80">
+        <v>0</v>
+      </c>
+      <c r="H80">
+        <v>0</v>
+      </c>
+      <c r="I80">
+        <v>0</v>
+      </c>
+      <c r="J80">
+        <v>0</v>
+      </c>
+      <c r="K80">
+        <v>0</v>
+      </c>
+      <c r="L80">
+        <v>0</v>
+      </c>
+      <c r="M80">
+        <v>0</v>
+      </c>
+      <c r="N80">
+        <v>6950</v>
+      </c>
+      <c r="O80">
+        <v>3450</v>
+      </c>
+      <c r="P80">
+        <v>300</v>
+      </c>
+      <c r="Q80">
+        <v>0</v>
+      </c>
+      <c r="R80">
+        <v>0</v>
+      </c>
+      <c r="S80">
+        <v>0</v>
+      </c>
+      <c r="T80">
+        <v>0</v>
+      </c>
+      <c r="U80">
+        <v>0</v>
+      </c>
+      <c r="V80">
+        <v>0</v>
+      </c>
+      <c r="W80">
+        <v>0</v>
+      </c>
+      <c r="X80">
+        <v>0</v>
+      </c>
+      <c r="Y80">
+        <v>0</v>
+      </c>
+      <c r="Z80">
+        <v>0</v>
+      </c>
+      <c r="AA80">
+        <v>0</v>
+      </c>
+      <c r="AB80">
+        <v>0</v>
+      </c>
+      <c r="AC80">
+        <v>0</v>
+      </c>
+      <c r="AD80">
+        <v>0</v>
+      </c>
+      <c r="AE80">
+        <v>0</v>
+      </c>
+      <c r="AF80">
+        <v>0</v>
+      </c>
+      <c r="AG80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:33">
+      <c r="A81" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="B81">
+        <v>0</v>
+      </c>
+      <c r="C81">
+        <v>0</v>
+      </c>
+      <c r="D81">
+        <v>0</v>
+      </c>
+      <c r="E81">
+        <v>4050</v>
+      </c>
+      <c r="F81">
+        <v>4050</v>
+      </c>
+      <c r="G81">
+        <v>0</v>
+      </c>
+      <c r="H81">
+        <v>0</v>
+      </c>
+      <c r="I81">
+        <v>0</v>
+      </c>
+      <c r="J81">
+        <v>0</v>
+      </c>
+      <c r="K81">
+        <v>0</v>
+      </c>
+      <c r="L81">
+        <v>0</v>
+      </c>
+      <c r="M81">
+        <v>0</v>
+      </c>
+      <c r="N81">
+        <v>7050</v>
+      </c>
+      <c r="O81">
+        <v>3500</v>
+      </c>
+      <c r="P81">
+        <v>300</v>
+      </c>
+      <c r="Q81">
+        <v>0</v>
+      </c>
+      <c r="R81">
+        <v>0</v>
+      </c>
+      <c r="S81">
+        <v>0</v>
+      </c>
+      <c r="T81">
+        <v>0</v>
+      </c>
+      <c r="U81">
+        <v>0</v>
+      </c>
+      <c r="V81">
+        <v>0</v>
+      </c>
+      <c r="W81">
+        <v>0</v>
+      </c>
+      <c r="X81">
+        <v>0</v>
+      </c>
+      <c r="Y81">
+        <v>0</v>
+      </c>
+      <c r="Z81">
+        <v>0</v>
+      </c>
+      <c r="AA81">
+        <v>0</v>
+      </c>
+      <c r="AB81">
+        <v>0</v>
+      </c>
+      <c r="AC81">
+        <v>0</v>
+      </c>
+      <c r="AD81">
+        <v>0</v>
+      </c>
+      <c r="AE81">
+        <v>0</v>
+      </c>
+      <c r="AF81">
+        <v>0</v>
+      </c>
+      <c r="AG81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:33">
+      <c r="A82" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="B82">
+        <v>0</v>
+      </c>
+      <c r="C82">
+        <v>0</v>
+      </c>
+      <c r="D82">
+        <v>0</v>
+      </c>
+      <c r="E82">
+        <v>4100</v>
+      </c>
+      <c r="F82">
+        <v>4100</v>
+      </c>
+      <c r="G82">
+        <v>0</v>
+      </c>
+      <c r="H82">
+        <v>0</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+      <c r="J82">
+        <v>0</v>
+      </c>
+      <c r="K82">
+        <v>0</v>
+      </c>
+      <c r="L82">
+        <v>0</v>
+      </c>
+      <c r="M82">
+        <v>0</v>
+      </c>
+      <c r="N82">
+        <v>7150</v>
+      </c>
+      <c r="O82">
+        <v>3550</v>
+      </c>
+      <c r="P82">
+        <v>300</v>
+      </c>
+      <c r="Q82">
+        <v>0</v>
+      </c>
+      <c r="R82">
+        <v>0</v>
+      </c>
+      <c r="S82">
+        <v>0</v>
+      </c>
+      <c r="T82">
+        <v>0</v>
+      </c>
+      <c r="U82">
+        <v>0</v>
+      </c>
+      <c r="V82">
+        <v>0</v>
+      </c>
+      <c r="W82">
+        <v>0</v>
+      </c>
+      <c r="X82">
+        <v>0</v>
+      </c>
+      <c r="Y82">
+        <v>0</v>
+      </c>
+      <c r="Z82">
+        <v>0</v>
+      </c>
+      <c r="AA82">
+        <v>0</v>
+      </c>
+      <c r="AB82">
+        <v>0</v>
+      </c>
+      <c r="AC82">
+        <v>0</v>
+      </c>
+      <c r="AD82">
+        <v>0</v>
+      </c>
+      <c r="AE82">
+        <v>0</v>
+      </c>
+      <c r="AF82">
+        <v>0</v>
+      </c>
+      <c r="AG82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:33">
+      <c r="A83" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="B83">
+        <v>0</v>
+      </c>
+      <c r="C83">
+        <v>0</v>
+      </c>
+      <c r="D83">
+        <v>0</v>
+      </c>
+      <c r="E83">
+        <v>4150</v>
+      </c>
+      <c r="F83">
+        <v>4150</v>
+      </c>
+      <c r="G83">
+        <v>0</v>
+      </c>
+      <c r="H83">
+        <v>0</v>
+      </c>
+      <c r="I83">
+        <v>0</v>
+      </c>
+      <c r="J83">
+        <v>0</v>
+      </c>
+      <c r="K83">
+        <v>0</v>
+      </c>
+      <c r="L83">
+        <v>0</v>
+      </c>
+      <c r="M83">
+        <v>0</v>
+      </c>
+      <c r="N83">
+        <v>7250</v>
+      </c>
+      <c r="O83">
+        <v>3600</v>
+      </c>
+      <c r="P83">
+        <v>300</v>
+      </c>
+      <c r="Q83">
+        <v>0</v>
+      </c>
+      <c r="R83">
+        <v>0</v>
+      </c>
+      <c r="S83">
+        <v>0</v>
+      </c>
+      <c r="T83">
+        <v>0</v>
+      </c>
+      <c r="U83">
+        <v>0</v>
+      </c>
+      <c r="V83">
+        <v>0</v>
+      </c>
+      <c r="W83">
+        <v>0</v>
+      </c>
+      <c r="X83">
+        <v>0</v>
+      </c>
+      <c r="Y83">
+        <v>0</v>
+      </c>
+      <c r="Z83">
+        <v>0</v>
+      </c>
+      <c r="AA83">
+        <v>0</v>
+      </c>
+      <c r="AB83">
+        <v>0</v>
+      </c>
+      <c r="AC83">
+        <v>0</v>
+      </c>
+      <c r="AD83">
+        <v>0</v>
+      </c>
+      <c r="AE83">
+        <v>0</v>
+      </c>
+      <c r="AF83">
+        <v>0</v>
+      </c>
+      <c r="AG83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:33">
+      <c r="A84" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="B84">
+        <v>0</v>
+      </c>
+      <c r="C84">
+        <v>0</v>
+      </c>
+      <c r="D84">
+        <v>0</v>
+      </c>
+      <c r="E84">
+        <v>4200</v>
+      </c>
+      <c r="F84">
+        <v>4200</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+      <c r="H84">
+        <v>0</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+      <c r="J84">
+        <v>0</v>
+      </c>
+      <c r="K84">
+        <v>0</v>
+      </c>
+      <c r="L84">
+        <v>0</v>
+      </c>
+      <c r="M84">
+        <v>0</v>
+      </c>
+      <c r="N84">
+        <v>7350</v>
+      </c>
+      <c r="O84">
+        <v>3650</v>
+      </c>
+      <c r="P84">
+        <v>300</v>
+      </c>
+      <c r="Q84">
+        <v>0</v>
+      </c>
+      <c r="R84">
+        <v>0</v>
+      </c>
+      <c r="S84">
+        <v>0</v>
+      </c>
+      <c r="T84">
+        <v>0</v>
+      </c>
+      <c r="U84">
+        <v>0</v>
+      </c>
+      <c r="V84">
+        <v>0</v>
+      </c>
+      <c r="W84">
+        <v>0</v>
+      </c>
+      <c r="X84">
+        <v>0</v>
+      </c>
+      <c r="Y84">
+        <v>0</v>
+      </c>
+      <c r="Z84">
+        <v>0</v>
+      </c>
+      <c r="AA84">
+        <v>0</v>
+      </c>
+      <c r="AB84">
+        <v>0</v>
+      </c>
+      <c r="AC84">
+        <v>0</v>
+      </c>
+      <c r="AD84">
+        <v>0</v>
+      </c>
+      <c r="AE84">
+        <v>0</v>
+      </c>
+      <c r="AF84">
+        <v>0</v>
+      </c>
+      <c r="AG84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:33">
+      <c r="A85" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="B85">
+        <v>0</v>
+      </c>
+      <c r="C85">
+        <v>0</v>
+      </c>
+      <c r="D85">
+        <v>0</v>
+      </c>
+      <c r="E85">
+        <v>4250</v>
+      </c>
+      <c r="F85">
+        <v>4250</v>
+      </c>
+      <c r="G85">
+        <v>0</v>
+      </c>
+      <c r="H85">
+        <v>0</v>
+      </c>
+      <c r="I85">
+        <v>0</v>
+      </c>
+      <c r="J85">
+        <v>0</v>
+      </c>
+      <c r="K85">
+        <v>0</v>
+      </c>
+      <c r="L85">
+        <v>0</v>
+      </c>
+      <c r="M85">
+        <v>0</v>
+      </c>
+      <c r="N85">
+        <v>7450</v>
+      </c>
+      <c r="O85">
+        <v>3700</v>
+      </c>
+      <c r="P85">
+        <v>300</v>
+      </c>
+      <c r="Q85">
+        <v>0</v>
+      </c>
+      <c r="R85">
+        <v>0</v>
+      </c>
+      <c r="S85">
+        <v>0</v>
+      </c>
+      <c r="T85">
+        <v>0</v>
+      </c>
+      <c r="U85">
+        <v>0</v>
+      </c>
+      <c r="V85">
+        <v>0</v>
+      </c>
+      <c r="W85">
+        <v>0</v>
+      </c>
+      <c r="X85">
+        <v>0</v>
+      </c>
+      <c r="Y85">
+        <v>0</v>
+      </c>
+      <c r="Z85">
+        <v>0</v>
+      </c>
+      <c r="AA85">
+        <v>0</v>
+      </c>
+      <c r="AB85">
+        <v>0</v>
+      </c>
+      <c r="AC85">
+        <v>0</v>
+      </c>
+      <c r="AD85">
+        <v>0</v>
+      </c>
+      <c r="AE85">
+        <v>0</v>
+      </c>
+      <c r="AF85">
+        <v>0</v>
+      </c>
+      <c r="AG85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:33">
+      <c r="A86" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="B86">
+        <v>0</v>
+      </c>
+      <c r="C86">
+        <v>0</v>
+      </c>
+      <c r="D86">
+        <v>0</v>
+      </c>
+      <c r="E86">
+        <v>4300</v>
+      </c>
+      <c r="F86">
+        <v>4300</v>
+      </c>
+      <c r="G86">
+        <v>0</v>
+      </c>
+      <c r="H86">
+        <v>0</v>
+      </c>
+      <c r="I86">
+        <v>0</v>
+      </c>
+      <c r="J86">
+        <v>0</v>
+      </c>
+      <c r="K86">
+        <v>0</v>
+      </c>
+      <c r="L86">
+        <v>0</v>
+      </c>
+      <c r="M86">
+        <v>0</v>
+      </c>
+      <c r="N86">
+        <v>7550</v>
+      </c>
+      <c r="O86">
+        <v>3750</v>
+      </c>
+      <c r="P86">
+        <v>300</v>
+      </c>
+      <c r="Q86">
+        <v>0</v>
+      </c>
+      <c r="R86">
+        <v>0</v>
+      </c>
+      <c r="S86">
+        <v>0</v>
+      </c>
+      <c r="T86">
+        <v>0</v>
+      </c>
+      <c r="U86">
+        <v>0</v>
+      </c>
+      <c r="V86">
+        <v>0</v>
+      </c>
+      <c r="W86">
+        <v>0</v>
+      </c>
+      <c r="X86">
+        <v>0</v>
+      </c>
+      <c r="Y86">
+        <v>0</v>
+      </c>
+      <c r="Z86">
+        <v>0</v>
+      </c>
+      <c r="AA86">
+        <v>0</v>
+      </c>
+      <c r="AB86">
+        <v>0</v>
+      </c>
+      <c r="AC86">
+        <v>0</v>
+      </c>
+      <c r="AD86">
+        <v>0</v>
+      </c>
+      <c r="AE86">
+        <v>0</v>
+      </c>
+      <c r="AF86">
+        <v>0</v>
+      </c>
+      <c r="AG86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:33">
+      <c r="A87" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="B87">
+        <v>0</v>
+      </c>
+      <c r="C87">
+        <v>0</v>
+      </c>
+      <c r="D87">
+        <v>0</v>
+      </c>
+      <c r="E87">
+        <v>4350</v>
+      </c>
+      <c r="F87">
+        <v>4350</v>
+      </c>
+      <c r="G87">
+        <v>0</v>
+      </c>
+      <c r="H87">
+        <v>0</v>
+      </c>
+      <c r="I87">
+        <v>0</v>
+      </c>
+      <c r="J87">
+        <v>0</v>
+      </c>
+      <c r="K87">
+        <v>0</v>
+      </c>
+      <c r="L87">
+        <v>0</v>
+      </c>
+      <c r="M87">
+        <v>0</v>
+      </c>
+      <c r="N87">
+        <v>7650</v>
+      </c>
+      <c r="O87">
+        <v>3800</v>
+      </c>
+      <c r="P87">
+        <v>300</v>
+      </c>
+      <c r="Q87">
+        <v>0</v>
+      </c>
+      <c r="R87">
+        <v>0</v>
+      </c>
+      <c r="S87">
+        <v>0</v>
+      </c>
+      <c r="T87">
+        <v>0</v>
+      </c>
+      <c r="U87">
+        <v>0</v>
+      </c>
+      <c r="V87">
+        <v>0</v>
+      </c>
+      <c r="W87">
+        <v>0</v>
+      </c>
+      <c r="X87">
+        <v>0</v>
+      </c>
+      <c r="Y87">
+        <v>0</v>
+      </c>
+      <c r="Z87">
+        <v>0</v>
+      </c>
+      <c r="AA87">
+        <v>0</v>
+      </c>
+      <c r="AB87">
+        <v>0</v>
+      </c>
+      <c r="AC87">
+        <v>0</v>
+      </c>
+      <c r="AD87">
+        <v>0</v>
+      </c>
+      <c r="AE87">
+        <v>0</v>
+      </c>
+      <c r="AF87">
+        <v>0</v>
+      </c>
+      <c r="AG87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:33">
+      <c r="A88" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="B88">
+        <v>0</v>
+      </c>
+      <c r="C88">
+        <v>0</v>
+      </c>
+      <c r="D88">
+        <v>0</v>
+      </c>
+      <c r="E88">
+        <v>4400</v>
+      </c>
+      <c r="F88">
+        <v>4400</v>
+      </c>
+      <c r="G88">
+        <v>0</v>
+      </c>
+      <c r="H88">
+        <v>0</v>
+      </c>
+      <c r="I88">
+        <v>0</v>
+      </c>
+      <c r="J88">
+        <v>0</v>
+      </c>
+      <c r="K88">
+        <v>0</v>
+      </c>
+      <c r="L88">
+        <v>0</v>
+      </c>
+      <c r="M88">
+        <v>0</v>
+      </c>
+      <c r="N88">
+        <v>7750</v>
+      </c>
+      <c r="O88">
+        <v>3850</v>
+      </c>
+      <c r="P88">
+        <v>300</v>
+      </c>
+      <c r="Q88">
+        <v>0</v>
+      </c>
+      <c r="R88">
+        <v>0</v>
+      </c>
+      <c r="S88">
+        <v>0</v>
+      </c>
+      <c r="T88">
+        <v>0</v>
+      </c>
+      <c r="U88">
+        <v>0</v>
+      </c>
+      <c r="V88">
+        <v>0</v>
+      </c>
+      <c r="W88">
+        <v>0</v>
+      </c>
+      <c r="X88">
+        <v>0</v>
+      </c>
+      <c r="Y88">
+        <v>0</v>
+      </c>
+      <c r="Z88">
+        <v>0</v>
+      </c>
+      <c r="AA88">
+        <v>0</v>
+      </c>
+      <c r="AB88">
+        <v>0</v>
+      </c>
+      <c r="AC88">
+        <v>0</v>
+      </c>
+      <c r="AD88">
+        <v>0</v>
+      </c>
+      <c r="AE88">
+        <v>0</v>
+      </c>
+      <c r="AF88">
+        <v>0</v>
+      </c>
+      <c r="AG88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:33">
+      <c r="A89" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="B89">
+        <v>0</v>
+      </c>
+      <c r="C89">
+        <v>0</v>
+      </c>
+      <c r="D89">
+        <v>0</v>
+      </c>
+      <c r="E89">
+        <v>4450</v>
+      </c>
+      <c r="F89">
+        <v>4450</v>
+      </c>
+      <c r="G89">
+        <v>0</v>
+      </c>
+      <c r="H89">
+        <v>0</v>
+      </c>
+      <c r="I89">
+        <v>0</v>
+      </c>
+      <c r="J89">
+        <v>0</v>
+      </c>
+      <c r="K89">
+        <v>0</v>
+      </c>
+      <c r="L89">
+        <v>0</v>
+      </c>
+      <c r="M89">
+        <v>0</v>
+      </c>
+      <c r="N89">
+        <v>7850</v>
+      </c>
+      <c r="O89">
+        <v>3900</v>
+      </c>
+      <c r="P89">
+        <v>300</v>
+      </c>
+      <c r="Q89">
+        <v>0</v>
+      </c>
+      <c r="R89">
+        <v>0</v>
+      </c>
+      <c r="S89">
+        <v>0</v>
+      </c>
+      <c r="T89">
+        <v>0</v>
+      </c>
+      <c r="U89">
+        <v>0</v>
+      </c>
+      <c r="V89">
+        <v>0</v>
+      </c>
+      <c r="W89">
+        <v>0</v>
+      </c>
+      <c r="X89">
+        <v>0</v>
+      </c>
+      <c r="Y89">
+        <v>0</v>
+      </c>
+      <c r="Z89">
+        <v>0</v>
+      </c>
+      <c r="AA89">
+        <v>0</v>
+      </c>
+      <c r="AB89">
+        <v>0</v>
+      </c>
+      <c r="AC89">
+        <v>0</v>
+      </c>
+      <c r="AD89">
+        <v>0</v>
+      </c>
+      <c r="AE89">
+        <v>0</v>
+      </c>
+      <c r="AF89">
+        <v>0</v>
+      </c>
+      <c r="AG89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:33">
+      <c r="A90" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="B90">
+        <v>0</v>
+      </c>
+      <c r="C90">
+        <v>0</v>
+      </c>
+      <c r="D90">
+        <v>0</v>
+      </c>
+      <c r="E90">
+        <v>4500</v>
+      </c>
+      <c r="F90">
+        <v>4500</v>
+      </c>
+      <c r="G90">
+        <v>0</v>
+      </c>
+      <c r="H90">
+        <v>0</v>
+      </c>
+      <c r="I90">
+        <v>0</v>
+      </c>
+      <c r="J90">
+        <v>0</v>
+      </c>
+      <c r="K90">
+        <v>0</v>
+      </c>
+      <c r="L90">
+        <v>0</v>
+      </c>
+      <c r="M90">
+        <v>0</v>
+      </c>
+      <c r="N90">
+        <v>7950</v>
+      </c>
+      <c r="O90">
+        <v>3950</v>
+      </c>
+      <c r="P90">
+        <v>300</v>
+      </c>
+      <c r="Q90">
+        <v>0</v>
+      </c>
+      <c r="R90">
+        <v>0</v>
+      </c>
+      <c r="S90">
+        <v>0</v>
+      </c>
+      <c r="T90">
+        <v>0</v>
+      </c>
+      <c r="U90">
+        <v>0</v>
+      </c>
+      <c r="V90">
+        <v>0</v>
+      </c>
+      <c r="W90">
+        <v>0</v>
+      </c>
+      <c r="X90">
+        <v>0</v>
+      </c>
+      <c r="Y90">
+        <v>0</v>
+      </c>
+      <c r="Z90">
+        <v>0</v>
+      </c>
+      <c r="AA90">
+        <v>0</v>
+      </c>
+      <c r="AB90">
+        <v>0</v>
+      </c>
+      <c r="AC90">
+        <v>0</v>
+      </c>
+      <c r="AD90">
+        <v>0</v>
+      </c>
+      <c r="AE90">
+        <v>0</v>
+      </c>
+      <c r="AF90">
+        <v>0</v>
+      </c>
+      <c r="AG90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:33">
+      <c r="A91" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="B91">
+        <v>0</v>
+      </c>
+      <c r="C91">
+        <v>0</v>
+      </c>
+      <c r="D91">
+        <v>0</v>
+      </c>
+      <c r="E91">
+        <v>4550</v>
+      </c>
+      <c r="F91">
+        <v>4550</v>
+      </c>
+      <c r="G91">
+        <v>0</v>
+      </c>
+      <c r="H91">
+        <v>0</v>
+      </c>
+      <c r="I91">
+        <v>0</v>
+      </c>
+      <c r="J91">
+        <v>0</v>
+      </c>
+      <c r="K91">
+        <v>0</v>
+      </c>
+      <c r="L91">
+        <v>0</v>
+      </c>
+      <c r="M91">
+        <v>0</v>
+      </c>
+      <c r="N91">
+        <v>8050</v>
+      </c>
+      <c r="O91">
+        <v>4000</v>
+      </c>
+      <c r="P91">
+        <v>300</v>
+      </c>
+      <c r="Q91">
+        <v>0</v>
+      </c>
+      <c r="R91">
+        <v>0</v>
+      </c>
+      <c r="S91">
+        <v>0</v>
+      </c>
+      <c r="T91">
+        <v>0</v>
+      </c>
+      <c r="U91">
+        <v>0</v>
+      </c>
+      <c r="V91">
+        <v>0</v>
+      </c>
+      <c r="W91">
+        <v>0</v>
+      </c>
+      <c r="X91">
+        <v>0</v>
+      </c>
+      <c r="Y91">
+        <v>0</v>
+      </c>
+      <c r="Z91">
+        <v>0</v>
+      </c>
+      <c r="AA91">
+        <v>0</v>
+      </c>
+      <c r="AB91">
+        <v>0</v>
+      </c>
+      <c r="AC91">
+        <v>0</v>
+      </c>
+      <c r="AD91">
+        <v>0</v>
+      </c>
+      <c r="AE91">
+        <v>0</v>
+      </c>
+      <c r="AF91">
+        <v>0</v>
+      </c>
+      <c r="AG91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:33">
+      <c r="A92" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="B92">
+        <v>0</v>
+      </c>
+      <c r="C92">
+        <v>0</v>
+      </c>
+      <c r="D92">
+        <v>0</v>
+      </c>
+      <c r="E92">
+        <v>4600</v>
+      </c>
+      <c r="F92">
+        <v>4600</v>
+      </c>
+      <c r="G92">
+        <v>0</v>
+      </c>
+      <c r="H92">
+        <v>0</v>
+      </c>
+      <c r="I92">
+        <v>0</v>
+      </c>
+      <c r="J92">
+        <v>0</v>
+      </c>
+      <c r="K92">
+        <v>0</v>
+      </c>
+      <c r="L92">
+        <v>0</v>
+      </c>
+      <c r="M92">
+        <v>0</v>
+      </c>
+      <c r="N92">
+        <v>8150</v>
+      </c>
+      <c r="O92">
+        <v>4050</v>
+      </c>
+      <c r="P92">
+        <v>300</v>
+      </c>
+      <c r="Q92">
+        <v>0</v>
+      </c>
+      <c r="R92">
+        <v>0</v>
+      </c>
+      <c r="S92">
+        <v>0</v>
+      </c>
+      <c r="T92">
+        <v>0</v>
+      </c>
+      <c r="U92">
+        <v>0</v>
+      </c>
+      <c r="V92">
+        <v>0</v>
+      </c>
+      <c r="W92">
+        <v>0</v>
+      </c>
+      <c r="X92">
+        <v>0</v>
+      </c>
+      <c r="Y92">
+        <v>0</v>
+      </c>
+      <c r="Z92">
+        <v>0</v>
+      </c>
+      <c r="AA92">
+        <v>0</v>
+      </c>
+      <c r="AB92">
+        <v>0</v>
+      </c>
+      <c r="AC92">
+        <v>0</v>
+      </c>
+      <c r="AD92">
+        <v>0</v>
+      </c>
+      <c r="AE92">
+        <v>0</v>
+      </c>
+      <c r="AF92">
+        <v>0</v>
+      </c>
+      <c r="AG92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:33">
+      <c r="A93" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="B93">
+        <v>0</v>
+      </c>
+      <c r="C93">
+        <v>0</v>
+      </c>
+      <c r="D93">
+        <v>0</v>
+      </c>
+      <c r="E93">
+        <v>4650</v>
+      </c>
+      <c r="F93">
+        <v>4650</v>
+      </c>
+      <c r="G93">
+        <v>0</v>
+      </c>
+      <c r="H93">
+        <v>0</v>
+      </c>
+      <c r="I93">
+        <v>0</v>
+      </c>
+      <c r="J93">
+        <v>0</v>
+      </c>
+      <c r="K93">
+        <v>0</v>
+      </c>
+      <c r="L93">
+        <v>0</v>
+      </c>
+      <c r="M93">
+        <v>0</v>
+      </c>
+      <c r="N93">
+        <v>8250</v>
+      </c>
+      <c r="O93">
+        <v>4100</v>
+      </c>
+      <c r="P93">
+        <v>300</v>
+      </c>
+      <c r="Q93">
+        <v>0</v>
+      </c>
+      <c r="R93">
+        <v>0</v>
+      </c>
+      <c r="S93">
+        <v>0</v>
+      </c>
+      <c r="T93">
+        <v>0</v>
+      </c>
+      <c r="U93">
+        <v>0</v>
+      </c>
+      <c r="V93">
+        <v>0</v>
+      </c>
+      <c r="W93">
+        <v>0</v>
+      </c>
+      <c r="X93">
+        <v>0</v>
+      </c>
+      <c r="Y93">
+        <v>0</v>
+      </c>
+      <c r="Z93">
+        <v>0</v>
+      </c>
+      <c r="AA93">
+        <v>0</v>
+      </c>
+      <c r="AB93">
+        <v>0</v>
+      </c>
+      <c r="AC93">
+        <v>0</v>
+      </c>
+      <c r="AD93">
+        <v>0</v>
+      </c>
+      <c r="AE93">
+        <v>0</v>
+      </c>
+      <c r="AF93">
+        <v>0</v>
+      </c>
+      <c r="AG93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:33">
+      <c r="A94" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="B94">
+        <v>0</v>
+      </c>
+      <c r="C94">
+        <v>0</v>
+      </c>
+      <c r="D94">
+        <v>0</v>
+      </c>
+      <c r="E94">
+        <v>4700</v>
+      </c>
+      <c r="F94">
+        <v>4700</v>
+      </c>
+      <c r="G94">
+        <v>0</v>
+      </c>
+      <c r="H94">
+        <v>0</v>
+      </c>
+      <c r="I94">
+        <v>0</v>
+      </c>
+      <c r="J94">
+        <v>0</v>
+      </c>
+      <c r="K94">
+        <v>0</v>
+      </c>
+      <c r="L94">
+        <v>0</v>
+      </c>
+      <c r="M94">
+        <v>0</v>
+      </c>
+      <c r="N94">
+        <v>8350</v>
+      </c>
+      <c r="O94">
+        <v>4150</v>
+      </c>
+      <c r="P94">
+        <v>300</v>
+      </c>
+      <c r="Q94">
+        <v>0</v>
+      </c>
+      <c r="R94">
+        <v>0</v>
+      </c>
+      <c r="S94">
+        <v>0</v>
+      </c>
+      <c r="T94">
+        <v>0</v>
+      </c>
+      <c r="U94">
+        <v>0</v>
+      </c>
+      <c r="V94">
+        <v>0</v>
+      </c>
+      <c r="W94">
+        <v>0</v>
+      </c>
+      <c r="X94">
+        <v>0</v>
+      </c>
+      <c r="Y94">
+        <v>0</v>
+      </c>
+      <c r="Z94">
+        <v>0</v>
+      </c>
+      <c r="AA94">
+        <v>0</v>
+      </c>
+      <c r="AB94">
+        <v>0</v>
+      </c>
+      <c r="AC94">
+        <v>0</v>
+      </c>
+      <c r="AD94">
+        <v>0</v>
+      </c>
+      <c r="AE94">
+        <v>0</v>
+      </c>
+      <c r="AF94">
+        <v>0</v>
+      </c>
+      <c r="AG94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:33">
+      <c r="A95" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="B95">
+        <v>0</v>
+      </c>
+      <c r="C95">
+        <v>0</v>
+      </c>
+      <c r="D95">
+        <v>0</v>
+      </c>
+      <c r="E95">
+        <v>4750</v>
+      </c>
+      <c r="F95">
+        <v>4750</v>
+      </c>
+      <c r="G95">
+        <v>0</v>
+      </c>
+      <c r="H95">
+        <v>0</v>
+      </c>
+      <c r="I95">
+        <v>0</v>
+      </c>
+      <c r="J95">
+        <v>0</v>
+      </c>
+      <c r="K95">
+        <v>0</v>
+      </c>
+      <c r="L95">
+        <v>0</v>
+      </c>
+      <c r="M95">
+        <v>0</v>
+      </c>
+      <c r="N95">
+        <v>8450</v>
+      </c>
+      <c r="O95">
+        <v>4200</v>
+      </c>
+      <c r="P95">
+        <v>300</v>
+      </c>
+      <c r="Q95">
+        <v>0</v>
+      </c>
+      <c r="R95">
+        <v>0</v>
+      </c>
+      <c r="S95">
+        <v>0</v>
+      </c>
+      <c r="T95">
+        <v>0</v>
+      </c>
+      <c r="U95">
+        <v>0</v>
+      </c>
+      <c r="V95">
+        <v>0</v>
+      </c>
+      <c r="W95">
+        <v>0</v>
+      </c>
+      <c r="X95">
+        <v>0</v>
+      </c>
+      <c r="Y95">
+        <v>0</v>
+      </c>
+      <c r="Z95">
+        <v>0</v>
+      </c>
+      <c r="AA95">
+        <v>0</v>
+      </c>
+      <c r="AB95">
+        <v>0</v>
+      </c>
+      <c r="AC95">
+        <v>0</v>
+      </c>
+      <c r="AD95">
+        <v>0</v>
+      </c>
+      <c r="AE95">
+        <v>0</v>
+      </c>
+      <c r="AF95">
+        <v>0</v>
+      </c>
+      <c r="AG95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:33">
+      <c r="A96" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="B96">
+        <v>0</v>
+      </c>
+      <c r="C96">
+        <v>0</v>
+      </c>
+      <c r="D96">
+        <v>0</v>
+      </c>
+      <c r="E96">
+        <v>4800</v>
+      </c>
+      <c r="F96">
+        <v>4800</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>0</v>
+      </c>
+      <c r="K96">
+        <v>0</v>
+      </c>
+      <c r="L96">
+        <v>0</v>
+      </c>
+      <c r="M96">
+        <v>0</v>
+      </c>
+      <c r="N96">
+        <v>8550</v>
+      </c>
+      <c r="O96">
+        <v>4250</v>
+      </c>
+      <c r="P96">
+        <v>300</v>
+      </c>
+      <c r="Q96">
+        <v>0</v>
+      </c>
+      <c r="R96">
+        <v>0</v>
+      </c>
+      <c r="S96">
+        <v>0</v>
+      </c>
+      <c r="T96">
+        <v>0</v>
+      </c>
+      <c r="U96">
+        <v>0</v>
+      </c>
+      <c r="V96">
+        <v>0</v>
+      </c>
+      <c r="W96">
+        <v>0</v>
+      </c>
+      <c r="X96">
+        <v>0</v>
+      </c>
+      <c r="Y96">
+        <v>0</v>
+      </c>
+      <c r="Z96">
+        <v>0</v>
+      </c>
+      <c r="AA96">
+        <v>0</v>
+      </c>
+      <c r="AB96">
+        <v>0</v>
+      </c>
+      <c r="AC96">
+        <v>0</v>
+      </c>
+      <c r="AD96">
+        <v>0</v>
+      </c>
+      <c r="AE96">
+        <v>0</v>
+      </c>
+      <c r="AF96">
+        <v>0</v>
+      </c>
+      <c r="AG96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:33">
+      <c r="A97" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="B97">
+        <v>0</v>
+      </c>
+      <c r="C97">
+        <v>0</v>
+      </c>
+      <c r="D97">
+        <v>0</v>
+      </c>
+      <c r="E97">
+        <v>4850</v>
+      </c>
+      <c r="F97">
+        <v>4850</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+      <c r="H97">
+        <v>0</v>
+      </c>
+      <c r="I97">
+        <v>0</v>
+      </c>
+      <c r="J97">
+        <v>0</v>
+      </c>
+      <c r="K97">
+        <v>0</v>
+      </c>
+      <c r="L97">
+        <v>0</v>
+      </c>
+      <c r="M97">
+        <v>0</v>
+      </c>
+      <c r="N97">
+        <v>8650</v>
+      </c>
+      <c r="O97">
+        <v>4300</v>
+      </c>
+      <c r="P97">
+        <v>300</v>
+      </c>
+      <c r="Q97">
+        <v>0</v>
+      </c>
+      <c r="R97">
+        <v>0</v>
+      </c>
+      <c r="S97">
+        <v>0</v>
+      </c>
+      <c r="T97">
+        <v>0</v>
+      </c>
+      <c r="U97">
+        <v>0</v>
+      </c>
+      <c r="V97">
+        <v>0</v>
+      </c>
+      <c r="W97">
+        <v>0</v>
+      </c>
+      <c r="X97">
+        <v>0</v>
+      </c>
+      <c r="Y97">
+        <v>0</v>
+      </c>
+      <c r="Z97">
+        <v>0</v>
+      </c>
+      <c r="AA97">
+        <v>0</v>
+      </c>
+      <c r="AB97">
+        <v>0</v>
+      </c>
+      <c r="AC97">
+        <v>0</v>
+      </c>
+      <c r="AD97">
+        <v>0</v>
+      </c>
+      <c r="AE97">
+        <v>0</v>
+      </c>
+      <c r="AF97">
+        <v>0</v>
+      </c>
+      <c r="AG97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:33">
+      <c r="A98" s="12" t="s">
+        <v>162</v>
+      </c>
+      <c r="B98">
+        <v>0</v>
+      </c>
+      <c r="C98">
+        <v>0</v>
+      </c>
+      <c r="D98">
+        <v>0</v>
+      </c>
+      <c r="E98">
+        <v>4900</v>
+      </c>
+      <c r="F98">
+        <v>4900</v>
+      </c>
+      <c r="G98">
+        <v>0</v>
+      </c>
+      <c r="H98">
+        <v>0</v>
+      </c>
+      <c r="I98">
+        <v>0</v>
+      </c>
+      <c r="J98">
+        <v>0</v>
+      </c>
+      <c r="K98">
+        <v>0</v>
+      </c>
+      <c r="L98">
+        <v>0</v>
+      </c>
+      <c r="M98">
+        <v>0</v>
+      </c>
+      <c r="N98">
+        <v>8750</v>
+      </c>
+      <c r="O98">
+        <v>4350</v>
+      </c>
+      <c r="P98">
+        <v>300</v>
+      </c>
+      <c r="Q98">
+        <v>0</v>
+      </c>
+      <c r="R98">
+        <v>0</v>
+      </c>
+      <c r="S98">
+        <v>0</v>
+      </c>
+      <c r="T98">
+        <v>0</v>
+      </c>
+      <c r="U98">
+        <v>0</v>
+      </c>
+      <c r="V98">
+        <v>0</v>
+      </c>
+      <c r="W98">
+        <v>0</v>
+      </c>
+      <c r="X98">
+        <v>0</v>
+      </c>
+      <c r="Y98">
+        <v>0</v>
+      </c>
+      <c r="Z98">
+        <v>0</v>
+      </c>
+      <c r="AA98">
+        <v>0</v>
+      </c>
+      <c r="AB98">
+        <v>0</v>
+      </c>
+      <c r="AC98">
+        <v>0</v>
+      </c>
+      <c r="AD98">
+        <v>0</v>
+      </c>
+      <c r="AE98">
+        <v>0</v>
+      </c>
+      <c r="AF98">
+        <v>0</v>
+      </c>
+      <c r="AG98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:33">
+      <c r="A99" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="B99">
+        <v>0</v>
+      </c>
+      <c r="C99">
+        <v>0</v>
+      </c>
+      <c r="D99">
+        <v>0</v>
+      </c>
+      <c r="E99">
+        <v>4950</v>
+      </c>
+      <c r="F99">
+        <v>4950</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+      <c r="J99">
+        <v>0</v>
+      </c>
+      <c r="K99">
+        <v>0</v>
+      </c>
+      <c r="L99">
+        <v>0</v>
+      </c>
+      <c r="M99">
+        <v>0</v>
+      </c>
+      <c r="N99">
+        <v>8850</v>
+      </c>
+      <c r="O99">
+        <v>4400</v>
+      </c>
+      <c r="P99">
+        <v>300</v>
+      </c>
+      <c r="Q99">
+        <v>0</v>
+      </c>
+      <c r="R99">
+        <v>0</v>
+      </c>
+      <c r="S99">
+        <v>0</v>
+      </c>
+      <c r="T99">
+        <v>0</v>
+      </c>
+      <c r="U99">
+        <v>0</v>
+      </c>
+      <c r="V99">
+        <v>0</v>
+      </c>
+      <c r="W99">
+        <v>0</v>
+      </c>
+      <c r="X99">
+        <v>0</v>
+      </c>
+      <c r="Y99">
+        <v>0</v>
+      </c>
+      <c r="Z99">
+        <v>0</v>
+      </c>
+      <c r="AA99">
+        <v>0</v>
+      </c>
+      <c r="AB99">
+        <v>0</v>
+      </c>
+      <c r="AC99">
+        <v>0</v>
+      </c>
+      <c r="AD99">
+        <v>0</v>
+      </c>
+      <c r="AE99">
+        <v>0</v>
+      </c>
+      <c r="AF99">
+        <v>0</v>
+      </c>
+      <c r="AG99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:33">
+      <c r="A100" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="B100">
+        <v>0</v>
+      </c>
+      <c r="C100">
+        <v>0</v>
+      </c>
+      <c r="D100">
+        <v>0</v>
+      </c>
+      <c r="E100">
+        <v>5000</v>
+      </c>
+      <c r="F100">
+        <v>5000</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>0</v>
+      </c>
+      <c r="K100">
+        <v>0</v>
+      </c>
+      <c r="L100">
+        <v>0</v>
+      </c>
+      <c r="M100">
+        <v>0</v>
+      </c>
+      <c r="N100">
+        <v>8950</v>
+      </c>
+      <c r="O100">
+        <v>4450</v>
+      </c>
+      <c r="P100">
+        <v>300</v>
+      </c>
+      <c r="Q100">
+        <v>0</v>
+      </c>
+      <c r="R100">
+        <v>0</v>
+      </c>
+      <c r="S100">
+        <v>0</v>
+      </c>
+      <c r="T100">
+        <v>0</v>
+      </c>
+      <c r="U100">
+        <v>0</v>
+      </c>
+      <c r="V100">
+        <v>0</v>
+      </c>
+      <c r="W100">
+        <v>0</v>
+      </c>
+      <c r="X100">
+        <v>0</v>
+      </c>
+      <c r="Y100">
+        <v>0</v>
+      </c>
+      <c r="Z100">
+        <v>0</v>
+      </c>
+      <c r="AA100">
+        <v>0</v>
+      </c>
+      <c r="AB100">
+        <v>0</v>
+      </c>
+      <c r="AC100">
+        <v>0</v>
+      </c>
+      <c r="AD100">
+        <v>0</v>
+      </c>
+      <c r="AE100">
+        <v>0</v>
+      </c>
+      <c r="AF100">
+        <v>0</v>
+      </c>
+      <c r="AG100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:33">
+      <c r="A101" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="B101">
+        <v>0</v>
+      </c>
+      <c r="C101">
+        <v>0</v>
+      </c>
+      <c r="D101">
+        <v>0</v>
+      </c>
+      <c r="E101">
+        <v>5050</v>
+      </c>
+      <c r="F101">
+        <v>5050</v>
+      </c>
+      <c r="G101">
+        <v>0</v>
+      </c>
+      <c r="H101">
+        <v>0</v>
+      </c>
+      <c r="I101">
+        <v>0</v>
+      </c>
+      <c r="J101">
+        <v>0</v>
+      </c>
+      <c r="K101">
+        <v>0</v>
+      </c>
+      <c r="L101">
+        <v>0</v>
+      </c>
+      <c r="M101">
+        <v>0</v>
+      </c>
+      <c r="N101">
+        <v>9050</v>
+      </c>
+      <c r="O101">
+        <v>4500</v>
+      </c>
+      <c r="P101">
+        <v>300</v>
+      </c>
+      <c r="Q101">
+        <v>0</v>
+      </c>
+      <c r="R101">
+        <v>0</v>
+      </c>
+      <c r="S101">
+        <v>0</v>
+      </c>
+      <c r="T101">
+        <v>0</v>
+      </c>
+      <c r="U101">
+        <v>0</v>
+      </c>
+      <c r="V101">
+        <v>0</v>
+      </c>
+      <c r="W101">
+        <v>0</v>
+      </c>
+      <c r="X101">
+        <v>0</v>
+      </c>
+      <c r="Y101">
+        <v>0</v>
+      </c>
+      <c r="Z101">
+        <v>0</v>
+      </c>
+      <c r="AA101">
+        <v>0</v>
+      </c>
+      <c r="AB101">
+        <v>0</v>
+      </c>
+      <c r="AC101">
+        <v>0</v>
+      </c>
+      <c r="AD101">
+        <v>0</v>
+      </c>
+      <c r="AE101">
+        <v>0</v>
+      </c>
+      <c r="AF101">
+        <v>0</v>
+      </c>
+      <c r="AG101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:33">
+      <c r="A102" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="B102">
+        <v>0</v>
+      </c>
+      <c r="C102">
+        <v>0</v>
+      </c>
+      <c r="D102">
+        <v>0</v>
+      </c>
+      <c r="E102">
+        <v>5100</v>
+      </c>
+      <c r="F102">
+        <v>5100</v>
+      </c>
+      <c r="G102">
+        <v>0</v>
+      </c>
+      <c r="H102">
+        <v>0</v>
+      </c>
+      <c r="I102">
+        <v>0</v>
+      </c>
+      <c r="J102">
+        <v>0</v>
+      </c>
+      <c r="K102">
+        <v>0</v>
+      </c>
+      <c r="L102">
+        <v>0</v>
+      </c>
+      <c r="M102">
+        <v>0</v>
+      </c>
+      <c r="N102">
+        <v>9150</v>
+      </c>
+      <c r="O102">
+        <v>4550</v>
+      </c>
+      <c r="P102">
+        <v>300</v>
+      </c>
+      <c r="Q102">
+        <v>0</v>
+      </c>
+      <c r="R102">
+        <v>0</v>
+      </c>
+      <c r="S102">
+        <v>0</v>
+      </c>
+      <c r="T102">
+        <v>0</v>
+      </c>
+      <c r="U102">
+        <v>0</v>
+      </c>
+      <c r="V102">
+        <v>0</v>
+      </c>
+      <c r="W102">
+        <v>0</v>
+      </c>
+      <c r="X102">
+        <v>0</v>
+      </c>
+      <c r="Y102">
+        <v>0</v>
+      </c>
+      <c r="Z102">
+        <v>0</v>
+      </c>
+      <c r="AA102">
+        <v>0</v>
+      </c>
+      <c r="AB102">
+        <v>0</v>
+      </c>
+      <c r="AC102">
+        <v>0</v>
+      </c>
+      <c r="AD102">
+        <v>0</v>
+      </c>
+      <c r="AE102">
+        <v>0</v>
+      </c>
+      <c r="AF102">
+        <v>0</v>
+      </c>
+      <c r="AG102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:33">
+      <c r="A103" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="B103">
+        <v>0</v>
+      </c>
+      <c r="C103">
+        <v>0</v>
+      </c>
+      <c r="D103">
+        <v>0</v>
+      </c>
+      <c r="E103">
+        <v>5150</v>
+      </c>
+      <c r="F103">
+        <v>5150</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
+      <c r="J103">
+        <v>0</v>
+      </c>
+      <c r="K103">
+        <v>0</v>
+      </c>
+      <c r="L103">
+        <v>0</v>
+      </c>
+      <c r="M103">
+        <v>0</v>
+      </c>
+      <c r="N103">
+        <v>9250</v>
+      </c>
+      <c r="O103">
+        <v>4600</v>
+      </c>
+      <c r="P103">
+        <v>300</v>
+      </c>
+      <c r="Q103">
+        <v>0</v>
+      </c>
+      <c r="R103">
+        <v>0</v>
+      </c>
+      <c r="S103">
+        <v>0</v>
+      </c>
+      <c r="T103">
+        <v>0</v>
+      </c>
+      <c r="U103">
+        <v>0</v>
+      </c>
+      <c r="V103">
+        <v>0</v>
+      </c>
+      <c r="W103">
+        <v>0</v>
+      </c>
+      <c r="X103">
+        <v>0</v>
+      </c>
+      <c r="Y103">
+        <v>0</v>
+      </c>
+      <c r="Z103">
+        <v>0</v>
+      </c>
+      <c r="AA103">
+        <v>0</v>
+      </c>
+      <c r="AB103">
+        <v>0</v>
+      </c>
+      <c r="AC103">
+        <v>0</v>
+      </c>
+      <c r="AD103">
+        <v>0</v>
+      </c>
+      <c r="AE103">
+        <v>0</v>
+      </c>
+      <c r="AF103">
+        <v>0</v>
+      </c>
+      <c r="AG103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:33">
+      <c r="A104" s="12" t="s">
+        <v>168</v>
+      </c>
+      <c r="B104">
+        <v>0</v>
+      </c>
+      <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>5200</v>
+      </c>
+      <c r="F104">
+        <v>5200</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104">
+        <v>0</v>
+      </c>
+      <c r="K104">
+        <v>0</v>
+      </c>
+      <c r="L104">
+        <v>0</v>
+      </c>
+      <c r="M104">
+        <v>0</v>
+      </c>
+      <c r="N104">
+        <v>9350</v>
+      </c>
+      <c r="O104">
+        <v>4650</v>
+      </c>
+      <c r="P104">
+        <v>300</v>
+      </c>
+      <c r="Q104">
+        <v>0</v>
+      </c>
+      <c r="R104">
+        <v>0</v>
+      </c>
+      <c r="S104">
+        <v>0</v>
+      </c>
+      <c r="T104">
+        <v>0</v>
+      </c>
+      <c r="U104">
+        <v>0</v>
+      </c>
+      <c r="V104">
+        <v>0</v>
+      </c>
+      <c r="W104">
+        <v>0</v>
+      </c>
+      <c r="X104">
+        <v>0</v>
+      </c>
+      <c r="Y104">
+        <v>0</v>
+      </c>
+      <c r="Z104">
+        <v>0</v>
+      </c>
+      <c r="AA104">
+        <v>0</v>
+      </c>
+      <c r="AB104">
+        <v>0</v>
+      </c>
+      <c r="AC104">
+        <v>0</v>
+      </c>
+      <c r="AD104">
+        <v>0</v>
+      </c>
+      <c r="AE104">
+        <v>0</v>
+      </c>
+      <c r="AF104">
+        <v>0</v>
+      </c>
+      <c r="AG104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:33">
+      <c r="A105" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="B105">
+        <v>0</v>
+      </c>
+      <c r="C105">
+        <v>0</v>
+      </c>
+      <c r="D105">
+        <v>0</v>
+      </c>
+      <c r="E105">
+        <v>5250</v>
+      </c>
+      <c r="F105">
+        <v>5250</v>
+      </c>
+      <c r="G105">
+        <v>0</v>
+      </c>
+      <c r="H105">
+        <v>0</v>
+      </c>
+      <c r="I105">
+        <v>0</v>
+      </c>
+      <c r="J105">
+        <v>0</v>
+      </c>
+      <c r="K105">
+        <v>0</v>
+      </c>
+      <c r="L105">
+        <v>0</v>
+      </c>
+      <c r="M105">
+        <v>0</v>
+      </c>
+      <c r="N105">
+        <v>9450</v>
+      </c>
+      <c r="O105">
+        <v>4700</v>
+      </c>
+      <c r="P105">
+        <v>300</v>
+      </c>
+      <c r="Q105">
+        <v>0</v>
+      </c>
+      <c r="R105">
+        <v>0</v>
+      </c>
+      <c r="S105">
+        <v>0</v>
+      </c>
+      <c r="T105">
+        <v>0</v>
+      </c>
+      <c r="U105">
+        <v>0</v>
+      </c>
+      <c r="V105">
+        <v>0</v>
+      </c>
+      <c r="W105">
+        <v>0</v>
+      </c>
+      <c r="X105">
+        <v>0</v>
+      </c>
+      <c r="Y105">
+        <v>0</v>
+      </c>
+      <c r="Z105">
+        <v>0</v>
+      </c>
+      <c r="AA105">
+        <v>0</v>
+      </c>
+      <c r="AB105">
+        <v>0</v>
+      </c>
+      <c r="AC105">
+        <v>0</v>
+      </c>
+      <c r="AD105">
+        <v>0</v>
+      </c>
+      <c r="AE105">
+        <v>0</v>
+      </c>
+      <c r="AF105">
+        <v>0</v>
+      </c>
+      <c r="AG105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:33">
+      <c r="A106" s="12" t="s">
+        <v>170</v>
+      </c>
+      <c r="B106">
+        <v>0</v>
+      </c>
+      <c r="C106">
+        <v>0</v>
+      </c>
+      <c r="D106">
+        <v>0</v>
+      </c>
+      <c r="E106">
+        <v>5300</v>
+      </c>
+      <c r="F106">
+        <v>5300</v>
+      </c>
+      <c r="G106">
+        <v>0</v>
+      </c>
+      <c r="H106">
+        <v>0</v>
+      </c>
+      <c r="I106">
+        <v>0</v>
+      </c>
+      <c r="J106">
+        <v>0</v>
+      </c>
+      <c r="K106">
+        <v>0</v>
+      </c>
+      <c r="L106">
+        <v>0</v>
+      </c>
+      <c r="M106">
+        <v>0</v>
+      </c>
+      <c r="N106">
+        <v>9550</v>
+      </c>
+      <c r="O106">
+        <v>4750</v>
+      </c>
+      <c r="P106">
+        <v>300</v>
+      </c>
+      <c r="Q106">
+        <v>0</v>
+      </c>
+      <c r="R106">
+        <v>0</v>
+      </c>
+      <c r="S106">
+        <v>0</v>
+      </c>
+      <c r="T106">
+        <v>0</v>
+      </c>
+      <c r="U106">
+        <v>0</v>
+      </c>
+      <c r="V106">
+        <v>0</v>
+      </c>
+      <c r="W106">
+        <v>0</v>
+      </c>
+      <c r="X106">
+        <v>0</v>
+      </c>
+      <c r="Y106">
+        <v>0</v>
+      </c>
+      <c r="Z106">
+        <v>0</v>
+      </c>
+      <c r="AA106">
+        <v>0</v>
+      </c>
+      <c r="AB106">
+        <v>0</v>
+      </c>
+      <c r="AC106">
+        <v>0</v>
+      </c>
+      <c r="AD106">
+        <v>0</v>
+      </c>
+      <c r="AE106">
+        <v>0</v>
+      </c>
+      <c r="AF106">
+        <v>0</v>
+      </c>
+      <c r="AG106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:33">
+      <c r="A107" s="12" t="s">
+        <v>171</v>
+      </c>
+      <c r="B107">
+        <v>0</v>
+      </c>
+      <c r="C107">
+        <v>0</v>
+      </c>
+      <c r="D107">
+        <v>0</v>
+      </c>
+      <c r="E107">
+        <v>5350</v>
+      </c>
+      <c r="F107">
+        <v>5350</v>
+      </c>
+      <c r="G107">
+        <v>0</v>
+      </c>
+      <c r="H107">
+        <v>0</v>
+      </c>
+      <c r="I107">
+        <v>0</v>
+      </c>
+      <c r="J107">
+        <v>0</v>
+      </c>
+      <c r="K107">
+        <v>0</v>
+      </c>
+      <c r="L107">
+        <v>0</v>
+      </c>
+      <c r="M107">
+        <v>0</v>
+      </c>
+      <c r="N107">
+        <v>9650</v>
+      </c>
+      <c r="O107">
+        <v>4800</v>
+      </c>
+      <c r="P107">
+        <v>300</v>
+      </c>
+      <c r="Q107">
+        <v>0</v>
+      </c>
+      <c r="R107">
+        <v>0</v>
+      </c>
+      <c r="S107">
+        <v>0</v>
+      </c>
+      <c r="T107">
+        <v>0</v>
+      </c>
+      <c r="U107">
+        <v>0</v>
+      </c>
+      <c r="V107">
+        <v>0</v>
+      </c>
+      <c r="W107">
+        <v>0</v>
+      </c>
+      <c r="X107">
+        <v>0</v>
+      </c>
+      <c r="Y107">
+        <v>0</v>
+      </c>
+      <c r="Z107">
+        <v>0</v>
+      </c>
+      <c r="AA107">
+        <v>0</v>
+      </c>
+      <c r="AB107">
+        <v>0</v>
+      </c>
+      <c r="AC107">
+        <v>0</v>
+      </c>
+      <c r="AD107">
+        <v>0</v>
+      </c>
+      <c r="AE107">
+        <v>0</v>
+      </c>
+      <c r="AF107">
+        <v>0</v>
+      </c>
+      <c r="AG107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:33">
+      <c r="A108" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="B108">
+        <v>0</v>
+      </c>
+      <c r="C108">
+        <v>0</v>
+      </c>
+      <c r="D108">
+        <v>0</v>
+      </c>
+      <c r="E108">
+        <v>5400</v>
+      </c>
+      <c r="F108">
+        <v>5400</v>
+      </c>
+      <c r="G108">
+        <v>0</v>
+      </c>
+      <c r="H108">
+        <v>0</v>
+      </c>
+      <c r="I108">
+        <v>0</v>
+      </c>
+      <c r="J108">
+        <v>0</v>
+      </c>
+      <c r="K108">
+        <v>0</v>
+      </c>
+      <c r="L108">
+        <v>0</v>
+      </c>
+      <c r="M108">
+        <v>0</v>
+      </c>
+      <c r="N108">
+        <v>9750</v>
+      </c>
+      <c r="O108">
+        <v>4850</v>
+      </c>
+      <c r="P108">
+        <v>300</v>
+      </c>
+      <c r="Q108">
+        <v>0</v>
+      </c>
+      <c r="R108">
+        <v>0</v>
+      </c>
+      <c r="S108">
+        <v>0</v>
+      </c>
+      <c r="T108">
+        <v>0</v>
+      </c>
+      <c r="U108">
+        <v>0</v>
+      </c>
+      <c r="V108">
+        <v>0</v>
+      </c>
+      <c r="W108">
+        <v>0</v>
+      </c>
+      <c r="X108">
+        <v>0</v>
+      </c>
+      <c r="Y108">
+        <v>0</v>
+      </c>
+      <c r="Z108">
+        <v>0</v>
+      </c>
+      <c r="AA108">
+        <v>0</v>
+      </c>
+      <c r="AB108">
+        <v>0</v>
+      </c>
+      <c r="AC108">
+        <v>0</v>
+      </c>
+      <c r="AD108">
+        <v>0</v>
+      </c>
+      <c r="AE108">
+        <v>0</v>
+      </c>
+      <c r="AF108">
+        <v>0</v>
+      </c>
+      <c r="AG108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:33">
+      <c r="A109" s="12" t="s">
+        <v>173</v>
+      </c>
+      <c r="B109">
+        <v>0</v>
+      </c>
+      <c r="C109">
+        <v>0</v>
+      </c>
+      <c r="D109">
+        <v>0</v>
+      </c>
+      <c r="E109">
+        <v>5450</v>
+      </c>
+      <c r="F109">
+        <v>5450</v>
+      </c>
+      <c r="G109">
+        <v>0</v>
+      </c>
+      <c r="H109">
+        <v>0</v>
+      </c>
+      <c r="I109">
+        <v>0</v>
+      </c>
+      <c r="J109">
+        <v>0</v>
+      </c>
+      <c r="K109">
+        <v>0</v>
+      </c>
+      <c r="L109">
+        <v>0</v>
+      </c>
+      <c r="M109">
+        <v>0</v>
+      </c>
+      <c r="N109">
+        <v>9850</v>
+      </c>
+      <c r="O109">
+        <v>4900</v>
+      </c>
+      <c r="P109">
+        <v>300</v>
+      </c>
+      <c r="Q109">
+        <v>0</v>
+      </c>
+      <c r="R109">
+        <v>0</v>
+      </c>
+      <c r="S109">
+        <v>0</v>
+      </c>
+      <c r="T109">
+        <v>0</v>
+      </c>
+      <c r="U109">
+        <v>0</v>
+      </c>
+      <c r="V109">
+        <v>0</v>
+      </c>
+      <c r="W109">
+        <v>0</v>
+      </c>
+      <c r="X109">
+        <v>0</v>
+      </c>
+      <c r="Y109">
+        <v>0</v>
+      </c>
+      <c r="Z109">
+        <v>0</v>
+      </c>
+      <c r="AA109">
+        <v>0</v>
+      </c>
+      <c r="AB109">
+        <v>0</v>
+      </c>
+      <c r="AC109">
+        <v>0</v>
+      </c>
+      <c r="AD109">
+        <v>0</v>
+      </c>
+      <c r="AE109">
+        <v>0</v>
+      </c>
+      <c r="AF109">
+        <v>0</v>
+      </c>
+      <c r="AG109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:33">
+      <c r="A110" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="B110">
+        <v>0</v>
+      </c>
+      <c r="C110">
+        <v>0</v>
+      </c>
+      <c r="D110">
+        <v>0</v>
+      </c>
+      <c r="E110">
+        <v>5500</v>
+      </c>
+      <c r="F110">
+        <v>5500</v>
+      </c>
+      <c r="G110">
+        <v>0</v>
+      </c>
+      <c r="H110">
+        <v>0</v>
+      </c>
+      <c r="I110">
+        <v>0</v>
+      </c>
+      <c r="J110">
+        <v>0</v>
+      </c>
+      <c r="K110">
+        <v>0</v>
+      </c>
+      <c r="L110">
+        <v>0</v>
+      </c>
+      <c r="M110">
+        <v>0</v>
+      </c>
+      <c r="N110">
+        <v>9950</v>
+      </c>
+      <c r="O110">
+        <v>4950</v>
+      </c>
+      <c r="P110">
+        <v>300</v>
+      </c>
+      <c r="Q110">
+        <v>0</v>
+      </c>
+      <c r="R110">
+        <v>0</v>
+      </c>
+      <c r="S110">
+        <v>0</v>
+      </c>
+      <c r="T110">
+        <v>0</v>
+      </c>
+      <c r="U110">
+        <v>0</v>
+      </c>
+      <c r="V110">
+        <v>0</v>
+      </c>
+      <c r="W110">
+        <v>0</v>
+      </c>
+      <c r="X110">
+        <v>0</v>
+      </c>
+      <c r="Y110">
+        <v>0</v>
+      </c>
+      <c r="Z110">
+        <v>0</v>
+      </c>
+      <c r="AA110">
+        <v>0</v>
+      </c>
+      <c r="AB110">
+        <v>0</v>
+      </c>
+      <c r="AC110">
+        <v>0</v>
+      </c>
+      <c r="AD110">
+        <v>0</v>
+      </c>
+      <c r="AE110">
+        <v>0</v>
+      </c>
+      <c r="AF110">
+        <v>0</v>
+      </c>
+      <c r="AG110">
         <v>0</v>
       </c>
     </row>

--- a/_Out/NFDataCfg/Excel/EffectData.xlsx
+++ b/_Out/NFDataCfg/Excel/EffectData.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\James\Desktop\NoahGameFrame\_Out\NFDataCfg\Excel\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21495" windowHeight="10343" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="21495" windowHeight="10350"/>
   </bookViews>
   <sheets>
     <sheet name="Property1" sheetId="1" r:id="rId1"/>
@@ -22,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175">
   <si>
     <t>Id</t>
   </si>
@@ -81,6 +76,9 @@
     <t>ATK_LIGHT</t>
   </si>
   <si>
+    <t>ATK_DARK</t>
+  </si>
+  <si>
     <t>ATK_WIND</t>
   </si>
   <si>
@@ -90,12 +88,12 @@
     <t>ATK_POISON</t>
   </si>
   <si>
-    <t>DEF_FIRE</t>
-  </si>
-  <si>
     <t>DEF_LIGHT</t>
   </si>
   <si>
+    <t>DEF_DARK</t>
+  </si>
+  <si>
     <t>DEF_WIND</t>
   </si>
   <si>
@@ -105,9 +103,6 @@
     <t>DEF_POISON</t>
   </si>
   <si>
-    <t>DIZZY_GATE</t>
-  </si>
-  <si>
     <t>MOVE_GATE</t>
   </si>
   <si>
@@ -144,6 +139,9 @@
     <t>Ref</t>
   </si>
   <si>
+    <t>Force</t>
+  </si>
+  <si>
     <t>Upload</t>
   </si>
   <si>
@@ -204,6 +202,9 @@
     <t>LPID_ATK_LIGHT</t>
   </si>
   <si>
+    <t>LPID_ATK_DARK</t>
+  </si>
+  <si>
     <t>LPID_ATK_WIND</t>
   </si>
   <si>
@@ -213,12 +214,12 @@
     <t>LPID_ATK_POISON</t>
   </si>
   <si>
-    <t>LPID_DEF_FIRE</t>
-  </si>
-  <si>
     <t>LPID_DEF_LIGHT</t>
   </si>
   <si>
+    <t>LPID_DEF_DARK</t>
+  </si>
+  <si>
     <t>LPID_DEF_WIND</t>
   </si>
   <si>
@@ -228,9 +229,6 @@
     <t>LPID_DEF_POISON</t>
   </si>
   <si>
-    <t>LPID_DIZZY_GATE</t>
-  </si>
-  <si>
     <t>LPID_MOVE_GATE</t>
   </si>
   <si>
@@ -424,9 +422,6 @@
   </si>
   <si>
     <t>PlayerAtt60</t>
-  </si>
-  <si>
-    <t>Force</t>
   </si>
   <si>
     <t>PlayerAtt61</t>
@@ -552,8 +547,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -567,8 +568,159 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -587,8 +739,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="9">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -712,9 +1050,251 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -759,13 +1339,61 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
+    <cellStyle name="Currency" xfId="5" builtinId="4"/>
+    <cellStyle name="Percent" xfId="6" builtinId="5"/>
+    <cellStyle name="Check Cell" xfId="7" builtinId="23"/>
+    <cellStyle name="Heading 2" xfId="8" builtinId="17"/>
+    <cellStyle name="Note" xfId="9" builtinId="10"/>
+    <cellStyle name="Hyperlink" xfId="10" builtinId="8"/>
+    <cellStyle name="60% - Accent4" xfId="11" builtinId="44"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9"/>
+    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="Title" xfId="16" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
+    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
+    <cellStyle name="Input" xfId="21" builtinId="20"/>
+    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
+    <cellStyle name="Good" xfId="23" builtinId="26"/>
+    <cellStyle name="Output" xfId="24" builtinId="21"/>
+    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
+    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
+    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
+    <cellStyle name="Total" xfId="28" builtinId="25"/>
+    <cellStyle name="Bad" xfId="29" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
+    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
+    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
+    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
+    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
+    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
+    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
   <dxfs count="1">
     <dxf>
       <font>
-        <b/>
+        <b val="1"/>
       </font>
       <fill>
         <patternFill patternType="solid">
@@ -775,16 +1403,13 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2">
-    <tableStyle name="MySqlDefault" count="1" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
+    <tableStyle name="MySqlDefault" count="1">
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
   </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1113,38 +1738,39 @@
       <a:lstStyle/>
     </a:spDef>
   </a:objectDefaults>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:AG110"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane xSplit="1" ySplit="10" topLeftCell="B11" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="10" topLeftCell="R11" activePane="bottomRight" state="frozen"/>
+      <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="P17" sqref="P17"/>
+      <selection pane="bottomRight" activeCell="T1" sqref="T$1:T$1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="46.73046875" customWidth="1"/>
-    <col min="2" max="2" width="16.33203125" customWidth="1"/>
-    <col min="3" max="4" width="9.33203125" customWidth="1"/>
-    <col min="5" max="10" width="11.6640625" customWidth="1"/>
+    <col min="1" max="1" width="24.3083333333333" customWidth="1"/>
+    <col min="2" max="2" width="16.3333333333333" customWidth="1"/>
+    <col min="3" max="4" width="9.33333333333333" customWidth="1"/>
+    <col min="5" max="10" width="11.6666666666667" customWidth="1"/>
     <col min="11" max="12" width="14" customWidth="1"/>
-    <col min="13" max="13" width="15.33203125" customWidth="1"/>
+    <col min="13" max="13" width="15.3333333333333" customWidth="1"/>
     <col min="14" max="14" width="14" customWidth="1"/>
-    <col min="15" max="29" width="16.53125" customWidth="1"/>
-    <col min="30" max="30" width="10.33203125" customWidth="1"/>
+    <col min="15" max="29" width="16.5333333333333" customWidth="1"/>
+    <col min="30" max="30" width="10.3333333333333" customWidth="1"/>
     <col min="31" max="31" width="13" customWidth="1"/>
-    <col min="32" max="32" width="12.1328125" customWidth="1"/>
-    <col min="33" max="33" width="15.73046875" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="12.1333333333333" customWidth="1"/>
+    <col min="33" max="33" width="15.7333333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" s="1" customFormat="1">
+    <row r="1" s="1" customFormat="1" spans="1:33">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1245,7 +1871,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:33" s="2" customFormat="1">
+    <row r="2" s="2" customFormat="1" spans="1:33">
       <c r="A2" s="7" t="s">
         <v>33</v>
       </c>
@@ -1346,7 +1972,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:33" s="2" customFormat="1">
+    <row r="3" s="2" customFormat="1" spans="1:33">
       <c r="A3" s="7" t="s">
         <v>35</v>
       </c>
@@ -1447,7 +2073,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:33" s="2" customFormat="1">
+    <row r="4" s="2" customFormat="1" spans="1:33">
       <c r="A4" s="7" t="s">
         <v>36</v>
       </c>
@@ -1548,7 +2174,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:33" s="2" customFormat="1">
+    <row r="5" s="2" customFormat="1" spans="1:33">
       <c r="A5" s="7" t="s">
         <v>37</v>
       </c>
@@ -1649,7 +2275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:33" s="2" customFormat="1">
+    <row r="6" s="2" customFormat="1" spans="1:33">
       <c r="A6" s="7" t="s">
         <v>38</v>
       </c>
@@ -1750,7 +2376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:33" s="3" customFormat="1">
+    <row r="7" s="3" customFormat="1" spans="1:33">
       <c r="A7" s="9" t="s">
         <v>39</v>
       </c>
@@ -1851,9 +2477,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:33" s="3" customFormat="1">
+    <row r="8" s="3" customFormat="1" spans="1:33">
       <c r="A8" s="9" t="s">
-        <v>134</v>
+        <v>40</v>
       </c>
       <c r="B8" s="3">
         <v>0</v>
@@ -1952,9 +2578,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:33" s="3" customFormat="1">
+    <row r="9" s="3" customFormat="1" spans="1:33">
       <c r="A9" s="9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B9" s="3">
         <v>0</v>
@@ -2053,110 +2679,110 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:33" s="4" customFormat="1">
+    <row r="10" s="4" customFormat="1" ht="14.25" spans="1:33">
       <c r="A10" s="10" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H10" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I10" s="11" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J10" s="11" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K10" s="11" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L10" s="11" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M10" s="11" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="N10" s="11" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="O10" s="11" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="P10" s="11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="Q10" s="11" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="R10" s="11" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="S10" s="11" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="T10" s="11" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="U10" s="11" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="V10" s="11" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="W10" s="11" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="X10" s="11" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="Y10" s="11" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="Z10" s="11" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AA10" s="11" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AB10" s="11" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AC10" s="11" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AD10" s="11" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AE10" s="11" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AF10" s="11" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AG10" s="11" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="11" spans="1:33">
       <c r="A11" s="12" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -2257,7 +2883,7 @@
     </row>
     <row r="12" spans="1:33">
       <c r="A12" s="12" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -2358,7 +2984,7 @@
     </row>
     <row r="13" spans="1:33">
       <c r="A13" s="12" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -2459,7 +3085,7 @@
     </row>
     <row r="14" spans="1:33">
       <c r="A14" s="12" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -2560,7 +3186,7 @@
     </row>
     <row r="15" spans="1:33">
       <c r="A15" s="12" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -2661,7 +3287,7 @@
     </row>
     <row r="16" spans="1:33">
       <c r="A16" s="12" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -2762,7 +3388,7 @@
     </row>
     <row r="17" spans="1:33">
       <c r="A17" s="12" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -2863,7 +3489,7 @@
     </row>
     <row r="18" spans="1:33">
       <c r="A18" s="12" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -2964,7 +3590,7 @@
     </row>
     <row r="19" spans="1:33">
       <c r="A19" s="12" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -3065,7 +3691,7 @@
     </row>
     <row r="20" spans="1:33">
       <c r="A20" s="12" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -3166,7 +3792,7 @@
     </row>
     <row r="21" spans="1:33">
       <c r="A21" s="12" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -3267,7 +3893,7 @@
     </row>
     <row r="22" spans="1:33">
       <c r="A22" s="12" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -3368,7 +3994,7 @@
     </row>
     <row r="23" spans="1:33">
       <c r="A23" s="12" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -3469,7 +4095,7 @@
     </row>
     <row r="24" spans="1:33">
       <c r="A24" s="12" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -3570,7 +4196,7 @@
     </row>
     <row r="25" spans="1:33">
       <c r="A25" s="12" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -3671,7 +4297,7 @@
     </row>
     <row r="26" spans="1:33">
       <c r="A26" s="12" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -3772,7 +4398,7 @@
     </row>
     <row r="27" spans="1:33">
       <c r="A27" s="12" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -3873,7 +4499,7 @@
     </row>
     <row r="28" spans="1:33">
       <c r="A28" s="12" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B28">
         <v>0</v>
@@ -3974,7 +4600,7 @@
     </row>
     <row r="29" spans="1:33">
       <c r="A29" s="12" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B29">
         <v>0</v>
@@ -4075,7 +4701,7 @@
     </row>
     <row r="30" spans="1:33">
       <c r="A30" s="12" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -4176,7 +4802,7 @@
     </row>
     <row r="31" spans="1:33">
       <c r="A31" s="12" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B31">
         <v>0</v>
@@ -4277,7 +4903,7 @@
     </row>
     <row r="32" spans="1:33">
       <c r="A32" s="12" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B32">
         <v>0</v>
@@ -4378,7 +5004,7 @@
     </row>
     <row r="33" spans="1:33">
       <c r="A33" s="12" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B33">
         <v>0</v>
@@ -4479,7 +5105,7 @@
     </row>
     <row r="34" spans="1:33">
       <c r="A34" s="12" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B34">
         <v>0</v>
@@ -4580,7 +5206,7 @@
     </row>
     <row r="35" spans="1:33">
       <c r="A35" s="12" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -4681,7 +5307,7 @@
     </row>
     <row r="36" spans="1:33">
       <c r="A36" s="12" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B36">
         <v>0</v>
@@ -4782,7 +5408,7 @@
     </row>
     <row r="37" spans="1:33">
       <c r="A37" s="12" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -4883,7 +5509,7 @@
     </row>
     <row r="38" spans="1:33">
       <c r="A38" s="12" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -4984,7 +5610,7 @@
     </row>
     <row r="39" spans="1:33">
       <c r="A39" s="12" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B39">
         <v>0</v>
@@ -5085,7 +5711,7 @@
     </row>
     <row r="40" spans="1:33">
       <c r="A40" s="12" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B40">
         <v>0</v>
@@ -5186,7 +5812,7 @@
     </row>
     <row r="41" spans="1:33">
       <c r="A41" s="12" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B41">
         <v>0</v>
@@ -5287,7 +5913,7 @@
     </row>
     <row r="42" spans="1:33">
       <c r="A42" s="12" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -5388,7 +6014,7 @@
     </row>
     <row r="43" spans="1:33">
       <c r="A43" s="12" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B43">
         <v>0</v>
@@ -5489,7 +6115,7 @@
     </row>
     <row r="44" spans="1:33">
       <c r="A44" s="12" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B44">
         <v>0</v>
@@ -5590,7 +6216,7 @@
     </row>
     <row r="45" spans="1:33">
       <c r="A45" s="12" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -5691,7 +6317,7 @@
     </row>
     <row r="46" spans="1:33">
       <c r="A46" s="12" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B46">
         <v>0</v>
@@ -5792,7 +6418,7 @@
     </row>
     <row r="47" spans="1:33">
       <c r="A47" s="12" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B47">
         <v>0</v>
@@ -5893,7 +6519,7 @@
     </row>
     <row r="48" spans="1:33">
       <c r="A48" s="12" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -5994,7 +6620,7 @@
     </row>
     <row r="49" spans="1:33">
       <c r="A49" s="12" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -6095,7 +6721,7 @@
     </row>
     <row r="50" spans="1:33">
       <c r="A50" s="12" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -6196,7 +6822,7 @@
     </row>
     <row r="51" spans="1:33">
       <c r="A51" s="12" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -6297,7 +6923,7 @@
     </row>
     <row r="52" spans="1:33">
       <c r="A52" s="12" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -6398,7 +7024,7 @@
     </row>
     <row r="53" spans="1:33">
       <c r="A53" s="12" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -6499,7 +7125,7 @@
     </row>
     <row r="54" spans="1:33">
       <c r="A54" s="12" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B54">
         <v>0</v>
@@ -6600,7 +7226,7 @@
     </row>
     <row r="55" spans="1:33">
       <c r="A55" s="12" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B55">
         <v>0</v>
@@ -6701,7 +7327,7 @@
     </row>
     <row r="56" spans="1:33">
       <c r="A56" s="12" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B56">
         <v>0</v>
@@ -6802,7 +7428,7 @@
     </row>
     <row r="57" spans="1:33">
       <c r="A57" s="12" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -6903,7 +7529,7 @@
     </row>
     <row r="58" spans="1:33">
       <c r="A58" s="12" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B58">
         <v>0</v>
@@ -7004,7 +7630,7 @@
     </row>
     <row r="59" spans="1:33">
       <c r="A59" s="12" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B59">
         <v>0</v>
@@ -7105,7 +7731,7 @@
     </row>
     <row r="60" spans="1:33">
       <c r="A60" s="12" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B60">
         <v>0</v>
@@ -7206,7 +7832,7 @@
     </row>
     <row r="61" spans="1:33">
       <c r="A61" s="12" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B61">
         <v>0</v>
@@ -7307,7 +7933,7 @@
     </row>
     <row r="62" spans="1:33">
       <c r="A62" s="12" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -7408,7 +8034,7 @@
     </row>
     <row r="63" spans="1:33">
       <c r="A63" s="12" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B63">
         <v>0</v>
@@ -7509,7 +8135,7 @@
     </row>
     <row r="64" spans="1:33">
       <c r="A64" s="12" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B64">
         <v>0</v>
@@ -7610,7 +8236,7 @@
     </row>
     <row r="65" spans="1:33">
       <c r="A65" s="12" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B65">
         <v>0</v>
@@ -7711,7 +8337,7 @@
     </row>
     <row r="66" spans="1:33">
       <c r="A66" s="12" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B66">
         <v>0</v>
@@ -7812,7 +8438,7 @@
     </row>
     <row r="67" spans="1:33">
       <c r="A67" s="12" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B67">
         <v>0</v>
@@ -7913,7 +8539,7 @@
     </row>
     <row r="68" spans="1:33">
       <c r="A68" s="12" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B68">
         <v>0</v>
@@ -8014,7 +8640,7 @@
     </row>
     <row r="69" spans="1:33">
       <c r="A69" s="12" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B69">
         <v>0</v>
@@ -8115,7 +8741,7 @@
     </row>
     <row r="70" spans="1:33">
       <c r="A70" s="12" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -12256,12 +12882,12 @@
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A7:A9" xr:uid="{00000000-0002-0000-0000-000000000000}"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7:AG9" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A7:A9"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T7:T9 X7:X9 Y7:Y9 AC7:AG9 Z7:AB9 B7:S9 U7:W9">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>

--- a/_Out/NFDataCfg/Excel/EffectData.xlsx
+++ b/_Out/NFDataCfg/Excel/EffectData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21495" windowHeight="10350"/>
+    <workbookView windowWidth="21495" windowHeight="9930"/>
   </bookViews>
   <sheets>
     <sheet name="Property1" sheetId="1" r:id="rId1"/>
@@ -549,8 +549,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
@@ -570,6 +570,51 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -577,7 +622,69 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -591,107 +698,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -705,18 +713,10 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -741,7 +741,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -753,7 +753,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -765,19 +795,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -789,7 +819,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -801,7 +849,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -813,61 +885,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -885,43 +909,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1051,21 +1051,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -1107,20 +1092,26 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1148,153 +1139,162 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1746,12 +1746,12 @@
   <sheetPr/>
   <dimension ref="A1:AG110"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane xSplit="1" ySplit="10" topLeftCell="R11" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="10" topLeftCell="K90" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="T1" sqref="T$1:T$1048576"/>
+      <selection pane="bottomRight" activeCell="P11" sqref="P11:P110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2827,7 +2827,7 @@
         <v>0</v>
       </c>
       <c r="P11">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="Q11">
         <v>0</v>
@@ -2928,7 +2928,7 @@
         <v>50</v>
       </c>
       <c r="P12">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="Q12">
         <v>0</v>
@@ -3029,7 +3029,7 @@
         <v>100</v>
       </c>
       <c r="P13">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="Q13">
         <v>0</v>
@@ -3130,7 +3130,7 @@
         <v>150</v>
       </c>
       <c r="P14">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="Q14">
         <v>0</v>
@@ -3231,7 +3231,7 @@
         <v>200</v>
       </c>
       <c r="P15">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="Q15">
         <v>0</v>
@@ -3332,7 +3332,7 @@
         <v>250</v>
       </c>
       <c r="P16">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="Q16">
         <v>0</v>
@@ -3433,7 +3433,7 @@
         <v>300</v>
       </c>
       <c r="P17">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="Q17">
         <v>0</v>
@@ -3534,7 +3534,7 @@
         <v>350</v>
       </c>
       <c r="P18">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="Q18">
         <v>0</v>
@@ -3635,7 +3635,7 @@
         <v>400</v>
       </c>
       <c r="P19">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="Q19">
         <v>0</v>
@@ -3736,7 +3736,7 @@
         <v>450</v>
       </c>
       <c r="P20">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="Q20">
         <v>0</v>
@@ -3837,7 +3837,7 @@
         <v>500</v>
       </c>
       <c r="P21">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="Q21">
         <v>0</v>
@@ -3938,7 +3938,7 @@
         <v>550</v>
       </c>
       <c r="P22">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="Q22">
         <v>0</v>
@@ -4039,7 +4039,7 @@
         <v>600</v>
       </c>
       <c r="P23">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="Q23">
         <v>0</v>
@@ -4140,7 +4140,7 @@
         <v>650</v>
       </c>
       <c r="P24">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="Q24">
         <v>0</v>
@@ -4241,7 +4241,7 @@
         <v>700</v>
       </c>
       <c r="P25">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="Q25">
         <v>0</v>
@@ -4342,7 +4342,7 @@
         <v>750</v>
       </c>
       <c r="P26">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="Q26">
         <v>0</v>
@@ -4443,7 +4443,7 @@
         <v>800</v>
       </c>
       <c r="P27">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="Q27">
         <v>0</v>
@@ -4544,7 +4544,7 @@
         <v>850</v>
       </c>
       <c r="P28">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="Q28">
         <v>0</v>
@@ -4645,7 +4645,7 @@
         <v>900</v>
       </c>
       <c r="P29">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="Q29">
         <v>0</v>
@@ -4746,7 +4746,7 @@
         <v>950</v>
       </c>
       <c r="P30">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="Q30">
         <v>0</v>
@@ -4847,7 +4847,7 @@
         <v>1000</v>
       </c>
       <c r="P31">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="Q31">
         <v>0</v>
@@ -4948,7 +4948,7 @@
         <v>1050</v>
       </c>
       <c r="P32">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="Q32">
         <v>0</v>
@@ -5049,7 +5049,7 @@
         <v>1100</v>
       </c>
       <c r="P33">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="Q33">
         <v>0</v>
@@ -5150,7 +5150,7 @@
         <v>1150</v>
       </c>
       <c r="P34">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="Q34">
         <v>0</v>
@@ -5251,7 +5251,7 @@
         <v>1200</v>
       </c>
       <c r="P35">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="Q35">
         <v>0</v>
@@ -5352,7 +5352,7 @@
         <v>1250</v>
       </c>
       <c r="P36">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="Q36">
         <v>0</v>
@@ -5453,7 +5453,7 @@
         <v>1300</v>
       </c>
       <c r="P37">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="Q37">
         <v>0</v>
@@ -5554,7 +5554,7 @@
         <v>1350</v>
       </c>
       <c r="P38">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="Q38">
         <v>0</v>
@@ -5655,7 +5655,7 @@
         <v>1400</v>
       </c>
       <c r="P39">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="Q39">
         <v>0</v>
@@ -5756,7 +5756,7 @@
         <v>1450</v>
       </c>
       <c r="P40">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="Q40">
         <v>0</v>
@@ -5857,7 +5857,7 @@
         <v>1500</v>
       </c>
       <c r="P41">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="Q41">
         <v>0</v>
@@ -5958,7 +5958,7 @@
         <v>1550</v>
       </c>
       <c r="P42">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="Q42">
         <v>0</v>
@@ -6059,7 +6059,7 @@
         <v>1600</v>
       </c>
       <c r="P43">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="Q43">
         <v>0</v>
@@ -6160,7 +6160,7 @@
         <v>1650</v>
       </c>
       <c r="P44">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="Q44">
         <v>0</v>
@@ -6261,7 +6261,7 @@
         <v>1700</v>
       </c>
       <c r="P45">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="Q45">
         <v>0</v>
@@ -6362,7 +6362,7 @@
         <v>1750</v>
       </c>
       <c r="P46">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="Q46">
         <v>0</v>
@@ -6463,7 +6463,7 @@
         <v>1800</v>
       </c>
       <c r="P47">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="Q47">
         <v>0</v>
@@ -6564,7 +6564,7 @@
         <v>1850</v>
       </c>
       <c r="P48">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="Q48">
         <v>0</v>
@@ -6665,7 +6665,7 @@
         <v>1900</v>
       </c>
       <c r="P49">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="Q49">
         <v>0</v>
@@ -6766,7 +6766,7 @@
         <v>1950</v>
       </c>
       <c r="P50">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="Q50">
         <v>0</v>
@@ -6867,7 +6867,7 @@
         <v>2000</v>
       </c>
       <c r="P51">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="Q51">
         <v>0</v>
@@ -6968,7 +6968,7 @@
         <v>2050</v>
       </c>
       <c r="P52">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="Q52">
         <v>0</v>
@@ -7069,7 +7069,7 @@
         <v>2100</v>
       </c>
       <c r="P53">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="Q53">
         <v>0</v>
@@ -7170,7 +7170,7 @@
         <v>2150</v>
       </c>
       <c r="P54">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="Q54">
         <v>0</v>
@@ -7271,7 +7271,7 @@
         <v>2200</v>
       </c>
       <c r="P55">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="Q55">
         <v>0</v>
@@ -7372,7 +7372,7 @@
         <v>2250</v>
       </c>
       <c r="P56">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="Q56">
         <v>0</v>
@@ -7473,7 +7473,7 @@
         <v>2300</v>
       </c>
       <c r="P57">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="Q57">
         <v>0</v>
@@ -7574,7 +7574,7 @@
         <v>2350</v>
       </c>
       <c r="P58">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="Q58">
         <v>0</v>
@@ -7675,7 +7675,7 @@
         <v>2400</v>
       </c>
       <c r="P59">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="Q59">
         <v>0</v>
@@ -7776,7 +7776,7 @@
         <v>2450</v>
       </c>
       <c r="P60">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="Q60">
         <v>0</v>
@@ -7877,7 +7877,7 @@
         <v>2500</v>
       </c>
       <c r="P61">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="Q61">
         <v>0</v>
@@ -7978,7 +7978,7 @@
         <v>2550</v>
       </c>
       <c r="P62">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="Q62">
         <v>0</v>
@@ -8079,7 +8079,7 @@
         <v>2600</v>
       </c>
       <c r="P63">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="Q63">
         <v>0</v>
@@ -8180,7 +8180,7 @@
         <v>2650</v>
       </c>
       <c r="P64">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="Q64">
         <v>0</v>
@@ -8281,7 +8281,7 @@
         <v>2700</v>
       </c>
       <c r="P65">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="Q65">
         <v>0</v>
@@ -8382,7 +8382,7 @@
         <v>2750</v>
       </c>
       <c r="P66">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="Q66">
         <v>0</v>
@@ -8483,7 +8483,7 @@
         <v>2800</v>
       </c>
       <c r="P67">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="Q67">
         <v>0</v>
@@ -8584,7 +8584,7 @@
         <v>2850</v>
       </c>
       <c r="P68">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="Q68">
         <v>0</v>
@@ -8685,7 +8685,7 @@
         <v>2900</v>
       </c>
       <c r="P69">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="Q69">
         <v>0</v>
@@ -8786,7 +8786,7 @@
         <v>2950</v>
       </c>
       <c r="P70">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="Q70">
         <v>0</v>
@@ -8887,7 +8887,7 @@
         <v>3000</v>
       </c>
       <c r="P71">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="Q71">
         <v>0</v>
@@ -8988,7 +8988,7 @@
         <v>3050</v>
       </c>
       <c r="P72">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="Q72">
         <v>0</v>
@@ -9089,7 +9089,7 @@
         <v>3100</v>
       </c>
       <c r="P73">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="Q73">
         <v>0</v>
@@ -9190,7 +9190,7 @@
         <v>3150</v>
       </c>
       <c r="P74">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="Q74">
         <v>0</v>
@@ -9291,7 +9291,7 @@
         <v>3200</v>
       </c>
       <c r="P75">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="Q75">
         <v>0</v>
@@ -9392,7 +9392,7 @@
         <v>3250</v>
       </c>
       <c r="P76">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="Q76">
         <v>0</v>
@@ -9493,7 +9493,7 @@
         <v>3300</v>
       </c>
       <c r="P77">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="Q77">
         <v>0</v>
@@ -9594,7 +9594,7 @@
         <v>3350</v>
       </c>
       <c r="P78">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="Q78">
         <v>0</v>
@@ -9695,7 +9695,7 @@
         <v>3400</v>
       </c>
       <c r="P79">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="Q79">
         <v>0</v>
@@ -9796,7 +9796,7 @@
         <v>3450</v>
       </c>
       <c r="P80">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="Q80">
         <v>0</v>
@@ -9897,7 +9897,7 @@
         <v>3500</v>
       </c>
       <c r="P81">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="Q81">
         <v>0</v>
@@ -9998,7 +9998,7 @@
         <v>3550</v>
       </c>
       <c r="P82">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="Q82">
         <v>0</v>
@@ -10099,7 +10099,7 @@
         <v>3600</v>
       </c>
       <c r="P83">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="Q83">
         <v>0</v>
@@ -10200,7 +10200,7 @@
         <v>3650</v>
       </c>
       <c r="P84">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="Q84">
         <v>0</v>
@@ -10301,7 +10301,7 @@
         <v>3700</v>
       </c>
       <c r="P85">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="Q85">
         <v>0</v>
@@ -10402,7 +10402,7 @@
         <v>3750</v>
       </c>
       <c r="P86">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="Q86">
         <v>0</v>
@@ -10503,7 +10503,7 @@
         <v>3800</v>
       </c>
       <c r="P87">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="Q87">
         <v>0</v>
@@ -10604,7 +10604,7 @@
         <v>3850</v>
       </c>
       <c r="P88">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="Q88">
         <v>0</v>
@@ -10705,7 +10705,7 @@
         <v>3900</v>
       </c>
       <c r="P89">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="Q89">
         <v>0</v>
@@ -10806,7 +10806,7 @@
         <v>3950</v>
       </c>
       <c r="P90">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="Q90">
         <v>0</v>
@@ -10907,7 +10907,7 @@
         <v>4000</v>
       </c>
       <c r="P91">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="Q91">
         <v>0</v>
@@ -11008,7 +11008,7 @@
         <v>4050</v>
       </c>
       <c r="P92">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="Q92">
         <v>0</v>
@@ -11109,7 +11109,7 @@
         <v>4100</v>
       </c>
       <c r="P93">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="Q93">
         <v>0</v>
@@ -11210,7 +11210,7 @@
         <v>4150</v>
       </c>
       <c r="P94">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="Q94">
         <v>0</v>
@@ -11311,7 +11311,7 @@
         <v>4200</v>
       </c>
       <c r="P95">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="Q95">
         <v>0</v>
@@ -11412,7 +11412,7 @@
         <v>4250</v>
       </c>
       <c r="P96">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="Q96">
         <v>0</v>
@@ -11513,7 +11513,7 @@
         <v>4300</v>
       </c>
       <c r="P97">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="Q97">
         <v>0</v>
@@ -11614,7 +11614,7 @@
         <v>4350</v>
       </c>
       <c r="P98">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="Q98">
         <v>0</v>
@@ -11715,7 +11715,7 @@
         <v>4400</v>
       </c>
       <c r="P99">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="Q99">
         <v>0</v>
@@ -11816,7 +11816,7 @@
         <v>4450</v>
       </c>
       <c r="P100">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="Q100">
         <v>0</v>
@@ -11917,7 +11917,7 @@
         <v>4500</v>
       </c>
       <c r="P101">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="Q101">
         <v>0</v>
@@ -12018,7 +12018,7 @@
         <v>4550</v>
       </c>
       <c r="P102">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="Q102">
         <v>0</v>
@@ -12119,7 +12119,7 @@
         <v>4600</v>
       </c>
       <c r="P103">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="Q103">
         <v>0</v>
@@ -12220,7 +12220,7 @@
         <v>4650</v>
       </c>
       <c r="P104">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="Q104">
         <v>0</v>
@@ -12321,7 +12321,7 @@
         <v>4700</v>
       </c>
       <c r="P105">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="Q105">
         <v>0</v>
@@ -12422,7 +12422,7 @@
         <v>4750</v>
       </c>
       <c r="P106">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="Q106">
         <v>0</v>
@@ -12523,7 +12523,7 @@
         <v>4800</v>
       </c>
       <c r="P107">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="Q107">
         <v>0</v>
@@ -12624,7 +12624,7 @@
         <v>4850</v>
       </c>
       <c r="P108">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="Q108">
         <v>0</v>
@@ -12725,7 +12725,7 @@
         <v>4900</v>
       </c>
       <c r="P109">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="Q109">
         <v>0</v>
@@ -12826,7 +12826,7 @@
         <v>4950</v>
       </c>
       <c r="P110">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="Q110">
         <v>0</v>

--- a/_Out/NFDataCfg/Excel/EffectData.xlsx
+++ b/_Out/NFDataCfg/Excel/EffectData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21495" windowHeight="9930"/>
+    <workbookView windowWidth="21495" windowHeight="10335"/>
   </bookViews>
   <sheets>
     <sheet name="Property1" sheetId="1" r:id="rId1"/>
@@ -550,8 +550,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="22">
@@ -570,14 +570,74 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -600,22 +660,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -628,32 +680,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -667,24 +704,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -695,28 +717,6 @@
       <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -741,7 +741,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -759,12 +837,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -777,19 +849,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -801,19 +897,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -826,102 +922,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1054,8 +1054,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1075,6 +1075,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1086,6 +1095,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1116,30 +1140,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -1153,148 +1153,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1747,7 +1747,7 @@
   <dimension ref="A1:AG110"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="10" topLeftCell="K90" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="10" topLeftCell="I99" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
@@ -2827,7 +2827,7 @@
         <v>0</v>
       </c>
       <c r="P11">
-        <v>800</v>
+        <v>350</v>
       </c>
       <c r="Q11">
         <v>0</v>
@@ -2928,7 +2928,7 @@
         <v>50</v>
       </c>
       <c r="P12">
-        <v>800</v>
+        <v>350</v>
       </c>
       <c r="Q12">
         <v>0</v>
@@ -3029,7 +3029,7 @@
         <v>100</v>
       </c>
       <c r="P13">
-        <v>800</v>
+        <v>350</v>
       </c>
       <c r="Q13">
         <v>0</v>
@@ -3130,7 +3130,7 @@
         <v>150</v>
       </c>
       <c r="P14">
-        <v>800</v>
+        <v>350</v>
       </c>
       <c r="Q14">
         <v>0</v>
@@ -3231,7 +3231,7 @@
         <v>200</v>
       </c>
       <c r="P15">
-        <v>800</v>
+        <v>350</v>
       </c>
       <c r="Q15">
         <v>0</v>
@@ -3332,7 +3332,7 @@
         <v>250</v>
       </c>
       <c r="P16">
-        <v>800</v>
+        <v>350</v>
       </c>
       <c r="Q16">
         <v>0</v>
@@ -3433,7 +3433,7 @@
         <v>300</v>
       </c>
       <c r="P17">
-        <v>800</v>
+        <v>350</v>
       </c>
       <c r="Q17">
         <v>0</v>
@@ -3534,7 +3534,7 @@
         <v>350</v>
       </c>
       <c r="P18">
-        <v>800</v>
+        <v>350</v>
       </c>
       <c r="Q18">
         <v>0</v>
@@ -3635,7 +3635,7 @@
         <v>400</v>
       </c>
       <c r="P19">
-        <v>800</v>
+        <v>350</v>
       </c>
       <c r="Q19">
         <v>0</v>
@@ -3736,7 +3736,7 @@
         <v>450</v>
       </c>
       <c r="P20">
-        <v>800</v>
+        <v>350</v>
       </c>
       <c r="Q20">
         <v>0</v>
@@ -3837,7 +3837,7 @@
         <v>500</v>
       </c>
       <c r="P21">
-        <v>800</v>
+        <v>350</v>
       </c>
       <c r="Q21">
         <v>0</v>
@@ -3938,7 +3938,7 @@
         <v>550</v>
       </c>
       <c r="P22">
-        <v>800</v>
+        <v>350</v>
       </c>
       <c r="Q22">
         <v>0</v>
@@ -4039,7 +4039,7 @@
         <v>600</v>
       </c>
       <c r="P23">
-        <v>800</v>
+        <v>350</v>
       </c>
       <c r="Q23">
         <v>0</v>
@@ -4140,7 +4140,7 @@
         <v>650</v>
       </c>
       <c r="P24">
-        <v>800</v>
+        <v>350</v>
       </c>
       <c r="Q24">
         <v>0</v>
@@ -4241,7 +4241,7 @@
         <v>700</v>
       </c>
       <c r="P25">
-        <v>800</v>
+        <v>350</v>
       </c>
       <c r="Q25">
         <v>0</v>
@@ -4342,7 +4342,7 @@
         <v>750</v>
       </c>
       <c r="P26">
-        <v>800</v>
+        <v>350</v>
       </c>
       <c r="Q26">
         <v>0</v>
@@ -4443,7 +4443,7 @@
         <v>800</v>
       </c>
       <c r="P27">
-        <v>800</v>
+        <v>350</v>
       </c>
       <c r="Q27">
         <v>0</v>
@@ -4544,7 +4544,7 @@
         <v>850</v>
       </c>
       <c r="P28">
-        <v>800</v>
+        <v>350</v>
       </c>
       <c r="Q28">
         <v>0</v>
@@ -4645,7 +4645,7 @@
         <v>900</v>
       </c>
       <c r="P29">
-        <v>800</v>
+        <v>350</v>
       </c>
       <c r="Q29">
         <v>0</v>
@@ -4746,7 +4746,7 @@
         <v>950</v>
       </c>
       <c r="P30">
-        <v>800</v>
+        <v>350</v>
       </c>
       <c r="Q30">
         <v>0</v>
@@ -4847,7 +4847,7 @@
         <v>1000</v>
       </c>
       <c r="P31">
-        <v>800</v>
+        <v>350</v>
       </c>
       <c r="Q31">
         <v>0</v>
@@ -4948,7 +4948,7 @@
         <v>1050</v>
       </c>
       <c r="P32">
-        <v>800</v>
+        <v>350</v>
       </c>
       <c r="Q32">
         <v>0</v>
@@ -5049,7 +5049,7 @@
         <v>1100</v>
       </c>
       <c r="P33">
-        <v>800</v>
+        <v>350</v>
       </c>
       <c r="Q33">
         <v>0</v>
@@ -5150,7 +5150,7 @@
         <v>1150</v>
       </c>
       <c r="P34">
-        <v>800</v>
+        <v>350</v>
       </c>
       <c r="Q34">
         <v>0</v>
@@ -5251,7 +5251,7 @@
         <v>1200</v>
       </c>
       <c r="P35">
-        <v>800</v>
+        <v>350</v>
       </c>
       <c r="Q35">
         <v>0</v>
@@ -5352,7 +5352,7 @@
         <v>1250</v>
       </c>
       <c r="P36">
-        <v>800</v>
+        <v>350</v>
       </c>
       <c r="Q36">
         <v>0</v>
@@ -5453,7 +5453,7 @@
         <v>1300</v>
       </c>
       <c r="P37">
-        <v>800</v>
+        <v>350</v>
       </c>
       <c r="Q37">
         <v>0</v>
@@ -5554,7 +5554,7 @@
         <v>1350</v>
       </c>
       <c r="P38">
-        <v>800</v>
+        <v>350</v>
       </c>
       <c r="Q38">
         <v>0</v>
@@ -5655,7 +5655,7 @@
         <v>1400</v>
       </c>
       <c r="P39">
-        <v>800</v>
+        <v>350</v>
       </c>
       <c r="Q39">
         <v>0</v>
@@ -5756,7 +5756,7 @@
         <v>1450</v>
       </c>
       <c r="P40">
-        <v>800</v>
+        <v>350</v>
       </c>
       <c r="Q40">
         <v>0</v>
@@ -5857,7 +5857,7 @@
         <v>1500</v>
       </c>
       <c r="P41">
-        <v>800</v>
+        <v>350</v>
       </c>
       <c r="Q41">
         <v>0</v>
@@ -5958,7 +5958,7 @@
         <v>1550</v>
       </c>
       <c r="P42">
-        <v>800</v>
+        <v>350</v>
       </c>
       <c r="Q42">
         <v>0</v>
@@ -6059,7 +6059,7 @@
         <v>1600</v>
       </c>
       <c r="P43">
-        <v>800</v>
+        <v>350</v>
       </c>
       <c r="Q43">
         <v>0</v>
@@ -6160,7 +6160,7 @@
         <v>1650</v>
       </c>
       <c r="P44">
-        <v>800</v>
+        <v>350</v>
       </c>
       <c r="Q44">
         <v>0</v>
@@ -6261,7 +6261,7 @@
         <v>1700</v>
       </c>
       <c r="P45">
-        <v>800</v>
+        <v>350</v>
       </c>
       <c r="Q45">
         <v>0</v>
@@ -6362,7 +6362,7 @@
         <v>1750</v>
       </c>
       <c r="P46">
-        <v>800</v>
+        <v>350</v>
       </c>
       <c r="Q46">
         <v>0</v>
@@ -6463,7 +6463,7 @@
         <v>1800</v>
       </c>
       <c r="P47">
-        <v>800</v>
+        <v>350</v>
       </c>
       <c r="Q47">
         <v>0</v>
@@ -6564,7 +6564,7 @@
         <v>1850</v>
       </c>
       <c r="P48">
-        <v>800</v>
+        <v>350</v>
       </c>
       <c r="Q48">
         <v>0</v>
@@ -6665,7 +6665,7 @@
         <v>1900</v>
       </c>
       <c r="P49">
-        <v>800</v>
+        <v>350</v>
       </c>
       <c r="Q49">
         <v>0</v>
@@ -6766,7 +6766,7 @@
         <v>1950</v>
       </c>
       <c r="P50">
-        <v>800</v>
+        <v>350</v>
       </c>
       <c r="Q50">
         <v>0</v>
@@ -6867,7 +6867,7 @@
         <v>2000</v>
       </c>
       <c r="P51">
-        <v>800</v>
+        <v>350</v>
       </c>
       <c r="Q51">
         <v>0</v>
@@ -6968,7 +6968,7 @@
         <v>2050</v>
       </c>
       <c r="P52">
-        <v>800</v>
+        <v>350</v>
       </c>
       <c r="Q52">
         <v>0</v>
@@ -7069,7 +7069,7 @@
         <v>2100</v>
       </c>
       <c r="P53">
-        <v>800</v>
+        <v>350</v>
       </c>
       <c r="Q53">
         <v>0</v>
@@ -7170,7 +7170,7 @@
         <v>2150</v>
       </c>
       <c r="P54">
-        <v>800</v>
+        <v>350</v>
       </c>
       <c r="Q54">
         <v>0</v>
@@ -7271,7 +7271,7 @@
         <v>2200</v>
       </c>
       <c r="P55">
-        <v>800</v>
+        <v>350</v>
       </c>
       <c r="Q55">
         <v>0</v>
@@ -7372,7 +7372,7 @@
         <v>2250</v>
       </c>
       <c r="P56">
-        <v>800</v>
+        <v>350</v>
       </c>
       <c r="Q56">
         <v>0</v>
@@ -7473,7 +7473,7 @@
         <v>2300</v>
       </c>
       <c r="P57">
-        <v>800</v>
+        <v>350</v>
       </c>
       <c r="Q57">
         <v>0</v>
@@ -7574,7 +7574,7 @@
         <v>2350</v>
       </c>
       <c r="P58">
-        <v>800</v>
+        <v>350</v>
       </c>
       <c r="Q58">
         <v>0</v>
@@ -7675,7 +7675,7 @@
         <v>2400</v>
       </c>
       <c r="P59">
-        <v>800</v>
+        <v>350</v>
       </c>
       <c r="Q59">
         <v>0</v>
@@ -7776,7 +7776,7 @@
         <v>2450</v>
       </c>
       <c r="P60">
-        <v>800</v>
+        <v>350</v>
       </c>
       <c r="Q60">
         <v>0</v>
@@ -7877,7 +7877,7 @@
         <v>2500</v>
       </c>
       <c r="P61">
-        <v>800</v>
+        <v>350</v>
       </c>
       <c r="Q61">
         <v>0</v>
@@ -7978,7 +7978,7 @@
         <v>2550</v>
       </c>
       <c r="P62">
-        <v>800</v>
+        <v>350</v>
       </c>
       <c r="Q62">
         <v>0</v>
@@ -8079,7 +8079,7 @@
         <v>2600</v>
       </c>
       <c r="P63">
-        <v>800</v>
+        <v>350</v>
       </c>
       <c r="Q63">
         <v>0</v>
@@ -8180,7 +8180,7 @@
         <v>2650</v>
       </c>
       <c r="P64">
-        <v>800</v>
+        <v>350</v>
       </c>
       <c r="Q64">
         <v>0</v>
@@ -8281,7 +8281,7 @@
         <v>2700</v>
       </c>
       <c r="P65">
-        <v>800</v>
+        <v>350</v>
       </c>
       <c r="Q65">
         <v>0</v>
@@ -8382,7 +8382,7 @@
         <v>2750</v>
       </c>
       <c r="P66">
-        <v>800</v>
+        <v>350</v>
       </c>
       <c r="Q66">
         <v>0</v>
@@ -8483,7 +8483,7 @@
         <v>2800</v>
       </c>
       <c r="P67">
-        <v>800</v>
+        <v>350</v>
       </c>
       <c r="Q67">
         <v>0</v>
@@ -8584,7 +8584,7 @@
         <v>2850</v>
       </c>
       <c r="P68">
-        <v>800</v>
+        <v>350</v>
       </c>
       <c r="Q68">
         <v>0</v>
@@ -8685,7 +8685,7 @@
         <v>2900</v>
       </c>
       <c r="P69">
-        <v>800</v>
+        <v>350</v>
       </c>
       <c r="Q69">
         <v>0</v>
@@ -8786,7 +8786,7 @@
         <v>2950</v>
       </c>
       <c r="P70">
-        <v>800</v>
+        <v>350</v>
       </c>
       <c r="Q70">
         <v>0</v>
@@ -8887,7 +8887,7 @@
         <v>3000</v>
       </c>
       <c r="P71">
-        <v>800</v>
+        <v>350</v>
       </c>
       <c r="Q71">
         <v>0</v>
@@ -8988,7 +8988,7 @@
         <v>3050</v>
       </c>
       <c r="P72">
-        <v>800</v>
+        <v>350</v>
       </c>
       <c r="Q72">
         <v>0</v>
@@ -9089,7 +9089,7 @@
         <v>3100</v>
       </c>
       <c r="P73">
-        <v>800</v>
+        <v>350</v>
       </c>
       <c r="Q73">
         <v>0</v>
@@ -9190,7 +9190,7 @@
         <v>3150</v>
       </c>
       <c r="P74">
-        <v>800</v>
+        <v>350</v>
       </c>
       <c r="Q74">
         <v>0</v>
@@ -9291,7 +9291,7 @@
         <v>3200</v>
       </c>
       <c r="P75">
-        <v>800</v>
+        <v>350</v>
       </c>
       <c r="Q75">
         <v>0</v>
@@ -9392,7 +9392,7 @@
         <v>3250</v>
       </c>
       <c r="P76">
-        <v>800</v>
+        <v>350</v>
       </c>
       <c r="Q76">
         <v>0</v>
@@ -9493,7 +9493,7 @@
         <v>3300</v>
       </c>
       <c r="P77">
-        <v>800</v>
+        <v>350</v>
       </c>
       <c r="Q77">
         <v>0</v>
@@ -9594,7 +9594,7 @@
         <v>3350</v>
       </c>
       <c r="P78">
-        <v>800</v>
+        <v>350</v>
       </c>
       <c r="Q78">
         <v>0</v>
@@ -9695,7 +9695,7 @@
         <v>3400</v>
       </c>
       <c r="P79">
-        <v>800</v>
+        <v>350</v>
       </c>
       <c r="Q79">
         <v>0</v>
@@ -9796,7 +9796,7 @@
         <v>3450</v>
       </c>
       <c r="P80">
-        <v>800</v>
+        <v>350</v>
       </c>
       <c r="Q80">
         <v>0</v>
@@ -9897,7 +9897,7 @@
         <v>3500</v>
       </c>
       <c r="P81">
-        <v>800</v>
+        <v>350</v>
       </c>
       <c r="Q81">
         <v>0</v>
@@ -9998,7 +9998,7 @@
         <v>3550</v>
       </c>
       <c r="P82">
-        <v>800</v>
+        <v>350</v>
       </c>
       <c r="Q82">
         <v>0</v>
@@ -10099,7 +10099,7 @@
         <v>3600</v>
       </c>
       <c r="P83">
-        <v>800</v>
+        <v>350</v>
       </c>
       <c r="Q83">
         <v>0</v>
@@ -10200,7 +10200,7 @@
         <v>3650</v>
       </c>
       <c r="P84">
-        <v>800</v>
+        <v>350</v>
       </c>
       <c r="Q84">
         <v>0</v>
@@ -10301,7 +10301,7 @@
         <v>3700</v>
       </c>
       <c r="P85">
-        <v>800</v>
+        <v>350</v>
       </c>
       <c r="Q85">
         <v>0</v>
@@ -10402,7 +10402,7 @@
         <v>3750</v>
       </c>
       <c r="P86">
-        <v>800</v>
+        <v>350</v>
       </c>
       <c r="Q86">
         <v>0</v>
@@ -10503,7 +10503,7 @@
         <v>3800</v>
       </c>
       <c r="P87">
-        <v>800</v>
+        <v>350</v>
       </c>
       <c r="Q87">
         <v>0</v>
@@ -10604,7 +10604,7 @@
         <v>3850</v>
       </c>
       <c r="P88">
-        <v>800</v>
+        <v>350</v>
       </c>
       <c r="Q88">
         <v>0</v>
@@ -10705,7 +10705,7 @@
         <v>3900</v>
       </c>
       <c r="P89">
-        <v>800</v>
+        <v>350</v>
       </c>
       <c r="Q89">
         <v>0</v>
@@ -10806,7 +10806,7 @@
         <v>3950</v>
       </c>
       <c r="P90">
-        <v>800</v>
+        <v>350</v>
       </c>
       <c r="Q90">
         <v>0</v>
@@ -10907,7 +10907,7 @@
         <v>4000</v>
       </c>
       <c r="P91">
-        <v>800</v>
+        <v>350</v>
       </c>
       <c r="Q91">
         <v>0</v>
@@ -11008,7 +11008,7 @@
         <v>4050</v>
       </c>
       <c r="P92">
-        <v>800</v>
+        <v>350</v>
       </c>
       <c r="Q92">
         <v>0</v>
@@ -11109,7 +11109,7 @@
         <v>4100</v>
       </c>
       <c r="P93">
-        <v>800</v>
+        <v>350</v>
       </c>
       <c r="Q93">
         <v>0</v>
@@ -11210,7 +11210,7 @@
         <v>4150</v>
       </c>
       <c r="P94">
-        <v>800</v>
+        <v>350</v>
       </c>
       <c r="Q94">
         <v>0</v>
@@ -11311,7 +11311,7 @@
         <v>4200</v>
       </c>
       <c r="P95">
-        <v>800</v>
+        <v>350</v>
       </c>
       <c r="Q95">
         <v>0</v>
@@ -11412,7 +11412,7 @@
         <v>4250</v>
       </c>
       <c r="P96">
-        <v>800</v>
+        <v>350</v>
       </c>
       <c r="Q96">
         <v>0</v>
@@ -11513,7 +11513,7 @@
         <v>4300</v>
       </c>
       <c r="P97">
-        <v>800</v>
+        <v>350</v>
       </c>
       <c r="Q97">
         <v>0</v>
@@ -11614,7 +11614,7 @@
         <v>4350</v>
       </c>
       <c r="P98">
-        <v>800</v>
+        <v>350</v>
       </c>
       <c r="Q98">
         <v>0</v>
@@ -11715,7 +11715,7 @@
         <v>4400</v>
       </c>
       <c r="P99">
-        <v>800</v>
+        <v>350</v>
       </c>
       <c r="Q99">
         <v>0</v>
@@ -11816,7 +11816,7 @@
         <v>4450</v>
       </c>
       <c r="P100">
-        <v>800</v>
+        <v>350</v>
       </c>
       <c r="Q100">
         <v>0</v>
@@ -11917,7 +11917,7 @@
         <v>4500</v>
       </c>
       <c r="P101">
-        <v>800</v>
+        <v>350</v>
       </c>
       <c r="Q101">
         <v>0</v>
@@ -12018,7 +12018,7 @@
         <v>4550</v>
       </c>
       <c r="P102">
-        <v>800</v>
+        <v>350</v>
       </c>
       <c r="Q102">
         <v>0</v>
@@ -12119,7 +12119,7 @@
         <v>4600</v>
       </c>
       <c r="P103">
-        <v>800</v>
+        <v>350</v>
       </c>
       <c r="Q103">
         <v>0</v>
@@ -12220,7 +12220,7 @@
         <v>4650</v>
       </c>
       <c r="P104">
-        <v>800</v>
+        <v>350</v>
       </c>
       <c r="Q104">
         <v>0</v>
@@ -12321,7 +12321,7 @@
         <v>4700</v>
       </c>
       <c r="P105">
-        <v>800</v>
+        <v>350</v>
       </c>
       <c r="Q105">
         <v>0</v>
@@ -12422,7 +12422,7 @@
         <v>4750</v>
       </c>
       <c r="P106">
-        <v>800</v>
+        <v>350</v>
       </c>
       <c r="Q106">
         <v>0</v>
@@ -12523,7 +12523,7 @@
         <v>4800</v>
       </c>
       <c r="P107">
-        <v>800</v>
+        <v>350</v>
       </c>
       <c r="Q107">
         <v>0</v>
@@ -12624,7 +12624,7 @@
         <v>4850</v>
       </c>
       <c r="P108">
-        <v>800</v>
+        <v>350</v>
       </c>
       <c r="Q108">
         <v>0</v>
@@ -12725,7 +12725,7 @@
         <v>4900</v>
       </c>
       <c r="P109">
-        <v>800</v>
+        <v>350</v>
       </c>
       <c r="Q109">
         <v>0</v>
@@ -12826,7 +12826,7 @@
         <v>4950</v>
       </c>
       <c r="P110">
-        <v>800</v>
+        <v>350</v>
       </c>
       <c r="Q110">
         <v>0</v>

--- a/_Out/NFDataCfg/Excel/EffectData.xlsx
+++ b/_Out/NFDataCfg/Excel/EffectData.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21495" windowHeight="10335"/>
+    <workbookView windowHeight="23360" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Property1" sheetId="1" r:id="rId1"/>
+    <sheet name="Record_CommValue" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
@@ -16,8 +17,114 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>pengbo.yang</author>
+  </authors>
+  <commentList>
+    <comment ref="D11" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="SimSun"/>
+            <charset val="134"/>
+          </rPr>
+          <t>物品配置ID</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E11" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="SimSun"/>
+            <charset val="134"/>
+          </rPr>
+          <t>强化等级</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F11" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="SimSun"/>
+            <charset val="134"/>
+          </rPr>
+          <t>镶嵌宝石，逗号分隔</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G11" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="SimSun"/>
+            <charset val="134"/>
+          </rPr>
+          <t>附魔等级</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H11" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="SimSun"/>
+            <charset val="134"/>
+          </rPr>
+          <t>物品配置ID</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I11" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="SimSun"/>
+            <charset val="134"/>
+          </rPr>
+          <t>强化等级</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J11" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="SimSun"/>
+            <charset val="134"/>
+          </rPr>
+          <t>镶嵌宝石，逗号分隔</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K11" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="SimSun"/>
+            <charset val="134"/>
+          </rPr>
+          <t>附魔等级</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184">
   <si>
     <t>Id</t>
   </si>
@@ -557,6 +664,37 @@
   </si>
   <si>
     <t>PlayerAtt100</t>
+  </si>
+  <si>
+    <t>CommValue</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>Col</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>U</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>pload</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -564,12 +702,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -587,33 +725,21 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -627,6 +753,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
@@ -634,60 +768,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -703,9 +783,53 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -720,29 +844,51 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -763,13 +909,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399914548173467"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -787,7 +969,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -799,13 +993,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -817,91 +1011,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -919,7 +1029,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -931,7 +1065,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -943,7 +1101,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -969,7 +1127,7 @@
       <right style="thin">
         <color auto="1"/>
       </right>
-      <top style="medium">
+      <top style="thin">
         <color auto="1"/>
       </top>
       <bottom style="thin">
@@ -984,7 +1142,7 @@
       <right style="thin">
         <color auto="1"/>
       </right>
-      <top style="thin">
+      <top style="medium">
         <color auto="1"/>
       </top>
       <bottom style="thin">
@@ -1081,6 +1239,17 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
@@ -1093,41 +1262,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1162,6 +1296,30 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1181,159 +1339,180 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="179" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1345,43 +1524,40 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1390,54 +1566,54 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
-    <cellStyle name="Comma" xfId="2" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
-    <cellStyle name="Currency" xfId="5" builtinId="4"/>
-    <cellStyle name="Percent" xfId="6" builtinId="5"/>
-    <cellStyle name="Check Cell" xfId="7" builtinId="23"/>
-    <cellStyle name="Heading 2" xfId="8" builtinId="17"/>
-    <cellStyle name="Note" xfId="9" builtinId="10"/>
-    <cellStyle name="Hyperlink" xfId="10" builtinId="8"/>
-    <cellStyle name="60% - Accent4" xfId="11" builtinId="44"/>
-    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9"/>
-    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
+    <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
+    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
+    <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="4" builtinId="49"/>
+    <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
+    <cellStyle name="20% - Accent5" xfId="6" builtinId="46"/>
+    <cellStyle name="60% - Accent4" xfId="7" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="8" builtinId="45"/>
+    <cellStyle name="40% - Accent4" xfId="9" builtinId="43"/>
+    <cellStyle name="Accent4" xfId="10" builtinId="41"/>
+    <cellStyle name="Linked Cell" xfId="11" builtinId="24"/>
+    <cellStyle name="40% - Accent3" xfId="12" builtinId="39"/>
+    <cellStyle name="60% - Accent2" xfId="13" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="14" builtinId="37"/>
     <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="Title" xfId="16" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
-    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
-    <cellStyle name="Input" xfId="21" builtinId="20"/>
-    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
-    <cellStyle name="Good" xfId="23" builtinId="26"/>
-    <cellStyle name="Output" xfId="24" builtinId="21"/>
-    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
-    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
-    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
-    <cellStyle name="Total" xfId="28" builtinId="25"/>
-    <cellStyle name="Bad" xfId="29" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
-    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
-    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
-    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
-    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
-    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
-    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
+    <cellStyle name="20% - Accent2" xfId="16" builtinId="34"/>
+    <cellStyle name="Accent2" xfId="17" builtinId="33"/>
+    <cellStyle name="40% - Accent1" xfId="18" builtinId="31"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30"/>
+    <cellStyle name="Accent1" xfId="20" builtinId="29"/>
+    <cellStyle name="Neutral" xfId="21" builtinId="28"/>
+    <cellStyle name="60% - Accent1" xfId="22" builtinId="32"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="20% - Accent4" xfId="24" builtinId="42"/>
+    <cellStyle name="Total" xfId="25" builtinId="25"/>
+    <cellStyle name="Output" xfId="26" builtinId="21"/>
+    <cellStyle name="Currency" xfId="27" builtinId="4"/>
+    <cellStyle name="20% - Accent3" xfId="28" builtinId="38"/>
+    <cellStyle name="Note" xfId="29" builtinId="10"/>
+    <cellStyle name="Input" xfId="30" builtinId="20"/>
+    <cellStyle name="Heading 4" xfId="31" builtinId="19"/>
+    <cellStyle name="Calculation" xfId="32" builtinId="22"/>
+    <cellStyle name="Good" xfId="33" builtinId="26"/>
+    <cellStyle name="Heading 3" xfId="34" builtinId="18"/>
+    <cellStyle name="CExplanatory Text" xfId="35" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="36" builtinId="16"/>
+    <cellStyle name="Comma [0]" xfId="37" builtinId="6"/>
+    <cellStyle name="20% - Accent6" xfId="38" builtinId="50"/>
+    <cellStyle name="Title" xfId="39" builtinId="15"/>
+    <cellStyle name="Currency [0]" xfId="40" builtinId="7"/>
+    <cellStyle name="Warning Text" xfId="41" builtinId="11"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9"/>
+    <cellStyle name="Heading 2" xfId="43" builtinId="17"/>
+    <cellStyle name="Comma" xfId="44" builtinId="3"/>
+    <cellStyle name="Check Cell" xfId="45" builtinId="23"/>
+    <cellStyle name="60% - Accent3" xfId="46" builtinId="40"/>
+    <cellStyle name="Percent" xfId="47" builtinId="5"/>
+    <cellStyle name="Hyperlink" xfId="48" builtinId="8"/>
   </cellStyles>
   <dxfs count="1">
     <dxf>
@@ -1791,1136 +1967,1136 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:AJ110"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="10" topLeftCell="Z11" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="10" topLeftCell="B25" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
       <selection pane="bottomRight" activeCell="AD11" sqref="AD11:AD110"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
   <cols>
-    <col min="1" max="1" width="24.3083333333333" customWidth="1"/>
-    <col min="2" max="4" width="11.6666666666667" customWidth="1"/>
-    <col min="5" max="5" width="16.3333333333333" customWidth="1"/>
-    <col min="6" max="7" width="9.33333333333333" customWidth="1"/>
-    <col min="8" max="10" width="11.6666666666667" customWidth="1"/>
+    <col min="1" max="1" width="24.3076923076923" customWidth="1"/>
+    <col min="2" max="4" width="11.6634615384615" customWidth="1"/>
+    <col min="5" max="5" width="16.3365384615385" customWidth="1"/>
+    <col min="6" max="7" width="9.33653846153846" customWidth="1"/>
+    <col min="8" max="10" width="11.6634615384615" customWidth="1"/>
     <col min="11" max="12" width="14" customWidth="1"/>
-    <col min="13" max="13" width="15.3333333333333" customWidth="1"/>
+    <col min="13" max="13" width="15.3365384615385" customWidth="1"/>
     <col min="14" max="14" width="14" customWidth="1"/>
-    <col min="15" max="29" width="16.5333333333333" customWidth="1"/>
-    <col min="31" max="31" width="16.5333333333333" customWidth="1"/>
-    <col min="32" max="32" width="10.3333333333333" customWidth="1"/>
+    <col min="15" max="29" width="16.5288461538462" customWidth="1"/>
+    <col min="31" max="31" width="16.5288461538462" customWidth="1"/>
+    <col min="32" max="32" width="10.3365384615385" customWidth="1"/>
     <col min="33" max="33" width="13" customWidth="1"/>
-    <col min="34" max="34" width="12.1333333333333" customWidth="1"/>
-    <col min="35" max="36" width="15.7333333333333" customWidth="1"/>
+    <col min="34" max="34" width="12.1346153846154" customWidth="1"/>
+    <col min="35" max="36" width="15.7307692307692" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="27" spans="1:36">
-      <c r="A1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="6" t="s">
+    <row r="1" s="8" customFormat="1" ht="34" spans="1:36">
+      <c r="A1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="I1" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="J1" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="K1" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="7" t="s">
+      <c r="L1" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="7" t="s">
+      <c r="M1" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="7" t="s">
+      <c r="N1" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="7" t="s">
+      <c r="O1" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="7" t="s">
+      <c r="P1" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="7" t="s">
+      <c r="Q1" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="7" t="s">
+      <c r="R1" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="7" t="s">
+      <c r="S1" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="7" t="s">
+      <c r="T1" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="7" t="s">
+      <c r="U1" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="7" t="s">
+      <c r="V1" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="7" t="s">
+      <c r="W1" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="7" t="s">
+      <c r="X1" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="7" t="s">
+      <c r="Y1" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="7" t="s">
+      <c r="Z1" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="7" t="s">
+      <c r="AA1" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="7" t="s">
+      <c r="AB1" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="7" t="s">
+      <c r="AC1" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="17" t="s">
+      <c r="AD1" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="7" t="s">
+      <c r="AE1" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="7" t="s">
+      <c r="AF1" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="7" t="s">
+      <c r="AG1" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" s="7" t="s">
+      <c r="AH1" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" s="7" t="s">
+      <c r="AI1" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" s="7" t="s">
+      <c r="AJ1" s="21" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="2" s="2" customFormat="1" spans="1:36">
-      <c r="A2" s="8" t="s">
+    <row r="2" s="9" customFormat="1" ht="17" spans="1:36">
+      <c r="A2" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="F2" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="G2" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="H2" s="10" t="s">
+      <c r="H2" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="I2" s="10" t="s">
+      <c r="I2" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="J2" s="10" t="s">
+      <c r="J2" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="K2" s="10" t="s">
+      <c r="K2" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="L2" s="10" t="s">
+      <c r="L2" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="M2" s="10" t="s">
+      <c r="M2" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="N2" s="10" t="s">
+      <c r="N2" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="O2" s="10" t="s">
+      <c r="O2" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="P2" s="10" t="s">
+      <c r="P2" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="Q2" s="10" t="s">
+      <c r="Q2" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="R2" s="10" t="s">
+      <c r="R2" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="S2" s="10" t="s">
+      <c r="S2" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="T2" s="10" t="s">
+      <c r="T2" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="U2" s="10" t="s">
+      <c r="U2" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="V2" s="10" t="s">
+      <c r="V2" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="W2" s="10" t="s">
+      <c r="W2" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="X2" s="10" t="s">
+      <c r="X2" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="Y2" s="10" t="s">
+      <c r="Y2" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="Z2" s="10" t="s">
+      <c r="Z2" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="AA2" s="10" t="s">
+      <c r="AA2" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="AB2" s="10" t="s">
+      <c r="AB2" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="AC2" s="10" t="s">
+      <c r="AC2" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="AD2" s="18" t="s">
+      <c r="AD2" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="AE2" s="10" t="s">
+      <c r="AE2" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="AF2" s="10" t="s">
+      <c r="AF2" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="AG2" s="10" t="s">
+      <c r="AG2" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="AH2" s="10" t="s">
+      <c r="AH2" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="AI2" s="10" t="s">
+      <c r="AI2" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="AJ2" s="10" t="s">
+      <c r="AJ2" s="2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="3" s="2" customFormat="1" spans="1:36">
-      <c r="A3" s="8" t="s">
+    <row r="3" s="9" customFormat="1" spans="1:36">
+      <c r="A3" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="9">
+      <c r="B3" s="15">
         <v>1</v>
       </c>
-      <c r="C3" s="9">
+      <c r="C3" s="15">
         <v>1</v>
       </c>
-      <c r="D3" s="9">
+      <c r="D3" s="15">
         <v>1</v>
       </c>
-      <c r="E3" s="10">
+      <c r="E3" s="2">
         <v>1</v>
       </c>
-      <c r="F3" s="10">
+      <c r="F3" s="2">
         <v>1</v>
       </c>
-      <c r="G3" s="10">
+      <c r="G3" s="2">
         <v>1</v>
       </c>
-      <c r="H3" s="10">
+      <c r="H3" s="2">
         <v>1</v>
       </c>
-      <c r="I3" s="10">
+      <c r="I3" s="2">
         <v>1</v>
       </c>
-      <c r="J3" s="10">
+      <c r="J3" s="2">
         <v>1</v>
       </c>
-      <c r="K3" s="10">
+      <c r="K3" s="2">
         <v>1</v>
       </c>
-      <c r="L3" s="10">
+      <c r="L3" s="2">
         <v>1</v>
       </c>
-      <c r="M3" s="10">
+      <c r="M3" s="2">
         <v>1</v>
       </c>
-      <c r="N3" s="10">
+      <c r="N3" s="2">
         <v>1</v>
       </c>
-      <c r="O3" s="10">
+      <c r="O3" s="2">
         <v>1</v>
       </c>
-      <c r="P3" s="10">
+      <c r="P3" s="2">
         <v>1</v>
       </c>
-      <c r="Q3" s="10">
+      <c r="Q3" s="2">
         <v>1</v>
       </c>
-      <c r="R3" s="10">
+      <c r="R3" s="2">
         <v>1</v>
       </c>
-      <c r="S3" s="10">
+      <c r="S3" s="2">
         <v>1</v>
       </c>
-      <c r="T3" s="10">
+      <c r="T3" s="2">
         <v>1</v>
       </c>
-      <c r="U3" s="10">
+      <c r="U3" s="2">
         <v>1</v>
       </c>
-      <c r="V3" s="10">
+      <c r="V3" s="2">
         <v>1</v>
       </c>
-      <c r="W3" s="10">
+      <c r="W3" s="2">
         <v>1</v>
       </c>
-      <c r="X3" s="10">
+      <c r="X3" s="2">
         <v>1</v>
       </c>
-      <c r="Y3" s="10">
+      <c r="Y3" s="2">
         <v>1</v>
       </c>
-      <c r="Z3" s="10">
+      <c r="Z3" s="2">
         <v>1</v>
       </c>
-      <c r="AA3" s="10">
+      <c r="AA3" s="2">
         <v>1</v>
       </c>
-      <c r="AB3" s="10">
+      <c r="AB3" s="2">
         <v>1</v>
       </c>
-      <c r="AC3" s="10">
+      <c r="AC3" s="2">
         <v>1</v>
       </c>
-      <c r="AD3" s="18">
+      <c r="AD3" s="24">
         <v>1</v>
       </c>
-      <c r="AE3" s="10">
+      <c r="AE3" s="2">
         <v>1</v>
       </c>
-      <c r="AF3" s="10">
+      <c r="AF3" s="2">
         <v>1</v>
       </c>
-      <c r="AG3" s="10">
+      <c r="AG3" s="2">
         <v>1</v>
       </c>
-      <c r="AH3" s="10">
+      <c r="AH3" s="2">
         <v>1</v>
       </c>
-      <c r="AI3" s="10">
+      <c r="AI3" s="2">
         <v>1</v>
       </c>
-      <c r="AJ3" s="10">
+      <c r="AJ3" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="4" s="2" customFormat="1" spans="1:36">
-      <c r="A4" s="8" t="s">
+    <row r="4" s="9" customFormat="1" spans="1:36">
+      <c r="A4" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="B4" s="9">
+      <c r="B4" s="15">
         <v>1</v>
       </c>
-      <c r="C4" s="9">
+      <c r="C4" s="15">
         <v>1</v>
       </c>
-      <c r="D4" s="9">
+      <c r="D4" s="15">
         <v>1</v>
       </c>
-      <c r="E4" s="10">
+      <c r="E4" s="2">
         <v>1</v>
       </c>
-      <c r="F4" s="10">
+      <c r="F4" s="2">
         <v>1</v>
       </c>
-      <c r="G4" s="10">
+      <c r="G4" s="2">
         <v>1</v>
       </c>
-      <c r="H4" s="10">
+      <c r="H4" s="2">
         <v>1</v>
       </c>
-      <c r="I4" s="10">
+      <c r="I4" s="2">
         <v>1</v>
       </c>
-      <c r="J4" s="10">
+      <c r="J4" s="2">
         <v>1</v>
       </c>
-      <c r="K4" s="10">
+      <c r="K4" s="2">
         <v>1</v>
       </c>
-      <c r="L4" s="10">
+      <c r="L4" s="2">
         <v>1</v>
       </c>
-      <c r="M4" s="10">
+      <c r="M4" s="2">
         <v>1</v>
       </c>
-      <c r="N4" s="10">
+      <c r="N4" s="2">
         <v>1</v>
       </c>
-      <c r="O4" s="10">
+      <c r="O4" s="2">
         <v>1</v>
       </c>
-      <c r="P4" s="10">
+      <c r="P4" s="2">
         <v>1</v>
       </c>
-      <c r="Q4" s="10">
+      <c r="Q4" s="2">
         <v>1</v>
       </c>
-      <c r="R4" s="10">
+      <c r="R4" s="2">
         <v>1</v>
       </c>
-      <c r="S4" s="10">
+      <c r="S4" s="2">
         <v>1</v>
       </c>
-      <c r="T4" s="10">
+      <c r="T4" s="2">
         <v>1</v>
       </c>
-      <c r="U4" s="10">
+      <c r="U4" s="2">
         <v>1</v>
       </c>
-      <c r="V4" s="10">
+      <c r="V4" s="2">
         <v>1</v>
       </c>
-      <c r="W4" s="10">
+      <c r="W4" s="2">
         <v>1</v>
       </c>
-      <c r="X4" s="10">
+      <c r="X4" s="2">
         <v>1</v>
       </c>
-      <c r="Y4" s="10">
+      <c r="Y4" s="2">
         <v>1</v>
       </c>
-      <c r="Z4" s="10">
+      <c r="Z4" s="2">
         <v>1</v>
       </c>
-      <c r="AA4" s="10">
+      <c r="AA4" s="2">
         <v>1</v>
       </c>
-      <c r="AB4" s="10">
+      <c r="AB4" s="2">
         <v>1</v>
       </c>
-      <c r="AC4" s="10">
+      <c r="AC4" s="2">
         <v>1</v>
       </c>
-      <c r="AD4" s="18">
+      <c r="AD4" s="24">
         <v>1</v>
       </c>
-      <c r="AE4" s="10">
+      <c r="AE4" s="2">
         <v>1</v>
       </c>
-      <c r="AF4" s="10">
+      <c r="AF4" s="2">
         <v>1</v>
       </c>
-      <c r="AG4" s="10">
+      <c r="AG4" s="2">
         <v>1</v>
       </c>
-      <c r="AH4" s="10">
+      <c r="AH4" s="2">
         <v>1</v>
       </c>
-      <c r="AI4" s="10">
+      <c r="AI4" s="2">
         <v>1</v>
       </c>
-      <c r="AJ4" s="10">
+      <c r="AJ4" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="5" s="2" customFormat="1" spans="1:36">
-      <c r="A5" s="8" t="s">
+    <row r="5" s="9" customFormat="1" spans="1:36">
+      <c r="A5" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="B5" s="9">
-        <v>0</v>
-      </c>
-      <c r="C5" s="9">
-        <v>0</v>
-      </c>
-      <c r="D5" s="9">
-        <v>0</v>
-      </c>
-      <c r="E5" s="10">
-        <v>0</v>
-      </c>
-      <c r="F5" s="10">
-        <v>0</v>
-      </c>
-      <c r="G5" s="10">
-        <v>0</v>
-      </c>
-      <c r="H5" s="10">
-        <v>0</v>
-      </c>
-      <c r="I5" s="10">
-        <v>0</v>
-      </c>
-      <c r="J5" s="10">
-        <v>0</v>
-      </c>
-      <c r="K5" s="10">
-        <v>0</v>
-      </c>
-      <c r="L5" s="10">
-        <v>0</v>
-      </c>
-      <c r="M5" s="10">
-        <v>0</v>
-      </c>
-      <c r="N5" s="10">
-        <v>0</v>
-      </c>
-      <c r="O5" s="10">
-        <v>0</v>
-      </c>
-      <c r="P5" s="10">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="10">
-        <v>0</v>
-      </c>
-      <c r="R5" s="10">
-        <v>0</v>
-      </c>
-      <c r="S5" s="10">
-        <v>0</v>
-      </c>
-      <c r="T5" s="10">
-        <v>0</v>
-      </c>
-      <c r="U5" s="10">
-        <v>0</v>
-      </c>
-      <c r="V5" s="10">
-        <v>0</v>
-      </c>
-      <c r="W5" s="10">
-        <v>0</v>
-      </c>
-      <c r="X5" s="10">
-        <v>0</v>
-      </c>
-      <c r="Y5" s="10">
-        <v>0</v>
-      </c>
-      <c r="Z5" s="10">
-        <v>0</v>
-      </c>
-      <c r="AA5" s="10">
-        <v>0</v>
-      </c>
-      <c r="AB5" s="10">
-        <v>0</v>
-      </c>
-      <c r="AC5" s="10">
-        <v>0</v>
-      </c>
-      <c r="AD5" s="18">
-        <v>0</v>
-      </c>
-      <c r="AE5" s="10">
-        <v>0</v>
-      </c>
-      <c r="AF5" s="10">
-        <v>0</v>
-      </c>
-      <c r="AG5" s="10">
-        <v>0</v>
-      </c>
-      <c r="AH5" s="10">
-        <v>0</v>
-      </c>
-      <c r="AI5" s="10">
-        <v>0</v>
-      </c>
-      <c r="AJ5" s="10">
+      <c r="B5" s="15">
+        <v>0</v>
+      </c>
+      <c r="C5" s="15">
+        <v>0</v>
+      </c>
+      <c r="D5" s="15">
+        <v>0</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0</v>
+      </c>
+      <c r="F5" s="2">
+        <v>0</v>
+      </c>
+      <c r="G5" s="2">
+        <v>0</v>
+      </c>
+      <c r="H5" s="2">
+        <v>0</v>
+      </c>
+      <c r="I5" s="2">
+        <v>0</v>
+      </c>
+      <c r="J5" s="2">
+        <v>0</v>
+      </c>
+      <c r="K5" s="2">
+        <v>0</v>
+      </c>
+      <c r="L5" s="2">
+        <v>0</v>
+      </c>
+      <c r="M5" s="2">
+        <v>0</v>
+      </c>
+      <c r="N5" s="2">
+        <v>0</v>
+      </c>
+      <c r="O5" s="2">
+        <v>0</v>
+      </c>
+      <c r="P5" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>0</v>
+      </c>
+      <c r="R5" s="2">
+        <v>0</v>
+      </c>
+      <c r="S5" s="2">
+        <v>0</v>
+      </c>
+      <c r="T5" s="2">
+        <v>0</v>
+      </c>
+      <c r="U5" s="2">
+        <v>0</v>
+      </c>
+      <c r="V5" s="2">
+        <v>0</v>
+      </c>
+      <c r="W5" s="2">
+        <v>0</v>
+      </c>
+      <c r="X5" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y5" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z5" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB5" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC5" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD5" s="24">
+        <v>0</v>
+      </c>
+      <c r="AE5" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF5" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG5" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH5" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI5" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ5" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="6" s="2" customFormat="1" spans="1:36">
-      <c r="A6" s="8" t="s">
+    <row r="6" s="9" customFormat="1" spans="1:36">
+      <c r="A6" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="B6" s="9">
-        <v>0</v>
-      </c>
-      <c r="C6" s="9">
-        <v>0</v>
-      </c>
-      <c r="D6" s="9">
-        <v>0</v>
-      </c>
-      <c r="E6" s="10">
-        <v>0</v>
-      </c>
-      <c r="F6" s="10">
-        <v>0</v>
-      </c>
-      <c r="G6" s="10">
-        <v>0</v>
-      </c>
-      <c r="H6" s="10">
-        <v>0</v>
-      </c>
-      <c r="I6" s="10">
-        <v>0</v>
-      </c>
-      <c r="J6" s="10">
-        <v>0</v>
-      </c>
-      <c r="K6" s="10">
-        <v>0</v>
-      </c>
-      <c r="L6" s="10">
-        <v>0</v>
-      </c>
-      <c r="M6" s="10">
-        <v>0</v>
-      </c>
-      <c r="N6" s="10">
-        <v>0</v>
-      </c>
-      <c r="O6" s="10">
-        <v>0</v>
-      </c>
-      <c r="P6" s="10">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="10">
-        <v>0</v>
-      </c>
-      <c r="R6" s="10">
-        <v>0</v>
-      </c>
-      <c r="S6" s="10">
-        <v>0</v>
-      </c>
-      <c r="T6" s="10">
-        <v>0</v>
-      </c>
-      <c r="U6" s="10">
-        <v>0</v>
-      </c>
-      <c r="V6" s="10">
-        <v>0</v>
-      </c>
-      <c r="W6" s="10">
-        <v>0</v>
-      </c>
-      <c r="X6" s="10">
-        <v>0</v>
-      </c>
-      <c r="Y6" s="10">
-        <v>0</v>
-      </c>
-      <c r="Z6" s="10">
-        <v>0</v>
-      </c>
-      <c r="AA6" s="10">
-        <v>0</v>
-      </c>
-      <c r="AB6" s="10">
-        <v>0</v>
-      </c>
-      <c r="AC6" s="10">
-        <v>0</v>
-      </c>
-      <c r="AD6" s="18">
-        <v>0</v>
-      </c>
-      <c r="AE6" s="10">
-        <v>0</v>
-      </c>
-      <c r="AF6" s="10">
-        <v>0</v>
-      </c>
-      <c r="AG6" s="10">
-        <v>0</v>
-      </c>
-      <c r="AH6" s="10">
-        <v>0</v>
-      </c>
-      <c r="AI6" s="10">
-        <v>0</v>
-      </c>
-      <c r="AJ6" s="10">
+      <c r="B6" s="15">
+        <v>0</v>
+      </c>
+      <c r="C6" s="15">
+        <v>0</v>
+      </c>
+      <c r="D6" s="15">
+        <v>0</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0</v>
+      </c>
+      <c r="F6" s="2">
+        <v>0</v>
+      </c>
+      <c r="G6" s="2">
+        <v>0</v>
+      </c>
+      <c r="H6" s="2">
+        <v>0</v>
+      </c>
+      <c r="I6" s="2">
+        <v>0</v>
+      </c>
+      <c r="J6" s="2">
+        <v>0</v>
+      </c>
+      <c r="K6" s="2">
+        <v>0</v>
+      </c>
+      <c r="L6" s="2">
+        <v>0</v>
+      </c>
+      <c r="M6" s="2">
+        <v>0</v>
+      </c>
+      <c r="N6" s="2">
+        <v>0</v>
+      </c>
+      <c r="O6" s="2">
+        <v>0</v>
+      </c>
+      <c r="P6" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>0</v>
+      </c>
+      <c r="R6" s="2">
+        <v>0</v>
+      </c>
+      <c r="S6" s="2">
+        <v>0</v>
+      </c>
+      <c r="T6" s="2">
+        <v>0</v>
+      </c>
+      <c r="U6" s="2">
+        <v>0</v>
+      </c>
+      <c r="V6" s="2">
+        <v>0</v>
+      </c>
+      <c r="W6" s="2">
+        <v>0</v>
+      </c>
+      <c r="X6" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y6" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z6" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB6" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC6" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD6" s="24">
+        <v>0</v>
+      </c>
+      <c r="AE6" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF6" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG6" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH6" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI6" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ6" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="7" s="3" customFormat="1" spans="1:36">
-      <c r="A7" s="11" t="s">
+    <row r="7" s="10" customFormat="1" ht="17" spans="1:36">
+      <c r="A7" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="B7" s="12">
-        <v>0</v>
-      </c>
-      <c r="C7" s="12">
-        <v>0</v>
-      </c>
-      <c r="D7" s="12">
-        <v>0</v>
-      </c>
-      <c r="E7" s="3">
-        <v>0</v>
-      </c>
-      <c r="F7" s="3">
-        <v>0</v>
-      </c>
-      <c r="G7" s="3">
-        <v>0</v>
-      </c>
-      <c r="H7" s="3">
-        <v>0</v>
-      </c>
-      <c r="I7" s="3">
-        <v>0</v>
-      </c>
-      <c r="J7" s="3">
-        <v>0</v>
-      </c>
-      <c r="K7" s="3">
-        <v>0</v>
-      </c>
-      <c r="L7" s="3">
-        <v>0</v>
-      </c>
-      <c r="M7" s="3">
-        <v>0</v>
-      </c>
-      <c r="N7" s="3">
-        <v>0</v>
-      </c>
-      <c r="O7" s="3">
-        <v>0</v>
-      </c>
-      <c r="P7" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="3">
-        <v>0</v>
-      </c>
-      <c r="R7" s="3">
-        <v>0</v>
-      </c>
-      <c r="S7" s="3">
-        <v>0</v>
-      </c>
-      <c r="T7" s="3">
-        <v>0</v>
-      </c>
-      <c r="U7" s="3">
-        <v>0</v>
-      </c>
-      <c r="V7" s="3">
-        <v>0</v>
-      </c>
-      <c r="W7" s="3">
-        <v>0</v>
-      </c>
-      <c r="X7" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y7" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z7" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA7" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB7" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC7" s="3">
-        <v>0</v>
-      </c>
-      <c r="AD7" s="3">
-        <v>0</v>
-      </c>
-      <c r="AE7" s="3">
-        <v>0</v>
-      </c>
-      <c r="AF7" s="3">
-        <v>0</v>
-      </c>
-      <c r="AG7" s="3">
-        <v>0</v>
-      </c>
-      <c r="AH7" s="3">
-        <v>0</v>
-      </c>
-      <c r="AI7" s="3">
-        <v>0</v>
-      </c>
-      <c r="AJ7" s="3">
+      <c r="B7" s="17">
+        <v>0</v>
+      </c>
+      <c r="C7" s="17">
+        <v>0</v>
+      </c>
+      <c r="D7" s="17">
+        <v>0</v>
+      </c>
+      <c r="E7" s="10">
+        <v>0</v>
+      </c>
+      <c r="F7" s="10">
+        <v>0</v>
+      </c>
+      <c r="G7" s="10">
+        <v>0</v>
+      </c>
+      <c r="H7" s="10">
+        <v>0</v>
+      </c>
+      <c r="I7" s="10">
+        <v>0</v>
+      </c>
+      <c r="J7" s="10">
+        <v>0</v>
+      </c>
+      <c r="K7" s="10">
+        <v>0</v>
+      </c>
+      <c r="L7" s="10">
+        <v>0</v>
+      </c>
+      <c r="M7" s="10">
+        <v>0</v>
+      </c>
+      <c r="N7" s="10">
+        <v>0</v>
+      </c>
+      <c r="O7" s="10">
+        <v>0</v>
+      </c>
+      <c r="P7" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="10">
+        <v>0</v>
+      </c>
+      <c r="R7" s="10">
+        <v>0</v>
+      </c>
+      <c r="S7" s="10">
+        <v>0</v>
+      </c>
+      <c r="T7" s="10">
+        <v>0</v>
+      </c>
+      <c r="U7" s="10">
+        <v>0</v>
+      </c>
+      <c r="V7" s="10">
+        <v>0</v>
+      </c>
+      <c r="W7" s="10">
+        <v>0</v>
+      </c>
+      <c r="X7" s="10">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA7" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB7" s="10">
+        <v>0</v>
+      </c>
+      <c r="AC7" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD7" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE7" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF7" s="10">
+        <v>0</v>
+      </c>
+      <c r="AG7" s="10">
+        <v>0</v>
+      </c>
+      <c r="AH7" s="10">
+        <v>0</v>
+      </c>
+      <c r="AI7" s="10">
+        <v>0</v>
+      </c>
+      <c r="AJ7" s="10">
         <v>0</v>
       </c>
     </row>
-    <row r="8" s="3" customFormat="1" spans="1:36">
-      <c r="A8" s="11" t="s">
+    <row r="8" s="10" customFormat="1" ht="17" spans="1:36">
+      <c r="A8" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="B8" s="12">
-        <v>0</v>
-      </c>
-      <c r="C8" s="12">
-        <v>0</v>
-      </c>
-      <c r="D8" s="12">
-        <v>0</v>
-      </c>
-      <c r="E8" s="3">
-        <v>0</v>
-      </c>
-      <c r="F8" s="3">
-        <v>0</v>
-      </c>
-      <c r="G8" s="3">
-        <v>0</v>
-      </c>
-      <c r="H8" s="3">
-        <v>0</v>
-      </c>
-      <c r="I8" s="3">
-        <v>0</v>
-      </c>
-      <c r="J8" s="3">
-        <v>0</v>
-      </c>
-      <c r="K8" s="3">
-        <v>0</v>
-      </c>
-      <c r="L8" s="3">
-        <v>0</v>
-      </c>
-      <c r="M8" s="3">
-        <v>0</v>
-      </c>
-      <c r="N8" s="3">
-        <v>0</v>
-      </c>
-      <c r="O8" s="3">
-        <v>0</v>
-      </c>
-      <c r="P8" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="3">
-        <v>0</v>
-      </c>
-      <c r="R8" s="3">
-        <v>0</v>
-      </c>
-      <c r="S8" s="3">
-        <v>0</v>
-      </c>
-      <c r="T8" s="3">
-        <v>0</v>
-      </c>
-      <c r="U8" s="3">
-        <v>0</v>
-      </c>
-      <c r="V8" s="3">
-        <v>0</v>
-      </c>
-      <c r="W8" s="3">
-        <v>0</v>
-      </c>
-      <c r="X8" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y8" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z8" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA8" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB8" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC8" s="3">
-        <v>0</v>
-      </c>
-      <c r="AD8" s="3">
-        <v>0</v>
-      </c>
-      <c r="AE8" s="3">
-        <v>0</v>
-      </c>
-      <c r="AF8" s="3">
-        <v>0</v>
-      </c>
-      <c r="AG8" s="3">
-        <v>0</v>
-      </c>
-      <c r="AH8" s="3">
-        <v>0</v>
-      </c>
-      <c r="AI8" s="3">
-        <v>0</v>
-      </c>
-      <c r="AJ8" s="3">
+      <c r="B8" s="17">
+        <v>0</v>
+      </c>
+      <c r="C8" s="17">
+        <v>0</v>
+      </c>
+      <c r="D8" s="17">
+        <v>0</v>
+      </c>
+      <c r="E8" s="10">
+        <v>0</v>
+      </c>
+      <c r="F8" s="10">
+        <v>0</v>
+      </c>
+      <c r="G8" s="10">
+        <v>0</v>
+      </c>
+      <c r="H8" s="10">
+        <v>0</v>
+      </c>
+      <c r="I8" s="10">
+        <v>0</v>
+      </c>
+      <c r="J8" s="10">
+        <v>0</v>
+      </c>
+      <c r="K8" s="10">
+        <v>0</v>
+      </c>
+      <c r="L8" s="10">
+        <v>0</v>
+      </c>
+      <c r="M8" s="10">
+        <v>0</v>
+      </c>
+      <c r="N8" s="10">
+        <v>0</v>
+      </c>
+      <c r="O8" s="10">
+        <v>0</v>
+      </c>
+      <c r="P8" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="10">
+        <v>0</v>
+      </c>
+      <c r="R8" s="10">
+        <v>0</v>
+      </c>
+      <c r="S8" s="10">
+        <v>0</v>
+      </c>
+      <c r="T8" s="10">
+        <v>0</v>
+      </c>
+      <c r="U8" s="10">
+        <v>0</v>
+      </c>
+      <c r="V8" s="10">
+        <v>0</v>
+      </c>
+      <c r="W8" s="10">
+        <v>0</v>
+      </c>
+      <c r="X8" s="10">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA8" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB8" s="10">
+        <v>0</v>
+      </c>
+      <c r="AC8" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD8" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE8" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF8" s="10">
+        <v>0</v>
+      </c>
+      <c r="AG8" s="10">
+        <v>0</v>
+      </c>
+      <c r="AH8" s="10">
+        <v>0</v>
+      </c>
+      <c r="AI8" s="10">
+        <v>0</v>
+      </c>
+      <c r="AJ8" s="10">
         <v>0</v>
       </c>
     </row>
-    <row r="9" s="3" customFormat="1" spans="1:36">
-      <c r="A9" s="11" t="s">
+    <row r="9" s="10" customFormat="1" ht="17" spans="1:36">
+      <c r="A9" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="B9" s="12">
-        <v>0</v>
-      </c>
-      <c r="C9" s="12">
-        <v>0</v>
-      </c>
-      <c r="D9" s="12">
-        <v>0</v>
-      </c>
-      <c r="E9" s="3">
-        <v>0</v>
-      </c>
-      <c r="F9" s="3">
-        <v>0</v>
-      </c>
-      <c r="G9" s="3">
-        <v>0</v>
-      </c>
-      <c r="H9" s="3">
-        <v>0</v>
-      </c>
-      <c r="I9" s="3">
-        <v>0</v>
-      </c>
-      <c r="J9" s="3">
-        <v>0</v>
-      </c>
-      <c r="K9" s="3">
-        <v>0</v>
-      </c>
-      <c r="L9" s="3">
-        <v>0</v>
-      </c>
-      <c r="M9" s="3">
-        <v>0</v>
-      </c>
-      <c r="N9" s="3">
-        <v>0</v>
-      </c>
-      <c r="O9" s="3">
-        <v>0</v>
-      </c>
-      <c r="P9" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="3">
-        <v>0</v>
-      </c>
-      <c r="R9" s="3">
-        <v>0</v>
-      </c>
-      <c r="S9" s="3">
-        <v>0</v>
-      </c>
-      <c r="T9" s="3">
-        <v>0</v>
-      </c>
-      <c r="U9" s="3">
-        <v>0</v>
-      </c>
-      <c r="V9" s="3">
-        <v>0</v>
-      </c>
-      <c r="W9" s="3">
-        <v>0</v>
-      </c>
-      <c r="X9" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y9" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z9" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA9" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB9" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC9" s="3">
-        <v>0</v>
-      </c>
-      <c r="AD9" s="3">
-        <v>0</v>
-      </c>
-      <c r="AE9" s="3">
-        <v>0</v>
-      </c>
-      <c r="AF9" s="3">
-        <v>0</v>
-      </c>
-      <c r="AG9" s="3">
-        <v>0</v>
-      </c>
-      <c r="AH9" s="3">
-        <v>0</v>
-      </c>
-      <c r="AI9" s="3">
-        <v>0</v>
-      </c>
-      <c r="AJ9" s="3">
+      <c r="B9" s="17">
+        <v>0</v>
+      </c>
+      <c r="C9" s="17">
+        <v>0</v>
+      </c>
+      <c r="D9" s="17">
+        <v>0</v>
+      </c>
+      <c r="E9" s="10">
+        <v>0</v>
+      </c>
+      <c r="F9" s="10">
+        <v>0</v>
+      </c>
+      <c r="G9" s="10">
+        <v>0</v>
+      </c>
+      <c r="H9" s="10">
+        <v>0</v>
+      </c>
+      <c r="I9" s="10">
+        <v>0</v>
+      </c>
+      <c r="J9" s="10">
+        <v>0</v>
+      </c>
+      <c r="K9" s="10">
+        <v>0</v>
+      </c>
+      <c r="L9" s="10">
+        <v>0</v>
+      </c>
+      <c r="M9" s="10">
+        <v>0</v>
+      </c>
+      <c r="N9" s="10">
+        <v>0</v>
+      </c>
+      <c r="O9" s="10">
+        <v>0</v>
+      </c>
+      <c r="P9" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="10">
+        <v>0</v>
+      </c>
+      <c r="R9" s="10">
+        <v>0</v>
+      </c>
+      <c r="S9" s="10">
+        <v>0</v>
+      </c>
+      <c r="T9" s="10">
+        <v>0</v>
+      </c>
+      <c r="U9" s="10">
+        <v>0</v>
+      </c>
+      <c r="V9" s="10">
+        <v>0</v>
+      </c>
+      <c r="W9" s="10">
+        <v>0</v>
+      </c>
+      <c r="X9" s="10">
+        <v>0</v>
+      </c>
+      <c r="Y9" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA9" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB9" s="10">
+        <v>0</v>
+      </c>
+      <c r="AC9" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD9" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE9" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF9" s="10">
+        <v>0</v>
+      </c>
+      <c r="AG9" s="10">
+        <v>0</v>
+      </c>
+      <c r="AH9" s="10">
+        <v>0</v>
+      </c>
+      <c r="AI9" s="10">
+        <v>0</v>
+      </c>
+      <c r="AJ9" s="10">
         <v>0</v>
       </c>
     </row>
-    <row r="10" s="4" customFormat="1" ht="14.25" spans="1:36">
-      <c r="A10" s="13" t="s">
+    <row r="10" s="11" customFormat="1" ht="34.75" spans="1:36">
+      <c r="A10" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="C10" s="14" t="s">
+      <c r="C10" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="D10" s="14" t="s">
+      <c r="D10" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="E10" s="15" t="s">
+      <c r="E10" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="F10" s="15" t="s">
+      <c r="F10" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="G10" s="15" t="s">
+      <c r="G10" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="H10" s="15" t="s">
+      <c r="H10" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="I10" s="15" t="s">
+      <c r="I10" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="J10" s="15" t="s">
+      <c r="J10" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="K10" s="15" t="s">
+      <c r="K10" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="L10" s="15" t="s">
+      <c r="L10" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="M10" s="15" t="s">
+      <c r="M10" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="N10" s="15" t="s">
+      <c r="N10" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="O10" s="15" t="s">
+      <c r="O10" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="P10" s="15" t="s">
+      <c r="P10" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="Q10" s="15" t="s">
+      <c r="Q10" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="R10" s="15" t="s">
+      <c r="R10" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="S10" s="15" t="s">
+      <c r="S10" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="T10" s="15" t="s">
+      <c r="T10" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="U10" s="15" t="s">
+      <c r="U10" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="V10" s="15" t="s">
+      <c r="V10" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="W10" s="15" t="s">
+      <c r="W10" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="X10" s="15" t="s">
+      <c r="X10" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="Y10" s="15" t="s">
+      <c r="Y10" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="Z10" s="15" t="s">
+      <c r="Z10" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="AA10" s="15" t="s">
+      <c r="AA10" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="AB10" s="15" t="s">
+      <c r="AB10" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="AC10" s="15" t="s">
+      <c r="AC10" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="AD10" s="19" t="s">
+      <c r="AD10" s="25" t="s">
         <v>74</v>
       </c>
-      <c r="AE10" s="15" t="s">
+      <c r="AE10" s="22" t="s">
         <v>75</v>
       </c>
-      <c r="AF10" s="15" t="s">
+      <c r="AF10" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="AG10" s="15" t="s">
+      <c r="AG10" s="22" t="s">
         <v>77</v>
       </c>
-      <c r="AH10" s="15" t="s">
+      <c r="AH10" s="22" t="s">
         <v>78</v>
       </c>
-      <c r="AI10" s="15" t="s">
+      <c r="AI10" s="22" t="s">
         <v>79</v>
       </c>
-      <c r="AJ10" s="15"/>
+      <c r="AJ10" s="22"/>
     </row>
     <row r="11" spans="1:36">
-      <c r="A11" s="16" t="s">
+      <c r="A11" s="20" t="s">
         <v>80</v>
       </c>
       <c r="B11">
@@ -3030,7 +3206,7 @@
       </c>
     </row>
     <row r="12" spans="1:36">
-      <c r="A12" s="16" t="s">
+      <c r="A12" s="20" t="s">
         <v>81</v>
       </c>
       <c r="B12">
@@ -3140,7 +3316,7 @@
       </c>
     </row>
     <row r="13" spans="1:36">
-      <c r="A13" s="16" t="s">
+      <c r="A13" s="20" t="s">
         <v>82</v>
       </c>
       <c r="B13">
@@ -3250,7 +3426,7 @@
       </c>
     </row>
     <row r="14" spans="1:36">
-      <c r="A14" s="16" t="s">
+      <c r="A14" s="20" t="s">
         <v>83</v>
       </c>
       <c r="B14">
@@ -3360,7 +3536,7 @@
       </c>
     </row>
     <row r="15" spans="1:36">
-      <c r="A15" s="16" t="s">
+      <c r="A15" s="20" t="s">
         <v>84</v>
       </c>
       <c r="B15">
@@ -3470,7 +3646,7 @@
       </c>
     </row>
     <row r="16" spans="1:36">
-      <c r="A16" s="16" t="s">
+      <c r="A16" s="20" t="s">
         <v>85</v>
       </c>
       <c r="B16">
@@ -3580,7 +3756,7 @@
       </c>
     </row>
     <row r="17" spans="1:36">
-      <c r="A17" s="16" t="s">
+      <c r="A17" s="20" t="s">
         <v>86</v>
       </c>
       <c r="B17">
@@ -3690,7 +3866,7 @@
       </c>
     </row>
     <row r="18" spans="1:36">
-      <c r="A18" s="16" t="s">
+      <c r="A18" s="20" t="s">
         <v>87</v>
       </c>
       <c r="B18">
@@ -3800,7 +3976,7 @@
       </c>
     </row>
     <row r="19" spans="1:36">
-      <c r="A19" s="16" t="s">
+      <c r="A19" s="20" t="s">
         <v>88</v>
       </c>
       <c r="B19">
@@ -3910,7 +4086,7 @@
       </c>
     </row>
     <row r="20" spans="1:36">
-      <c r="A20" s="16" t="s">
+      <c r="A20" s="20" t="s">
         <v>89</v>
       </c>
       <c r="B20">
@@ -4020,7 +4196,7 @@
       </c>
     </row>
     <row r="21" spans="1:36">
-      <c r="A21" s="16" t="s">
+      <c r="A21" s="20" t="s">
         <v>90</v>
       </c>
       <c r="B21">
@@ -4130,7 +4306,7 @@
       </c>
     </row>
     <row r="22" spans="1:36">
-      <c r="A22" s="16" t="s">
+      <c r="A22" s="20" t="s">
         <v>91</v>
       </c>
       <c r="B22">
@@ -4240,7 +4416,7 @@
       </c>
     </row>
     <row r="23" spans="1:36">
-      <c r="A23" s="16" t="s">
+      <c r="A23" s="20" t="s">
         <v>92</v>
       </c>
       <c r="B23">
@@ -4350,7 +4526,7 @@
       </c>
     </row>
     <row r="24" spans="1:36">
-      <c r="A24" s="16" t="s">
+      <c r="A24" s="20" t="s">
         <v>93</v>
       </c>
       <c r="B24">
@@ -4460,7 +4636,7 @@
       </c>
     </row>
     <row r="25" spans="1:36">
-      <c r="A25" s="16" t="s">
+      <c r="A25" s="20" t="s">
         <v>94</v>
       </c>
       <c r="B25">
@@ -4570,7 +4746,7 @@
       </c>
     </row>
     <row r="26" spans="1:36">
-      <c r="A26" s="16" t="s">
+      <c r="A26" s="20" t="s">
         <v>95</v>
       </c>
       <c r="B26">
@@ -4680,7 +4856,7 @@
       </c>
     </row>
     <row r="27" spans="1:36">
-      <c r="A27" s="16" t="s">
+      <c r="A27" s="20" t="s">
         <v>96</v>
       </c>
       <c r="B27">
@@ -4790,7 +4966,7 @@
       </c>
     </row>
     <row r="28" spans="1:36">
-      <c r="A28" s="16" t="s">
+      <c r="A28" s="20" t="s">
         <v>97</v>
       </c>
       <c r="B28">
@@ -4900,7 +5076,7 @@
       </c>
     </row>
     <row r="29" spans="1:36">
-      <c r="A29" s="16" t="s">
+      <c r="A29" s="20" t="s">
         <v>98</v>
       </c>
       <c r="B29">
@@ -5010,7 +5186,7 @@
       </c>
     </row>
     <row r="30" spans="1:36">
-      <c r="A30" s="16" t="s">
+      <c r="A30" s="20" t="s">
         <v>99</v>
       </c>
       <c r="B30">
@@ -5120,7 +5296,7 @@
       </c>
     </row>
     <row r="31" spans="1:36">
-      <c r="A31" s="16" t="s">
+      <c r="A31" s="20" t="s">
         <v>100</v>
       </c>
       <c r="B31">
@@ -5230,7 +5406,7 @@
       </c>
     </row>
     <row r="32" spans="1:36">
-      <c r="A32" s="16" t="s">
+      <c r="A32" s="20" t="s">
         <v>101</v>
       </c>
       <c r="B32">
@@ -5340,7 +5516,7 @@
       </c>
     </row>
     <row r="33" spans="1:36">
-      <c r="A33" s="16" t="s">
+      <c r="A33" s="20" t="s">
         <v>102</v>
       </c>
       <c r="B33">
@@ -5450,7 +5626,7 @@
       </c>
     </row>
     <row r="34" spans="1:36">
-      <c r="A34" s="16" t="s">
+      <c r="A34" s="20" t="s">
         <v>103</v>
       </c>
       <c r="B34">
@@ -5560,7 +5736,7 @@
       </c>
     </row>
     <row r="35" spans="1:36">
-      <c r="A35" s="16" t="s">
+      <c r="A35" s="20" t="s">
         <v>104</v>
       </c>
       <c r="B35">
@@ -5670,7 +5846,7 @@
       </c>
     </row>
     <row r="36" spans="1:36">
-      <c r="A36" s="16" t="s">
+      <c r="A36" s="20" t="s">
         <v>105</v>
       </c>
       <c r="B36">
@@ -5780,7 +5956,7 @@
       </c>
     </row>
     <row r="37" spans="1:36">
-      <c r="A37" s="16" t="s">
+      <c r="A37" s="20" t="s">
         <v>106</v>
       </c>
       <c r="B37">
@@ -5890,7 +6066,7 @@
       </c>
     </row>
     <row r="38" spans="1:36">
-      <c r="A38" s="16" t="s">
+      <c r="A38" s="20" t="s">
         <v>107</v>
       </c>
       <c r="B38">
@@ -6000,7 +6176,7 @@
       </c>
     </row>
     <row r="39" spans="1:36">
-      <c r="A39" s="16" t="s">
+      <c r="A39" s="20" t="s">
         <v>108</v>
       </c>
       <c r="B39">
@@ -6110,7 +6286,7 @@
       </c>
     </row>
     <row r="40" spans="1:36">
-      <c r="A40" s="16" t="s">
+      <c r="A40" s="20" t="s">
         <v>109</v>
       </c>
       <c r="B40">
@@ -6220,7 +6396,7 @@
       </c>
     </row>
     <row r="41" spans="1:36">
-      <c r="A41" s="16" t="s">
+      <c r="A41" s="20" t="s">
         <v>110</v>
       </c>
       <c r="B41">
@@ -6330,7 +6506,7 @@
       </c>
     </row>
     <row r="42" spans="1:36">
-      <c r="A42" s="16" t="s">
+      <c r="A42" s="20" t="s">
         <v>111</v>
       </c>
       <c r="B42">
@@ -6440,7 +6616,7 @@
       </c>
     </row>
     <row r="43" spans="1:36">
-      <c r="A43" s="16" t="s">
+      <c r="A43" s="20" t="s">
         <v>112</v>
       </c>
       <c r="B43">
@@ -6550,7 +6726,7 @@
       </c>
     </row>
     <row r="44" spans="1:36">
-      <c r="A44" s="16" t="s">
+      <c r="A44" s="20" t="s">
         <v>113</v>
       </c>
       <c r="B44">
@@ -6660,7 +6836,7 @@
       </c>
     </row>
     <row r="45" spans="1:36">
-      <c r="A45" s="16" t="s">
+      <c r="A45" s="20" t="s">
         <v>114</v>
       </c>
       <c r="B45">
@@ -6770,7 +6946,7 @@
       </c>
     </row>
     <row r="46" spans="1:36">
-      <c r="A46" s="16" t="s">
+      <c r="A46" s="20" t="s">
         <v>115</v>
       </c>
       <c r="B46">
@@ -6880,7 +7056,7 @@
       </c>
     </row>
     <row r="47" spans="1:36">
-      <c r="A47" s="16" t="s">
+      <c r="A47" s="20" t="s">
         <v>116</v>
       </c>
       <c r="B47">
@@ -6990,7 +7166,7 @@
       </c>
     </row>
     <row r="48" spans="1:36">
-      <c r="A48" s="16" t="s">
+      <c r="A48" s="20" t="s">
         <v>117</v>
       </c>
       <c r="B48">
@@ -7100,7 +7276,7 @@
       </c>
     </row>
     <row r="49" spans="1:36">
-      <c r="A49" s="16" t="s">
+      <c r="A49" s="20" t="s">
         <v>118</v>
       </c>
       <c r="B49">
@@ -7210,7 +7386,7 @@
       </c>
     </row>
     <row r="50" spans="1:36">
-      <c r="A50" s="16" t="s">
+      <c r="A50" s="20" t="s">
         <v>119</v>
       </c>
       <c r="B50">
@@ -7320,7 +7496,7 @@
       </c>
     </row>
     <row r="51" spans="1:36">
-      <c r="A51" s="16" t="s">
+      <c r="A51" s="20" t="s">
         <v>120</v>
       </c>
       <c r="B51">
@@ -7430,7 +7606,7 @@
       </c>
     </row>
     <row r="52" spans="1:36">
-      <c r="A52" s="16" t="s">
+      <c r="A52" s="20" t="s">
         <v>121</v>
       </c>
       <c r="B52">
@@ -7540,7 +7716,7 @@
       </c>
     </row>
     <row r="53" spans="1:36">
-      <c r="A53" s="16" t="s">
+      <c r="A53" s="20" t="s">
         <v>122</v>
       </c>
       <c r="B53">
@@ -7650,7 +7826,7 @@
       </c>
     </row>
     <row r="54" spans="1:36">
-      <c r="A54" s="16" t="s">
+      <c r="A54" s="20" t="s">
         <v>123</v>
       </c>
       <c r="B54">
@@ -7760,7 +7936,7 @@
       </c>
     </row>
     <row r="55" spans="1:36">
-      <c r="A55" s="16" t="s">
+      <c r="A55" s="20" t="s">
         <v>124</v>
       </c>
       <c r="B55">
@@ -7870,7 +8046,7 @@
       </c>
     </row>
     <row r="56" spans="1:36">
-      <c r="A56" s="16" t="s">
+      <c r="A56" s="20" t="s">
         <v>125</v>
       </c>
       <c r="B56">
@@ -7980,7 +8156,7 @@
       </c>
     </row>
     <row r="57" spans="1:36">
-      <c r="A57" s="16" t="s">
+      <c r="A57" s="20" t="s">
         <v>126</v>
       </c>
       <c r="B57">
@@ -8090,7 +8266,7 @@
       </c>
     </row>
     <row r="58" spans="1:36">
-      <c r="A58" s="16" t="s">
+      <c r="A58" s="20" t="s">
         <v>127</v>
       </c>
       <c r="B58">
@@ -8200,7 +8376,7 @@
       </c>
     </row>
     <row r="59" spans="1:36">
-      <c r="A59" s="16" t="s">
+      <c r="A59" s="20" t="s">
         <v>128</v>
       </c>
       <c r="B59">
@@ -8310,7 +8486,7 @@
       </c>
     </row>
     <row r="60" spans="1:36">
-      <c r="A60" s="16" t="s">
+      <c r="A60" s="20" t="s">
         <v>129</v>
       </c>
       <c r="B60">
@@ -8420,7 +8596,7 @@
       </c>
     </row>
     <row r="61" spans="1:36">
-      <c r="A61" s="16" t="s">
+      <c r="A61" s="20" t="s">
         <v>130</v>
       </c>
       <c r="B61">
@@ -8530,7 +8706,7 @@
       </c>
     </row>
     <row r="62" spans="1:36">
-      <c r="A62" s="16" t="s">
+      <c r="A62" s="20" t="s">
         <v>131</v>
       </c>
       <c r="B62">
@@ -8640,7 +8816,7 @@
       </c>
     </row>
     <row r="63" spans="1:36">
-      <c r="A63" s="16" t="s">
+      <c r="A63" s="20" t="s">
         <v>132</v>
       </c>
       <c r="B63">
@@ -8750,7 +8926,7 @@
       </c>
     </row>
     <row r="64" spans="1:36">
-      <c r="A64" s="16" t="s">
+      <c r="A64" s="20" t="s">
         <v>133</v>
       </c>
       <c r="B64">
@@ -8860,7 +9036,7 @@
       </c>
     </row>
     <row r="65" spans="1:36">
-      <c r="A65" s="16" t="s">
+      <c r="A65" s="20" t="s">
         <v>134</v>
       </c>
       <c r="B65">
@@ -8970,7 +9146,7 @@
       </c>
     </row>
     <row r="66" spans="1:36">
-      <c r="A66" s="16" t="s">
+      <c r="A66" s="20" t="s">
         <v>135</v>
       </c>
       <c r="B66">
@@ -9080,7 +9256,7 @@
       </c>
     </row>
     <row r="67" spans="1:36">
-      <c r="A67" s="16" t="s">
+      <c r="A67" s="20" t="s">
         <v>136</v>
       </c>
       <c r="B67">
@@ -9190,7 +9366,7 @@
       </c>
     </row>
     <row r="68" spans="1:36">
-      <c r="A68" s="16" t="s">
+      <c r="A68" s="20" t="s">
         <v>137</v>
       </c>
       <c r="B68">
@@ -9300,7 +9476,7 @@
       </c>
     </row>
     <row r="69" spans="1:36">
-      <c r="A69" s="16" t="s">
+      <c r="A69" s="20" t="s">
         <v>138</v>
       </c>
       <c r="B69">
@@ -9410,7 +9586,7 @@
       </c>
     </row>
     <row r="70" spans="1:36">
-      <c r="A70" s="16" t="s">
+      <c r="A70" s="20" t="s">
         <v>139</v>
       </c>
       <c r="B70">
@@ -9520,7 +9696,7 @@
       </c>
     </row>
     <row r="71" spans="1:36">
-      <c r="A71" s="16" t="s">
+      <c r="A71" s="20" t="s">
         <v>140</v>
       </c>
       <c r="B71">
@@ -9630,7 +9806,7 @@
       </c>
     </row>
     <row r="72" spans="1:36">
-      <c r="A72" s="16" t="s">
+      <c r="A72" s="20" t="s">
         <v>141</v>
       </c>
       <c r="B72">
@@ -9740,7 +9916,7 @@
       </c>
     </row>
     <row r="73" spans="1:36">
-      <c r="A73" s="16" t="s">
+      <c r="A73" s="20" t="s">
         <v>142</v>
       </c>
       <c r="B73">
@@ -9850,7 +10026,7 @@
       </c>
     </row>
     <row r="74" spans="1:36">
-      <c r="A74" s="16" t="s">
+      <c r="A74" s="20" t="s">
         <v>143</v>
       </c>
       <c r="B74">
@@ -9960,7 +10136,7 @@
       </c>
     </row>
     <row r="75" spans="1:36">
-      <c r="A75" s="16" t="s">
+      <c r="A75" s="20" t="s">
         <v>144</v>
       </c>
       <c r="B75">
@@ -10070,7 +10246,7 @@
       </c>
     </row>
     <row r="76" spans="1:36">
-      <c r="A76" s="16" t="s">
+      <c r="A76" s="20" t="s">
         <v>145</v>
       </c>
       <c r="B76">
@@ -10180,7 +10356,7 @@
       </c>
     </row>
     <row r="77" spans="1:36">
-      <c r="A77" s="16" t="s">
+      <c r="A77" s="20" t="s">
         <v>146</v>
       </c>
       <c r="B77">
@@ -10290,7 +10466,7 @@
       </c>
     </row>
     <row r="78" spans="1:36">
-      <c r="A78" s="16" t="s">
+      <c r="A78" s="20" t="s">
         <v>147</v>
       </c>
       <c r="B78">
@@ -10400,7 +10576,7 @@
       </c>
     </row>
     <row r="79" spans="1:36">
-      <c r="A79" s="16" t="s">
+      <c r="A79" s="20" t="s">
         <v>148</v>
       </c>
       <c r="B79">
@@ -10510,7 +10686,7 @@
       </c>
     </row>
     <row r="80" spans="1:36">
-      <c r="A80" s="16" t="s">
+      <c r="A80" s="20" t="s">
         <v>149</v>
       </c>
       <c r="B80">
@@ -10620,7 +10796,7 @@
       </c>
     </row>
     <row r="81" spans="1:36">
-      <c r="A81" s="16" t="s">
+      <c r="A81" s="20" t="s">
         <v>150</v>
       </c>
       <c r="B81">
@@ -10730,7 +10906,7 @@
       </c>
     </row>
     <row r="82" spans="1:36">
-      <c r="A82" s="16" t="s">
+      <c r="A82" s="20" t="s">
         <v>151</v>
       </c>
       <c r="B82">
@@ -10840,7 +11016,7 @@
       </c>
     </row>
     <row r="83" spans="1:36">
-      <c r="A83" s="16" t="s">
+      <c r="A83" s="20" t="s">
         <v>152</v>
       </c>
       <c r="B83">
@@ -10950,7 +11126,7 @@
       </c>
     </row>
     <row r="84" spans="1:36">
-      <c r="A84" s="16" t="s">
+      <c r="A84" s="20" t="s">
         <v>153</v>
       </c>
       <c r="B84">
@@ -11060,7 +11236,7 @@
       </c>
     </row>
     <row r="85" spans="1:36">
-      <c r="A85" s="16" t="s">
+      <c r="A85" s="20" t="s">
         <v>154</v>
       </c>
       <c r="B85">
@@ -11170,7 +11346,7 @@
       </c>
     </row>
     <row r="86" spans="1:36">
-      <c r="A86" s="16" t="s">
+      <c r="A86" s="20" t="s">
         <v>155</v>
       </c>
       <c r="B86">
@@ -11280,7 +11456,7 @@
       </c>
     </row>
     <row r="87" spans="1:36">
-      <c r="A87" s="16" t="s">
+      <c r="A87" s="20" t="s">
         <v>156</v>
       </c>
       <c r="B87">
@@ -11390,7 +11566,7 @@
       </c>
     </row>
     <row r="88" spans="1:36">
-      <c r="A88" s="16" t="s">
+      <c r="A88" s="20" t="s">
         <v>157</v>
       </c>
       <c r="B88">
@@ -11500,7 +11676,7 @@
       </c>
     </row>
     <row r="89" spans="1:36">
-      <c r="A89" s="16" t="s">
+      <c r="A89" s="20" t="s">
         <v>158</v>
       </c>
       <c r="B89">
@@ -11610,7 +11786,7 @@
       </c>
     </row>
     <row r="90" spans="1:36">
-      <c r="A90" s="16" t="s">
+      <c r="A90" s="20" t="s">
         <v>159</v>
       </c>
       <c r="B90">
@@ -11720,7 +11896,7 @@
       </c>
     </row>
     <row r="91" spans="1:36">
-      <c r="A91" s="16" t="s">
+      <c r="A91" s="20" t="s">
         <v>160</v>
       </c>
       <c r="B91">
@@ -11830,7 +12006,7 @@
       </c>
     </row>
     <row r="92" spans="1:36">
-      <c r="A92" s="16" t="s">
+      <c r="A92" s="20" t="s">
         <v>161</v>
       </c>
       <c r="B92">
@@ -11940,7 +12116,7 @@
       </c>
     </row>
     <row r="93" spans="1:36">
-      <c r="A93" s="16" t="s">
+      <c r="A93" s="20" t="s">
         <v>162</v>
       </c>
       <c r="B93">
@@ -12050,7 +12226,7 @@
       </c>
     </row>
     <row r="94" spans="1:36">
-      <c r="A94" s="16" t="s">
+      <c r="A94" s="20" t="s">
         <v>163</v>
       </c>
       <c r="B94">
@@ -12160,7 +12336,7 @@
       </c>
     </row>
     <row r="95" spans="1:36">
-      <c r="A95" s="16" t="s">
+      <c r="A95" s="20" t="s">
         <v>164</v>
       </c>
       <c r="B95">
@@ -12270,7 +12446,7 @@
       </c>
     </row>
     <row r="96" spans="1:36">
-      <c r="A96" s="16" t="s">
+      <c r="A96" s="20" t="s">
         <v>165</v>
       </c>
       <c r="B96">
@@ -12380,7 +12556,7 @@
       </c>
     </row>
     <row r="97" spans="1:36">
-      <c r="A97" s="16" t="s">
+      <c r="A97" s="20" t="s">
         <v>166</v>
       </c>
       <c r="B97">
@@ -12490,7 +12666,7 @@
       </c>
     </row>
     <row r="98" spans="1:36">
-      <c r="A98" s="16" t="s">
+      <c r="A98" s="20" t="s">
         <v>167</v>
       </c>
       <c r="B98">
@@ -12600,7 +12776,7 @@
       </c>
     </row>
     <row r="99" spans="1:36">
-      <c r="A99" s="16" t="s">
+      <c r="A99" s="20" t="s">
         <v>168</v>
       </c>
       <c r="B99">
@@ -12710,7 +12886,7 @@
       </c>
     </row>
     <row r="100" spans="1:36">
-      <c r="A100" s="16" t="s">
+      <c r="A100" s="20" t="s">
         <v>169</v>
       </c>
       <c r="B100">
@@ -12820,7 +12996,7 @@
       </c>
     </row>
     <row r="101" spans="1:36">
-      <c r="A101" s="16" t="s">
+      <c r="A101" s="20" t="s">
         <v>170</v>
       </c>
       <c r="B101">
@@ -12930,7 +13106,7 @@
       </c>
     </row>
     <row r="102" spans="1:36">
-      <c r="A102" s="16" t="s">
+      <c r="A102" s="20" t="s">
         <v>171</v>
       </c>
       <c r="B102">
@@ -13040,7 +13216,7 @@
       </c>
     </row>
     <row r="103" spans="1:36">
-      <c r="A103" s="16" t="s">
+      <c r="A103" s="20" t="s">
         <v>172</v>
       </c>
       <c r="B103">
@@ -13150,7 +13326,7 @@
       </c>
     </row>
     <row r="104" spans="1:36">
-      <c r="A104" s="16" t="s">
+      <c r="A104" s="20" t="s">
         <v>173</v>
       </c>
       <c r="B104">
@@ -13260,7 +13436,7 @@
       </c>
     </row>
     <row r="105" spans="1:36">
-      <c r="A105" s="16" t="s">
+      <c r="A105" s="20" t="s">
         <v>174</v>
       </c>
       <c r="B105">
@@ -13370,7 +13546,7 @@
       </c>
     </row>
     <row r="106" spans="1:36">
-      <c r="A106" s="16" t="s">
+      <c r="A106" s="20" t="s">
         <v>175</v>
       </c>
       <c r="B106">
@@ -13480,7 +13656,7 @@
       </c>
     </row>
     <row r="107" spans="1:36">
-      <c r="A107" s="16" t="s">
+      <c r="A107" s="20" t="s">
         <v>176</v>
       </c>
       <c r="B107">
@@ -13590,7 +13766,7 @@
       </c>
     </row>
     <row r="108" spans="1:36">
-      <c r="A108" s="16" t="s">
+      <c r="A108" s="20" t="s">
         <v>177</v>
       </c>
       <c r="B108">
@@ -13700,7 +13876,7 @@
       </c>
     </row>
     <row r="109" spans="1:36">
-      <c r="A109" s="16" t="s">
+      <c r="A109" s="20" t="s">
         <v>178</v>
       </c>
       <c r="B109">
@@ -13810,7 +13986,7 @@
       </c>
     </row>
     <row r="110" spans="1:36">
-      <c r="A110" s="16" t="s">
+      <c r="A110" s="20" t="s">
         <v>179</v>
       </c>
       <c r="B110">
@@ -13930,4 +14106,382 @@
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:AF26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
+  <cols>
+    <col min="1" max="1" width="19.3365384615385" customWidth="1"/>
+    <col min="2" max="2" width="60.3076923076923" customWidth="1"/>
+    <col min="3" max="3" width="7.16346153846154" customWidth="1"/>
+    <col min="4" max="4" width="10.5" customWidth="1"/>
+    <col min="5" max="5" width="11.6634615384615" customWidth="1"/>
+    <col min="8" max="9" width="9.16346153846154" customWidth="1"/>
+    <col min="10" max="12" width="12.6634615384615" customWidth="1"/>
+    <col min="13" max="13" width="21.1634615384615" customWidth="1"/>
+    <col min="14" max="14" width="10.3365384615385" customWidth="1"/>
+    <col min="15" max="16" width="11.6634615384615" customWidth="1"/>
+    <col min="17" max="17" width="10.3365384615385" customWidth="1"/>
+    <col min="18" max="18" width="9.16346153846154" customWidth="1"/>
+    <col min="19" max="19" width="12.6634615384615" customWidth="1"/>
+    <col min="20" max="20" width="10.3365384615385" customWidth="1"/>
+    <col min="21" max="22" width="15.1634615384615" customWidth="1"/>
+    <col min="23" max="23" width="14" customWidth="1"/>
+    <col min="24" max="24" width="12.6634615384615" customWidth="1"/>
+    <col min="25" max="25" width="14" customWidth="1"/>
+    <col min="26" max="27" width="11.6634615384615" customWidth="1"/>
+    <col min="28" max="28" width="15.1634615384615" customWidth="1"/>
+    <col min="29" max="29" width="12.6634615384615" customWidth="1"/>
+    <col min="30" max="32" width="14" customWidth="1"/>
+    <col min="33" max="34" width="15.1634615384615" customWidth="1"/>
+    <col min="35" max="35" width="14" customWidth="1"/>
+    <col min="36" max="36" width="15.1634615384615" customWidth="1"/>
+    <col min="37" max="37" width="19" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="2" s="2" customFormat="1" spans="1:2">
+      <c r="A2" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="B2" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" s="2" customFormat="1" spans="1:2">
+      <c r="A3" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="B3" s="2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" s="2" customFormat="1" spans="1:2">
+      <c r="A4" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" s="2" customFormat="1" spans="1:2">
+      <c r="A5" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" s="2" customFormat="1" spans="1:2">
+      <c r="A6" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" s="2" customFormat="1" spans="1:2">
+      <c r="A7" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B7" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" s="2" customFormat="1" spans="1:2">
+      <c r="A8" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B8" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" s="2" customFormat="1" spans="1:2">
+      <c r="A9" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B9" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" s="2" customFormat="1" ht="17" spans="1:2">
+      <c r="A10" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="B10" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" s="2" customFormat="1" spans="1:32">
+      <c r="A11" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="K11" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="L11" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="M11" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="N11" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="O11" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="P11" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q11" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="R11" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="S11" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="T11" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="U11" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="V11" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="W11" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="X11" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y11" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z11" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="AA11" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB11" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="AC11" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="AD11" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="AE11" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="AF11" s="7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" s="2" customFormat="1" spans="1:32">
+      <c r="A12" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="K12" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="L12" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="M12" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="N12" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="O12" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="P12" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q12" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="R12" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="S12" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="T12" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="U12" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="V12" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="W12" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="X12" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y12" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z12" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA12" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="AB12" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC12" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD12" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="AE12" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="AF12" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" s="2" customFormat="1" spans="1:32">
+      <c r="A13" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B13" s="5"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="4"/>
+      <c r="N13" s="4"/>
+      <c r="O13" s="4"/>
+      <c r="P13" s="4"/>
+      <c r="Q13" s="4"/>
+      <c r="R13" s="4"/>
+      <c r="S13" s="4"/>
+      <c r="T13" s="4"/>
+      <c r="U13" s="4"/>
+      <c r="V13" s="4"/>
+      <c r="W13" s="4"/>
+      <c r="X13" s="4"/>
+      <c r="Y13" s="4"/>
+      <c r="Z13" s="4"/>
+      <c r="AA13" s="4"/>
+      <c r="AB13" s="4"/>
+      <c r="AC13" s="4"/>
+      <c r="AD13" s="4"/>
+      <c r="AE13" s="4"/>
+      <c r="AF13" s="4"/>
+    </row>
+    <row r="23" customFormat="1" spans="12:13">
+      <c r="L23" s="6"/>
+      <c r="M23" s="6"/>
+    </row>
+    <row r="26" customFormat="1" spans="15:17">
+      <c r="O26" s="6"/>
+      <c r="P26" s="6"/>
+      <c r="Q26" s="6"/>
+    </row>
+  </sheetData>
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A6 B6:B10 A4:B5 D13:G1048576 D1:G10">
+      <formula1>"TRUE,FALSE"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="A12:C12 P12 V12 W12 AF12 I23:K23 N23:O23 P23 Q23:U23 V23 W23:AE23 AF23 I26:N26 R26:U26 V26 W26:AE26 AF26 P1:P10 P13:P22 P24:P25 P27:P1048576 V1:V10 V13:V22 V24:V25 V27:V1048576 AF1:AF10 AF13:AF22 AF24:AF25 AF27:AF1048576 D11:O12 I1:O10 I27:O1048576 I13:O22 I24:O25 Q11:U12 Q1:U10 Q27:U1048576 Q13:U22 Q24:U25 X11:AE12 W1:AE10 W27:AE1048576 W13:AE22 W24:AE25 AG$1:AM$1048576">
+      <formula1>"int,string,float,object"</formula1>
+    </dataValidation>
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C13 C1:C10 A2:B3 B14:C1048576">
+      <formula1>0</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
 </file>